--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2665C64C-3546-4279-B70D-8144F4CDE7AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -13,12 +14,12 @@
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t>Plan</t>
   </si>
@@ -220,11 +221,14 @@
   <si>
     <t>pro2E, Team-x Personalkosten Tracking</t>
   </si>
+  <si>
+    <t>Pascal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -372,8 +376,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -404,7 +408,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1803,22 +1807,22 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47599999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0939999999999999</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>1.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,22 +2088,22 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.36</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6239999999999997</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.927999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2616,7 +2620,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4015,37 +4019,37 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47599999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0939999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2839999999999998</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.76</c:v>
+                  <c:v>2.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8789999999999996</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8789999999999996</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2359999999999998</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4311,37 +4315,37 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.36</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6239999999999997</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.927999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.219999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4403,19 +4407,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1560000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6520000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4476,19 +4480,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1760000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4480000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,7 +4922,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6317,55 +6321,55 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47599999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0939999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2839999999999998</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.76</c:v>
+                  <c:v>2.1419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8789999999999996</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8789999999999996</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2359999999999998</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4740000000000002</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7119999999999997</c:v>
+                  <c:v>2.2610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8309999999999995</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9499999999999993</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1879999999999988</c:v>
+                  <c:v>2.7369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3069999999999986</c:v>
+                  <c:v>2.8559999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6631,55 +6635,55 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>1.36</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6239999999999997</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.927999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.219999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6741,37 +6745,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1560000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6520000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7799999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.411999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0439999999999987</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.675999999999998</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6832,37 +6836,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1760000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4480000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2360000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7320000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2280000000000015</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.724000000000002</c:v>
+                  <c:v>2.992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.036000000000001</c:v>
+                  <c:v>5.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.444000000000001</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7328,7 +7332,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8727,67 +8731,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47599999999999998</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1.6659999999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0939999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>2.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4989999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3.8079999999999998</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="19">
                   <c:v>4.2839999999999998</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="20">
                   <c:v>4.76</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.2359999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.4740000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.7119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.8309999999999995</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.9499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.1879999999999988</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.3069999999999986</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.7829999999999986</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.2589999999999986</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.7349999999999985</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.2109999999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9053,67 +9057,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.36</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6239999999999997</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.4319999999999986</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.927999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.219999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.171999999999999</c:v>
+                  <c:v>0.748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9175,49 +9179,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13600000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1560000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6520000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7799999999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.411999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0439999999999987</c:v>
+                  <c:v>1.6319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.675999999999998</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.763999999999999</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9278,49 +9282,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1760000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4480000000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.74</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2360000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.7320000000000011</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2280000000000015</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.724000000000002</c:v>
+                  <c:v>2.992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.036000000000001</c:v>
+                  <c:v>5.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.444000000000001</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.444000000000001</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.444000000000001</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12.444000000000001</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>12.444000000000001</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9824,7 +9828,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9861,7 +9871,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9898,7 +9914,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9935,7 +9957,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -9956,7 +9984,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10031,6 +10059,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -10066,6 +10111,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10241,37 +10303,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="25" width="8.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" style="1" customWidth="1"/>
+    <col min="5" max="25" width="8.7265625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10279,7 +10341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10287,7 +10349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
@@ -10296,10 +10358,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10310,7 +10372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
@@ -10379,7 +10441,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10410,7 +10472,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -10428,13 +10490,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
@@ -10510,7 +10572,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
@@ -10601,7 +10663,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10697,7 +10759,7 @@
         <v>7.6159999999999952</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
@@ -10792,10 +10854,10 @@
         <v>7.6159999999999952</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
@@ -10805,45 +10867,19 @@
       <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="20">
-        <v>4</v>
-      </c>
-      <c r="F19" s="20">
-        <v>4</v>
-      </c>
-      <c r="G19" s="20">
-        <v>6</v>
-      </c>
-      <c r="H19" s="20">
-        <v>8</v>
-      </c>
-      <c r="I19" s="20">
-        <v>6</v>
-      </c>
-      <c r="J19" s="20">
-        <v>2</v>
-      </c>
-      <c r="K19" s="20">
-        <v>2</v>
-      </c>
-      <c r="L19" s="20">
-        <v>4</v>
-      </c>
-      <c r="M19" s="20">
-        <v>4</v>
-      </c>
-      <c r="N19" s="20">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20">
-        <v>3</v>
-      </c>
-      <c r="P19" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>2</v>
-      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="20">
         <v>1</v>
       </c>
@@ -10870,10 +10906,10 @@
       </c>
       <c r="AA19" s="23">
         <f>SUM(E19:Y19)</f>
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -10886,12 +10922,8 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="20">
-        <v>2</v>
-      </c>
-      <c r="L20" s="20">
-        <v>4</v>
-      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
       <c r="O20" s="20"/>
@@ -10909,10 +10941,10 @@
       <c r="Y20" s="20"/>
       <c r="AA20" s="23">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
@@ -10945,26 +10977,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="21">
         <f>SUM(E19:E21)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" ref="F22:H22" si="4">SUM(F19:F21)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22" s="21">
         <v>4</v>
@@ -10987,15 +11019,15 @@
       </c>
       <c r="O22" s="21">
         <f t="shared" ref="O22" si="6">SUM(O19:O21)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P22" s="21">
         <f t="shared" ref="P22" si="7">SUM(P19:P21)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="21">
         <f t="shared" ref="Q22" si="8">SUM(Q19:Q21)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R22" s="21">
         <f t="shared" ref="R22" si="9">SUM(R19:R21)</f>
@@ -11031,10 +11063,10 @@
       </c>
       <c r="AA22" s="21">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
@@ -11045,87 +11077,87 @@
       </c>
       <c r="F23" s="19">
         <f>E23+F22</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G23" s="19">
         <f t="shared" ref="G23:Y23" si="17">F23+G22</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="K23" s="19">
         <f t="shared" si="17"/>
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M23" s="19">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="17"/>
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="17"/>
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="19">
         <f t="shared" si="17"/>
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="17"/>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="17"/>
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="T23" s="19">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="U23" s="19">
         <f t="shared" si="17"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="V23" s="19">
         <f t="shared" si="17"/>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="W23" s="19">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="X23" s="19">
         <f t="shared" si="17"/>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="Y23" s="19">
         <f t="shared" si="17"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="9" t="s">
         <v>38</v>
       </c>
@@ -11134,19 +11166,19 @@
       </c>
       <c r="E24" s="11">
         <f>E22*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" ref="F24:Y24" si="18">F22*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="18"/>
-        <v>0.71399999999999997</v>
+        <v>0</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="18"/>
-        <v>0.95199999999999996</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="18"/>
@@ -11174,15 +11206,15 @@
       </c>
       <c r="O24" s="11">
         <f t="shared" si="18"/>
-        <v>0.35699999999999998</v>
+        <v>0</v>
       </c>
       <c r="P24" s="11">
         <f t="shared" si="18"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="11">
         <f t="shared" si="18"/>
-        <v>0.23799999999999999</v>
+        <v>0</v>
       </c>
       <c r="R24" s="11">
         <f t="shared" si="18"/>
@@ -11218,10 +11250,10 @@
       </c>
       <c r="AA24" s="11">
         <f>SUM(E24:Y24)</f>
-        <v>8.2109999999999985</v>
+        <v>4.76</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
@@ -11233,96 +11265,96 @@
       </c>
       <c r="E25" s="11">
         <f>E24</f>
-        <v>0.47599999999999998</v>
+        <v>0</v>
       </c>
       <c r="F25" s="11">
         <f>E25+F24</f>
-        <v>0.95199999999999996</v>
+        <v>0</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25" si="19">F25+G24</f>
-        <v>1.6659999999999999</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>2.6179999999999999</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>3.0939999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>3.8079999999999998</v>
+        <v>1.19</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>4.2839999999999998</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>4.76</v>
+        <v>2.1419999999999999</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>4.8789999999999996</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>4.8789999999999996</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>5.2359999999999998</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="P25" s="11">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>5.4740000000000002</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>5.7119999999999997</v>
+        <v>2.2610000000000001</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>5.8309999999999995</v>
+        <v>2.38</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>5.9499999999999993</v>
+        <v>2.4989999999999997</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>6.1879999999999988</v>
+        <v>2.7369999999999997</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>6.3069999999999986</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="V25" s="11">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>6.7829999999999986</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="W25" s="11">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>7.2589999999999986</v>
+        <v>3.8079999999999998</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>7.7349999999999985</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="Y25" s="11">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>8.2109999999999985</v>
+        <v>4.76</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
@@ -11372,7 +11404,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
@@ -11463,7 +11495,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -11559,7 +11591,7 @@
         <v>11.832000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
@@ -11654,19 +11686,25 @@
         <v>11.832000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="E33" s="20">
+        <v>2</v>
+      </c>
+      <c r="F33" s="20">
+        <v>3</v>
+      </c>
+      <c r="G33" s="20">
+        <v>6</v>
+      </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
@@ -11687,10 +11725,10 @@
       <c r="Y33" s="20"/>
       <c r="AA33" s="23">
         <f>SUM(E33:Y33)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>43</v>
@@ -11698,30 +11736,14 @@
       <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="20">
-        <v>4</v>
-      </c>
-      <c r="F34" s="20">
-        <v>4</v>
-      </c>
-      <c r="G34" s="20">
-        <v>5</v>
-      </c>
-      <c r="H34" s="20">
-        <v>6</v>
-      </c>
-      <c r="I34" s="20">
-        <v>7</v>
-      </c>
-      <c r="J34" s="20">
-        <v>3</v>
-      </c>
-      <c r="K34" s="20">
-        <v>3</v>
-      </c>
-      <c r="L34" s="20">
-        <v>2</v>
-      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="20"/>
@@ -11737,7 +11759,7 @@
       <c r="Y34" s="20"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>44</v>
@@ -11745,30 +11767,14 @@
       <c r="D35" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="20">
-        <v>4</v>
-      </c>
-      <c r="F35" s="20">
-        <v>5</v>
-      </c>
-      <c r="G35" s="20">
-        <v>5</v>
-      </c>
-      <c r="H35" s="20">
-        <v>5</v>
-      </c>
-      <c r="I35" s="20">
-        <v>5</v>
-      </c>
-      <c r="J35" s="20">
-        <v>4</v>
-      </c>
-      <c r="K35" s="20">
-        <v>4</v>
-      </c>
-      <c r="L35" s="20">
-        <v>3</v>
-      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="20"/>
@@ -11784,7 +11790,7 @@
       <c r="Y35" s="20"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
         <v>45</v>
@@ -11792,30 +11798,14 @@
       <c r="D36" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="20">
-        <v>4</v>
-      </c>
-      <c r="F36" s="20">
-        <v>4</v>
-      </c>
-      <c r="G36" s="20">
-        <v>6</v>
-      </c>
-      <c r="H36" s="20">
-        <v>6</v>
-      </c>
-      <c r="I36" s="20">
-        <v>6</v>
-      </c>
-      <c r="J36" s="20">
-        <v>5</v>
-      </c>
-      <c r="K36" s="20">
-        <v>4</v>
-      </c>
-      <c r="L36" s="20">
-        <v>3</v>
-      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
       <c r="O36" s="20"/>
@@ -11831,37 +11821,21 @@
       <c r="Y36" s="20"/>
       <c r="AA36" s="23"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="20">
-        <v>4</v>
-      </c>
-      <c r="F37" s="20">
-        <v>5</v>
-      </c>
-      <c r="G37" s="20">
-        <v>5</v>
-      </c>
-      <c r="H37" s="20">
-        <v>6</v>
-      </c>
-      <c r="I37" s="20">
-        <v>5</v>
-      </c>
-      <c r="J37" s="20">
-        <v>5</v>
-      </c>
-      <c r="K37" s="20">
-        <v>4</v>
-      </c>
-      <c r="L37" s="20">
-        <v>3</v>
-      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
       <c r="O37" s="20"/>
@@ -11877,40 +11851,24 @@
       <c r="Y37" s="20"/>
       <c r="AA37" s="23">
         <f t="shared" ref="AA37:AA39" si="76">SUM(E37:Y37)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C38" s="12" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="20">
-        <v>4</v>
-      </c>
-      <c r="F38" s="20">
-        <v>4</v>
-      </c>
-      <c r="G38" s="20">
-        <v>5</v>
-      </c>
-      <c r="H38" s="20">
-        <v>5</v>
-      </c>
-      <c r="I38" s="20">
-        <v>5</v>
-      </c>
-      <c r="J38" s="20">
-        <v>5</v>
-      </c>
-      <c r="K38" s="20">
-        <v>4</v>
-      </c>
-      <c r="L38" s="20">
-        <v>3</v>
-      </c>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
@@ -11926,45 +11884,45 @@
       <c r="Y38" s="20"/>
       <c r="AA38" s="23">
         <f t="shared" si="76"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="21">
         <f>SUM(E33:E38)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F39" s="21">
         <f t="shared" ref="F39" si="77">SUM(F33:F38)</f>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J39" s="21">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="K39" s="21">
         <f t="shared" ref="K39" si="82">SUM(K33:K38)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L39" s="21">
         <f t="shared" ref="L39" si="83">SUM(L33:L38)</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M39" s="21">
         <f t="shared" ref="M39" si="84">SUM(M33:M38)</f>
@@ -12020,101 +11978,101 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>179</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="19">
         <f>E38</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40" s="19">
         <f>E40+F39</f>
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G40" s="19">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -12123,35 +12081,35 @@
       </c>
       <c r="E41" s="11">
         <f>E39*$D$7/1000</f>
-        <v>1.36</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F41" s="11">
         <f>F39*$D$7/1000</f>
-        <v>1.496</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
-        <v>1.768</v>
+        <v>0.40799999999999997</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
-        <v>1.9039999999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="116"/>
-        <v>1.9039999999999999</v>
+        <v>0</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="116"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="K41" s="11">
         <f t="shared" si="116"/>
-        <v>1.292</v>
+        <v>0</v>
       </c>
       <c r="L41" s="11">
         <f t="shared" si="116"/>
-        <v>0.95199999999999996</v>
+        <v>0</v>
       </c>
       <c r="M41" s="11">
         <f t="shared" si="116"/>
@@ -12207,10 +12165,10 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
@@ -12222,96 +12180,96 @@
       </c>
       <c r="E42" s="11">
         <f>E41</f>
-        <v>1.36</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="F42" s="11">
         <f>E42+F41</f>
-        <v>2.8559999999999999</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>4.6239999999999997</v>
+        <v>0.748</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>6.5279999999999996</v>
+        <v>0.748</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>8.4319999999999986</v>
+        <v>0.748</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>9.927999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>11.219999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>12.171999999999999</v>
+        <v>0.748</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
@@ -12363,7 +12321,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
@@ -12454,7 +12412,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
@@ -12550,7 +12508,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
@@ -12645,7 +12603,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B50" s="24" t="s">
         <v>41</v>
       </c>
@@ -12681,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B51" s="6"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
@@ -12695,27 +12653,13 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="20">
-        <v>2</v>
-      </c>
-      <c r="L51" s="20">
-        <v>5</v>
-      </c>
-      <c r="M51" s="20">
-        <v>6</v>
-      </c>
-      <c r="N51" s="20">
-        <v>2</v>
-      </c>
-      <c r="O51" s="20">
-        <v>8</v>
-      </c>
-      <c r="P51" s="20">
-        <v>8</v>
-      </c>
-      <c r="Q51" s="20">
-        <v>8</v>
-      </c>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
       <c r="R51" s="20">
         <v>8</v>
       </c>
@@ -12732,7 +12676,7 @@
       <c r="Y51" s="20"/>
       <c r="AA51" s="23"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="6"/>
       <c r="C52" s="12" t="s">
         <v>44</v>
@@ -12747,24 +12691,12 @@
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
       <c r="K52" s="20"/>
-      <c r="L52" s="20">
-        <v>5</v>
-      </c>
-      <c r="M52" s="20">
-        <v>6</v>
-      </c>
-      <c r="N52" s="20">
-        <v>1</v>
-      </c>
-      <c r="O52" s="20">
-        <v>7</v>
-      </c>
-      <c r="P52" s="20">
-        <v>8</v>
-      </c>
-      <c r="Q52" s="20">
-        <v>8</v>
-      </c>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
       <c r="R52" s="20">
         <v>8</v>
       </c>
@@ -12781,7 +12713,7 @@
       <c r="Y52" s="20"/>
       <c r="AA52" s="23"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="6"/>
       <c r="C53" s="12" t="s">
         <v>45</v>
@@ -12796,24 +12728,12 @@
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
       <c r="K53" s="20"/>
-      <c r="L53" s="20">
-        <v>5</v>
-      </c>
-      <c r="M53" s="20">
-        <v>6</v>
-      </c>
-      <c r="N53" s="20">
-        <v>1</v>
-      </c>
-      <c r="O53" s="20">
-        <v>7</v>
-      </c>
-      <c r="P53" s="20">
-        <v>8</v>
-      </c>
-      <c r="Q53" s="20">
-        <v>8</v>
-      </c>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
       <c r="R53" s="20">
         <v>8</v>
       </c>
@@ -12830,7 +12750,7 @@
       <c r="Y53" s="20"/>
       <c r="AA53" s="23"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C54" s="12" t="s">
         <v>46</v>
       </c>
@@ -12863,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
@@ -12896,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C56" s="8" t="s">
         <v>37</v>
       </c>
@@ -12927,31 +12847,31 @@
       </c>
       <c r="K56" s="21">
         <f t="shared" ref="K56" si="180">SUM(K50:K55)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56" s="21">
         <f t="shared" ref="L56" si="181">SUM(L50:L55)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M56" s="21">
         <f t="shared" ref="M56" si="182">SUM(M50:M55)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N56" s="21">
         <f t="shared" ref="N56" si="183">SUM(N50:N55)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O56" s="21">
         <f t="shared" ref="O56" si="184">SUM(O50:O55)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P56" s="21">
         <f t="shared" ref="P56" si="185">SUM(P50:P55)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="21">
         <f t="shared" ref="Q56" si="186">SUM(Q50:Q55)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="R56" s="21">
         <f t="shared" ref="R56" si="187">SUM(R50:R55)</f>
@@ -12987,10 +12907,10 @@
       </c>
       <c r="AA56" s="21">
         <f t="shared" si="174"/>
-        <v>173</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
@@ -13021,67 +12941,67 @@
       </c>
       <c r="K57" s="19">
         <f t="shared" ref="K57" si="199">J57+K56</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L57" s="19">
         <f t="shared" ref="L57" si="200">K57+L56</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M57" s="19">
         <f t="shared" ref="M57" si="201">L57+M56</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="N57" s="19">
         <f t="shared" ref="N57" si="202">M57+N56</f>
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="O57" s="19">
         <f t="shared" ref="O57" si="203">N57+O56</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="P57" s="19">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="19">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="R57" s="19">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="S57" s="19">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>157</v>
+        <v>48</v>
       </c>
       <c r="T57" s="19">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="U57" s="19">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="V57" s="19">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="W57" s="19">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="X57" s="19">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="Y57" s="19">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
@@ -13114,31 +13034,31 @@
       </c>
       <c r="K58" s="11">
         <f t="shared" si="214"/>
-        <v>0.13600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L58" s="11">
         <f t="shared" si="214"/>
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="M58" s="11">
         <f t="shared" si="214"/>
-        <v>1.224</v>
+        <v>0</v>
       </c>
       <c r="N58" s="11">
         <f t="shared" si="214"/>
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
       <c r="O58" s="11">
         <f t="shared" si="214"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="P58" s="11">
         <f t="shared" si="214"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="11">
         <f t="shared" si="214"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="R58" s="11">
         <f t="shared" si="214"/>
@@ -13174,10 +13094,10 @@
       </c>
       <c r="AA58" s="11">
         <f>SUM(E58:Y58)</f>
-        <v>11.763999999999999</v>
+        <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
@@ -13213,72 +13133,72 @@
       </c>
       <c r="K59" s="11">
         <f t="shared" ref="K59" si="219">J59+K58</f>
-        <v>0.13600000000000001</v>
+        <v>0</v>
       </c>
       <c r="L59" s="11">
         <f t="shared" ref="L59" si="220">K59+L58</f>
-        <v>1.1560000000000001</v>
+        <v>0</v>
       </c>
       <c r="M59" s="11">
         <f t="shared" ref="M59" si="221">L59+M58</f>
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="N59" s="11">
         <f t="shared" ref="N59" si="222">M59+N58</f>
-        <v>2.6520000000000001</v>
+        <v>0</v>
       </c>
       <c r="O59" s="11">
         <f t="shared" ref="O59" si="223">N59+O58</f>
-        <v>4.1479999999999997</v>
+        <v>0</v>
       </c>
       <c r="P59" s="11">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>5.7799999999999994</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="11">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>7.411999999999999</v>
+        <v>0</v>
       </c>
       <c r="R59" s="11">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>9.0439999999999987</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="S59" s="11">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>10.675999999999998</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="T59" s="11">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>11.763999999999999</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="U59" s="11">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>11.763999999999999</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="V59" s="11">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>11.763999999999999</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="W59" s="11">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>11.763999999999999</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="X59" s="11">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>11.763999999999999</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="Y59" s="11">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>11.763999999999999</v>
+        <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
@@ -13330,7 +13250,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
@@ -13421,7 +13341,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -13517,7 +13437,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13612,7 +13532,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B67" s="24" t="s">
         <v>41</v>
       </c>
@@ -13628,25 +13548,13 @@
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
-      <c r="K67" s="20">
-        <v>3</v>
-      </c>
+      <c r="K67" s="20"/>
       <c r="L67" s="20"/>
-      <c r="M67" s="20">
-        <v>3</v>
-      </c>
-      <c r="N67" s="20">
-        <v>1</v>
-      </c>
-      <c r="O67" s="20">
-        <v>4</v>
-      </c>
-      <c r="P67" s="20">
-        <v>6</v>
-      </c>
-      <c r="Q67" s="20">
-        <v>6</v>
-      </c>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
       <c r="R67" s="20">
         <v>5</v>
       </c>
@@ -13663,10 +13571,10 @@
       <c r="Y67" s="20"/>
       <c r="AA67" s="23">
         <f>SUM(E67:Y67)</f>
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B68" s="6"/>
       <c r="C68" s="12" t="s">
         <v>43</v>
@@ -13697,7 +13605,7 @@
       <c r="Y68" s="20"/>
       <c r="AA68" s="23"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
         <v>44</v>
@@ -13728,7 +13636,7 @@
       <c r="Y69" s="20"/>
       <c r="AA69" s="23"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B70" s="6"/>
       <c r="C70" s="12" t="s">
         <v>45</v>
@@ -13759,7 +13667,7 @@
       <c r="Y70" s="20"/>
       <c r="AA70" s="23"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C71" s="12" t="s">
         <v>46</v>
       </c>
@@ -13773,24 +13681,12 @@
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
       <c r="K71" s="20"/>
-      <c r="L71" s="20">
-        <v>5</v>
-      </c>
-      <c r="M71" s="20">
-        <v>8</v>
-      </c>
-      <c r="N71" s="20">
-        <v>1</v>
-      </c>
-      <c r="O71" s="20">
-        <v>9</v>
-      </c>
-      <c r="P71" s="20">
-        <v>8</v>
-      </c>
-      <c r="Q71" s="20">
-        <v>8</v>
-      </c>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
       <c r="R71" s="20">
         <v>9</v>
       </c>
@@ -13809,10 +13705,10 @@
       <c r="Y71" s="20"/>
       <c r="AA71" s="23">
         <f t="shared" ref="AA71:AA73" si="272">SUM(E71:Y71)</f>
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C72" s="12" t="s">
         <v>49</v>
       </c>
@@ -13826,24 +13722,12 @@
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
       <c r="K72" s="20"/>
-      <c r="L72" s="20">
-        <v>5</v>
-      </c>
-      <c r="M72" s="20">
-        <v>8</v>
-      </c>
-      <c r="N72" s="20">
-        <v>2</v>
-      </c>
-      <c r="O72" s="20">
-        <v>6</v>
-      </c>
-      <c r="P72" s="20">
-        <v>8</v>
-      </c>
-      <c r="Q72" s="20">
-        <v>8</v>
-      </c>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
       <c r="R72" s="20">
         <v>8</v>
       </c>
@@ -13862,10 +13746,10 @@
       <c r="Y72" s="20"/>
       <c r="AA72" s="23">
         <f t="shared" si="272"/>
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
@@ -13896,31 +13780,31 @@
       </c>
       <c r="K73" s="21">
         <f t="shared" ref="K73" si="278">SUM(K67:K72)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L73" s="21">
         <f t="shared" ref="L73" si="279">SUM(L67:L72)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M73" s="21">
         <f t="shared" ref="M73" si="280">SUM(M67:M72)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N73" s="21">
         <f t="shared" ref="N73" si="281">SUM(N67:N72)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O73" s="21">
         <f t="shared" ref="O73" si="282">SUM(O67:O72)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P73" s="21">
         <f t="shared" ref="P73" si="283">SUM(P67:P72)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="21">
         <f t="shared" ref="Q73" si="284">SUM(Q67:Q72)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R73" s="21">
         <f t="shared" ref="R73" si="285">SUM(R67:R72)</f>
@@ -13956,10 +13840,10 @@
       </c>
       <c r="AA73" s="21">
         <f t="shared" si="272"/>
-        <v>183</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13990,67 +13874,67 @@
       </c>
       <c r="K74" s="19">
         <f t="shared" ref="K74" si="297">J74+K73</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L74" s="19">
         <f t="shared" ref="L74" si="298">K74+L73</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M74" s="19">
         <f t="shared" ref="M74" si="299">L74+M73</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N74" s="19">
         <f t="shared" ref="N74" si="300">M74+N73</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="O74" s="19">
         <f t="shared" ref="O74" si="301">N74+O73</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P74" s="19">
         <f t="shared" ref="P74" si="302">O74+P73</f>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="19">
         <f t="shared" ref="Q74" si="303">P74+Q73</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="R74" s="19">
         <f t="shared" ref="R74" si="304">Q74+R73</f>
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="S74" s="19">
         <f t="shared" ref="S74" si="305">R74+S73</f>
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="T74" s="19">
         <f t="shared" ref="T74" si="306">S74+T73</f>
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="U74" s="19">
         <f t="shared" ref="U74" si="307">T74+U73</f>
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="V74" s="19">
         <f t="shared" ref="V74" si="308">U74+V73</f>
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="W74" s="19">
         <f t="shared" ref="W74" si="309">V74+W73</f>
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="X74" s="19">
         <f t="shared" ref="X74" si="310">W74+X73</f>
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="Y74" s="19">
         <f t="shared" ref="Y74" si="311">X74+Y73</f>
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -14083,31 +13967,31 @@
       </c>
       <c r="K75" s="11">
         <f t="shared" si="312"/>
-        <v>0.20399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L75" s="11">
         <f t="shared" si="312"/>
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="M75" s="11">
         <f t="shared" si="312"/>
-        <v>1.292</v>
+        <v>0</v>
       </c>
       <c r="N75" s="11">
         <f t="shared" si="312"/>
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
       <c r="O75" s="11">
         <f t="shared" si="312"/>
-        <v>1.292</v>
+        <v>0</v>
       </c>
       <c r="P75" s="11">
         <f t="shared" si="312"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="Q75" s="11">
         <f t="shared" si="312"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="R75" s="11">
         <f t="shared" si="312"/>
@@ -14143,10 +14027,10 @@
       </c>
       <c r="AA75" s="11">
         <f>SUM(E75:Y75)</f>
-        <v>12.444000000000001</v>
+        <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B76" s="15" t="s">
         <v>56</v>
       </c>
@@ -14182,72 +14066,72 @@
       </c>
       <c r="K76" s="11">
         <f t="shared" ref="K76" si="317">J76+K75</f>
-        <v>0.20399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L76" s="11">
         <f t="shared" ref="L76" si="318">K76+L75</f>
-        <v>0.88400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M76" s="11">
         <f t="shared" ref="M76" si="319">L76+M75</f>
-        <v>2.1760000000000002</v>
+        <v>0</v>
       </c>
       <c r="N76" s="11">
         <f t="shared" ref="N76" si="320">M76+N75</f>
-        <v>2.4480000000000004</v>
+        <v>0</v>
       </c>
       <c r="O76" s="11">
         <f t="shared" ref="O76" si="321">N76+O75</f>
-        <v>3.74</v>
+        <v>0</v>
       </c>
       <c r="P76" s="11">
         <f t="shared" ref="P76" si="322">O76+P75</f>
-        <v>5.2360000000000007</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="11">
         <f t="shared" ref="Q76" si="323">P76+Q75</f>
-        <v>6.7320000000000011</v>
+        <v>0</v>
       </c>
       <c r="R76" s="11">
         <f t="shared" ref="R76" si="324">Q76+R75</f>
-        <v>8.2280000000000015</v>
+        <v>1.496</v>
       </c>
       <c r="S76" s="11">
         <f t="shared" ref="S76" si="325">R76+S75</f>
-        <v>9.724000000000002</v>
+        <v>2.992</v>
       </c>
       <c r="T76" s="11">
         <f t="shared" ref="T76" si="326">S76+T75</f>
-        <v>12.036000000000001</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="U76" s="11">
         <f t="shared" ref="U76" si="327">T76+U75</f>
-        <v>12.444000000000001</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="V76" s="11">
         <f t="shared" ref="V76" si="328">U76+V75</f>
-        <v>12.444000000000001</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="W76" s="11">
         <f t="shared" ref="W76" si="329">V76+W75</f>
-        <v>12.444000000000001</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="X76" s="11">
         <f t="shared" ref="X76" si="330">W76+X75</f>
-        <v>12.444000000000001</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="Y76" s="11">
         <f t="shared" ref="Y76" si="331">X76+Y75</f>
-        <v>12.444000000000001</v>
+        <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B80" s="24" t="s">
         <v>0</v>
       </c>
@@ -14291,7 +14175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C81" s="8" t="s">
         <v>2</v>
       </c>
@@ -14382,7 +14266,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C82" s="9" t="s">
         <v>38</v>
       </c>
@@ -14478,7 +14362,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B83" s="15" t="s">
         <v>60</v>
       </c>
@@ -14573,7 +14457,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B85" s="24" t="s">
         <v>41</v>
       </c>
@@ -14609,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B86" s="6"/>
       <c r="C86" s="12" t="s">
         <v>43</v>
@@ -14640,7 +14524,7 @@
       <c r="Y86" s="20"/>
       <c r="AA86" s="23"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B87" s="6"/>
       <c r="C87" s="12" t="s">
         <v>44</v>
@@ -14681,7 +14565,7 @@
       <c r="Y87" s="20"/>
       <c r="AA87" s="23"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B88" s="6"/>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -14722,7 +14606,7 @@
       <c r="Y88" s="20"/>
       <c r="AA88" s="23"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C89" s="12" t="s">
         <v>46</v>
       </c>
@@ -14763,7 +14647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C90" s="12" t="s">
         <v>49</v>
       </c>
@@ -14804,7 +14688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C91" s="8" t="s">
         <v>37</v>
       </c>
@@ -14898,7 +14782,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C92" s="8" t="s">
         <v>2</v>
       </c>
@@ -14989,7 +14873,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
@@ -15085,7 +14969,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="15" t="s">
         <v>61</v>
       </c>
@@ -15180,13 +15064,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C97" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B98" s="24" t="s">
         <v>0</v>
       </c>
@@ -15228,7 +15112,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C99" s="8" t="s">
         <v>2</v>
       </c>
@@ -15319,7 +15203,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C100" s="9" t="s">
         <v>38</v>
       </c>
@@ -15415,7 +15299,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B101" s="15" t="s">
         <v>63</v>
       </c>
@@ -15510,7 +15394,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B103" s="24" t="s">
         <v>41</v>
       </c>
@@ -15556,7 +15440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B104" s="6"/>
       <c r="C104" s="12" t="s">
         <v>43</v>
@@ -15597,7 +15481,7 @@
       </c>
       <c r="AA104" s="23"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B105" s="6"/>
       <c r="C105" s="12" t="s">
         <v>44</v>
@@ -15636,7 +15520,7 @@
       </c>
       <c r="AA105" s="23"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B106" s="6"/>
       <c r="C106" s="12" t="s">
         <v>45</v>
@@ -15673,7 +15557,7 @@
       </c>
       <c r="AA106" s="23"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C107" s="12" t="s">
         <v>46</v>
       </c>
@@ -15710,7 +15594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C108" s="12" t="s">
         <v>49</v>
       </c>
@@ -15751,7 +15635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C109" s="8" t="s">
         <v>37</v>
       </c>
@@ -15845,7 +15729,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C110" s="8" t="s">
         <v>2</v>
       </c>
@@ -15936,7 +15820,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="C111" s="9" t="s">
         <v>38</v>
       </c>
@@ -16032,7 +15916,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:27" ht="13" x14ac:dyDescent="0.3">
       <c r="B112" s="15" t="s">
         <v>64</v>
       </c>
@@ -16137,14 +16021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16152,14 +16036,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16167,14 +16051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16182,14 +16066,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2665C64C-3546-4279-B70D-8144F4CDE7AA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5F764-0892-524C-B362-8CF9AED9DD87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,20 @@
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="69">
   <si>
     <t>Plan</t>
   </si>
@@ -223,6 +231,9 @@
   </si>
   <si>
     <t>Pascal</t>
+  </si>
+  <si>
+    <t>Lukas</t>
   </si>
 </sst>
 </file>
@@ -2094,16 +2105,16 @@
                   <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,31 +4332,31 @@
                   <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6641,49 +6652,49 @@
                   <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9063,61 +9074,61 @@
                   <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.748</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10307,33 +10318,33 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" style="1" customWidth="1"/>
-    <col min="5" max="25" width="8.7265625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10341,7 +10352,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10349,7 +10360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
@@ -10358,10 +10369,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10372,7 +10383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
@@ -10441,7 +10452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10472,7 +10483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -10490,13 +10501,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
@@ -10572,7 +10583,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
@@ -10663,7 +10674,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10759,7 +10770,7 @@
         <v>7.6159999999999952</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
@@ -10854,10 +10865,10 @@
         <v>7.6159999999999952</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
@@ -10909,7 +10920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
@@ -10977,7 +10988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
@@ -11066,7 +11077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
@@ -11157,7 +11168,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C24" s="9" t="s">
         <v>38</v>
       </c>
@@ -11253,7 +11264,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="25" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
@@ -11348,13 +11359,13 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="27" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
@@ -11404,7 +11415,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
@@ -11495,7 +11506,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -11591,7 +11602,7 @@
         <v>11.832000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
@@ -11686,7 +11697,7 @@
         <v>11.832000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
@@ -11728,17 +11739,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="G34" s="20">
+        <v>2</v>
+      </c>
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
@@ -11759,7 +11772,7 @@
       <c r="Y34" s="20"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>44</v>
@@ -11790,7 +11803,7 @@
       <c r="Y35" s="20"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
         <v>45</v>
@@ -11821,7 +11834,7 @@
       <c r="Y36" s="20"/>
       <c r="AA36" s="23"/>
     </row>
-    <row r="37" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
@@ -11854,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C38" s="12" t="s">
         <v>49</v>
       </c>
@@ -11887,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
@@ -11902,7 +11915,7 @@
       </c>
       <c r="G39" s="21">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
@@ -11978,10 +11991,10 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
@@ -11996,83 +12009,83 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -12089,7 +12102,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
-        <v>0.40799999999999997</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
@@ -12165,10 +12178,10 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
@@ -12188,88 +12201,88 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>0.748</v>
+        <v>0.88400000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
@@ -12321,7 +12334,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
@@ -12412,7 +12425,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
@@ -12508,7 +12521,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
@@ -12603,7 +12616,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B50" s="24" t="s">
         <v>41</v>
       </c>
@@ -12639,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
@@ -12676,7 +12689,7 @@
       <c r="Y51" s="20"/>
       <c r="AA51" s="23"/>
     </row>
-    <row r="52" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B52" s="6"/>
       <c r="C52" s="12" t="s">
         <v>44</v>
@@ -12713,7 +12726,7 @@
       <c r="Y52" s="20"/>
       <c r="AA52" s="23"/>
     </row>
-    <row r="53" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
       <c r="C53" s="12" t="s">
         <v>45</v>
@@ -12750,7 +12763,7 @@
       <c r="Y53" s="20"/>
       <c r="AA53" s="23"/>
     </row>
-    <row r="54" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C54" s="12" t="s">
         <v>46</v>
       </c>
@@ -12783,7 +12796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
@@ -12816,7 +12829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C56" s="8" t="s">
         <v>37</v>
       </c>
@@ -12910,7 +12923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
@@ -13001,7 +13014,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
@@ -13097,7 +13110,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
@@ -13192,13 +13205,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
@@ -13250,7 +13263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
@@ -13341,7 +13354,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -13437,7 +13450,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="65" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13532,7 +13545,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="67" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="24" t="s">
         <v>41</v>
       </c>
@@ -13574,7 +13587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="6"/>
       <c r="C68" s="12" t="s">
         <v>43</v>
@@ -13605,7 +13618,7 @@
       <c r="Y68" s="20"/>
       <c r="AA68" s="23"/>
     </row>
-    <row r="69" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
         <v>44</v>
@@ -13636,7 +13649,7 @@
       <c r="Y69" s="20"/>
       <c r="AA69" s="23"/>
     </row>
-    <row r="70" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="6"/>
       <c r="C70" s="12" t="s">
         <v>45</v>
@@ -13667,7 +13680,7 @@
       <c r="Y70" s="20"/>
       <c r="AA70" s="23"/>
     </row>
-    <row r="71" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C71" s="12" t="s">
         <v>46</v>
       </c>
@@ -13708,7 +13721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C72" s="12" t="s">
         <v>49</v>
       </c>
@@ -13749,7 +13762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
@@ -13843,7 +13856,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13934,7 +13947,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -14030,7 +14043,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="15" t="s">
         <v>56</v>
       </c>
@@ -14125,13 +14138,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B80" s="24" t="s">
         <v>0</v>
       </c>
@@ -14175,7 +14188,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C81" s="8" t="s">
         <v>2</v>
       </c>
@@ -14266,7 +14279,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C82" s="9" t="s">
         <v>38</v>
       </c>
@@ -14362,7 +14375,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B83" s="15" t="s">
         <v>60</v>
       </c>
@@ -14457,7 +14470,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="24" t="s">
         <v>41</v>
       </c>
@@ -14493,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="6"/>
       <c r="C86" s="12" t="s">
         <v>43</v>
@@ -14524,7 +14537,7 @@
       <c r="Y86" s="20"/>
       <c r="AA86" s="23"/>
     </row>
-    <row r="87" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="6"/>
       <c r="C87" s="12" t="s">
         <v>44</v>
@@ -14565,7 +14578,7 @@
       <c r="Y87" s="20"/>
       <c r="AA87" s="23"/>
     </row>
-    <row r="88" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B88" s="6"/>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -14606,7 +14619,7 @@
       <c r="Y88" s="20"/>
       <c r="AA88" s="23"/>
     </row>
-    <row r="89" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C89" s="12" t="s">
         <v>46</v>
       </c>
@@ -14647,7 +14660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C90" s="12" t="s">
         <v>49</v>
       </c>
@@ -14688,7 +14701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C91" s="8" t="s">
         <v>37</v>
       </c>
@@ -14782,7 +14795,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C92" s="8" t="s">
         <v>2</v>
       </c>
@@ -14873,7 +14886,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
@@ -14969,7 +14982,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B94" s="15" t="s">
         <v>61</v>
       </c>
@@ -15064,13 +15077,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C97" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B98" s="24" t="s">
         <v>0</v>
       </c>
@@ -15112,7 +15125,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C99" s="8" t="s">
         <v>2</v>
       </c>
@@ -15203,7 +15216,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C100" s="9" t="s">
         <v>38</v>
       </c>
@@ -15299,7 +15312,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="101" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B101" s="15" t="s">
         <v>63</v>
       </c>
@@ -15394,7 +15407,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B103" s="24" t="s">
         <v>41</v>
       </c>
@@ -15440,7 +15453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B104" s="6"/>
       <c r="C104" s="12" t="s">
         <v>43</v>
@@ -15481,7 +15494,7 @@
       </c>
       <c r="AA104" s="23"/>
     </row>
-    <row r="105" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B105" s="6"/>
       <c r="C105" s="12" t="s">
         <v>44</v>
@@ -15520,7 +15533,7 @@
       </c>
       <c r="AA105" s="23"/>
     </row>
-    <row r="106" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B106" s="6"/>
       <c r="C106" s="12" t="s">
         <v>45</v>
@@ -15557,7 +15570,7 @@
       </c>
       <c r="AA106" s="23"/>
     </row>
-    <row r="107" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C107" s="12" t="s">
         <v>46</v>
       </c>
@@ -15594,7 +15607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C108" s="12" t="s">
         <v>49</v>
       </c>
@@ -15635,7 +15648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C109" s="8" t="s">
         <v>37</v>
       </c>
@@ -15729,7 +15742,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C110" s="8" t="s">
         <v>2</v>
       </c>
@@ -15820,7 +15833,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C111" s="9" t="s">
         <v>38</v>
       </c>
@@ -15916,7 +15929,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B112" s="15" t="s">
         <v>64</v>
       </c>
@@ -16028,7 +16041,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16043,7 +16056,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16058,7 +16071,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16073,7 +16086,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A5F764-0892-524C-B362-8CF9AED9DD87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6F99E-EBBD-AA40-BBF9-A0304AC86697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="2160" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
   <si>
     <t>Plan</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Lukas</t>
+  </si>
+  <si>
+    <t>Marco</t>
   </si>
 </sst>
 </file>
@@ -2102,19 +2105,19 @@
                   <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33999999999999997</c:v>
+                  <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4329,34 +4332,34 @@
                   <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33999999999999997</c:v>
+                  <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6649,52 +6652,52 @@
                   <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33999999999999997</c:v>
+                  <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9071,64 +9074,64 @@
                   <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33999999999999997</c:v>
+                  <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10318,10 +10321,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11775,14 +11778,18 @@
     <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="F35" s="20">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20">
+        <v>1</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -11911,11 +11918,11 @@
       </c>
       <c r="F39" s="21">
         <f t="shared" ref="F39" si="77">SUM(F33:F38)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="21">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
@@ -11991,7 +11998,7 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.15">
@@ -12005,83 +12012,83 @@
       </c>
       <c r="F40" s="19">
         <f>E40+F39</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G40" s="19">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12098,11 +12105,11 @@
       </c>
       <c r="F41" s="11">
         <f>F39*$D$7/1000</f>
-        <v>0.20399999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
-        <v>0.54400000000000004</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
@@ -12178,7 +12185,7 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.15">
@@ -12197,83 +12204,83 @@
       </c>
       <c r="F42" s="11">
         <f>E42+F41</f>
-        <v>0.33999999999999997</v>
+        <v>0.40800000000000003</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>0.88400000000000001</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.15">

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6F99E-EBBD-AA40-BBF9-A0304AC86697}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{86F6F99E-EBBD-AA40-BBF9-A0304AC86697}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2BE195BA-2FCA-604E-99FE-7FD85467A279}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2160" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
   <si>
     <t>Plan</t>
   </si>
@@ -238,6 +238,9 @@
   <si>
     <t>Marco</t>
   </si>
+  <si>
+    <t>Niklaus</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -388,6 +391,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -618,67 +622,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.6179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>4.0459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>5.4739999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>6.1879999999999988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>6.9019999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>7.6159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>7.8539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>8.0919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>8.3299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>8.5679999999999978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>8.8059999999999974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>9.0439999999999969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>9.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>10.471999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>11.423999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>12.375999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -790,67 +794,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>8.9759999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11.016</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,22 +1825,22 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2830,67 +2834,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.6179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>4.0459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>5.4739999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>6.1879999999999988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>6.9019999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>7.6159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>7.8539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>8.0919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>8.3299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>8.5679999999999978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>8.8059999999999974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>9.0439999999999969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>9.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>10.471999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>11.423999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>12.375999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3002,67 +3006,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>8.9759999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11.016</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4033,37 +4037,37 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>4.0459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5132,67 +5136,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.6179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>4.0459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>5.4739999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>6.1879999999999988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>6.9019999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>7.6159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>7.8539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>8.0919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>8.3299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>8.5679999999999978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>8.8059999999999974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>9.0439999999999969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>9.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>10.471999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>11.423999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>12.375999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5304,67 +5308,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>8.9759999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11.016</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6335,55 +6339,55 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>4.0459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.38</c:v>
+                  <c:v>4.2839999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>4.4029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7369999999999997</c:v>
+                  <c:v>4.6409999999999982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7542,67 +7546,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>1.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.6179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>4.0459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>4.9979999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>5.4739999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>6.1879999999999988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>6.9019999999999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5219999999999985</c:v>
+                  <c:v>7.6159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>7.8539999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9979999999999976</c:v>
+                  <c:v>8.0919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2359999999999971</c:v>
+                  <c:v>8.3299999999999983</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4739999999999966</c:v>
+                  <c:v>8.5679999999999978</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7119999999999962</c:v>
+                  <c:v>8.8059999999999974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.9499999999999957</c:v>
+                  <c:v>9.0439999999999969</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1879999999999953</c:v>
+                  <c:v>9.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.6639999999999953</c:v>
+                  <c:v>10.471999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.1399999999999952</c:v>
+                  <c:v>11.423999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.6159999999999952</c:v>
+                  <c:v>12.375999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7714,67 +7718,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8959999999999999</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5279999999999996</c:v>
+                  <c:v>5.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.16</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7919999999999998</c:v>
+                  <c:v>8.9759999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>11.016</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.832000000000001</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.832000000000001</c:v>
+                  <c:v>11.016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8745,67 +8749,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>3.57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1419999999999999</c:v>
+                  <c:v>4.0459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.38</c:v>
+                  <c:v>4.2839999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>4.4029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.7369999999999997</c:v>
+                  <c:v>4.6409999999999982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.8559999999999999</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3319999999999999</c:v>
+                  <c:v>5.235999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8079999999999998</c:v>
+                  <c:v>5.711999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.2839999999999998</c:v>
+                  <c:v>6.1879999999999979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.76</c:v>
+                  <c:v>6.6639999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10321,10 +10325,10 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10519,37 +10523,37 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H14" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I14" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J14" s="18">
         <v>4</v>
       </c>
       <c r="K14" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L14" s="18">
         <v>4</v>
       </c>
       <c r="M14" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N14" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O14" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P14" s="18">
         <v>2</v>
@@ -10570,20 +10574,20 @@
         <v>2</v>
       </c>
       <c r="V14" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W14" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X14" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y14" s="18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA14" s="21">
         <f>SUM(E14:Y14)</f>
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.15">
@@ -10593,7 +10597,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="19">
         <f>E14</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="19">
         <f>E15+F14</f>
@@ -10601,79 +10605,79 @@
       </c>
       <c r="G15" s="19">
         <f>F15+G14</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15" s="19">
         <f t="shared" ref="H15:Y15" si="0">G15+H14</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I15" s="19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J15" s="19">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="K15" s="19">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="L15" s="19">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M15" s="19">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N15" s="19">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="P15" s="19">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="Q15" s="19">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="R15" s="19">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="T15" s="19">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="U15" s="19">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="W15" s="19">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="X15" s="19">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="Y15" s="19">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -10686,23 +10690,23 @@
       </c>
       <c r="E16" s="11">
         <f>E14*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F16" s="11">
         <f>F14*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" ref="G16:Y16" si="1">G14*$D$6/1000</f>
-        <v>0.47599999999999998</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="1"/>
@@ -10710,7 +10714,7 @@
       </c>
       <c r="K16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="1"/>
@@ -10718,15 +10722,15 @@
       </c>
       <c r="M16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="P16" s="11">
         <f t="shared" si="1"/>
@@ -10754,23 +10758,23 @@
       </c>
       <c r="V16" s="11">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="AA16" s="11">
         <f>SUM(E16:Y16)</f>
-        <v>7.6159999999999952</v>
+        <v>12.375999999999996</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.15">
@@ -10785,7 +10789,7 @@
       </c>
       <c r="E17" s="11">
         <f>E16</f>
-        <v>0.47599999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F17" s="11">
         <f>E17+F16</f>
@@ -10793,79 +10797,79 @@
       </c>
       <c r="G17" s="11">
         <f t="shared" ref="G17:Y17" si="2">F17+G16</f>
-        <v>1.4279999999999999</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
-        <v>1.9039999999999999</v>
+        <v>2.6179999999999999</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="2"/>
-        <v>2.38</v>
+        <v>3.57</v>
       </c>
       <c r="J17" s="11">
         <f t="shared" si="2"/>
-        <v>2.8559999999999999</v>
+        <v>4.0459999999999994</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" si="2"/>
-        <v>3.3319999999999999</v>
+        <v>4.9979999999999993</v>
       </c>
       <c r="L17" s="11">
         <f t="shared" si="2"/>
-        <v>3.8079999999999998</v>
+        <v>5.4739999999999993</v>
       </c>
       <c r="M17" s="11">
         <f t="shared" si="2"/>
-        <v>4.0459999999999994</v>
+        <v>6.1879999999999988</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="2"/>
-        <v>4.2839999999999989</v>
+        <v>6.9019999999999992</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="2"/>
-        <v>4.5219999999999985</v>
+        <v>7.6159999999999997</v>
       </c>
       <c r="P17" s="11">
         <f t="shared" si="2"/>
-        <v>4.759999999999998</v>
+        <v>7.8539999999999992</v>
       </c>
       <c r="Q17" s="11">
         <f t="shared" si="2"/>
-        <v>4.9979999999999976</v>
+        <v>8.0919999999999987</v>
       </c>
       <c r="R17" s="11">
         <f t="shared" si="2"/>
-        <v>5.2359999999999971</v>
+        <v>8.3299999999999983</v>
       </c>
       <c r="S17" s="11">
         <f t="shared" si="2"/>
-        <v>5.4739999999999966</v>
+        <v>8.5679999999999978</v>
       </c>
       <c r="T17" s="11">
         <f t="shared" si="2"/>
-        <v>5.7119999999999962</v>
+        <v>8.8059999999999974</v>
       </c>
       <c r="U17" s="11">
         <f t="shared" si="2"/>
-        <v>5.9499999999999957</v>
+        <v>9.0439999999999969</v>
       </c>
       <c r="V17" s="11">
         <f t="shared" si="2"/>
-        <v>6.1879999999999953</v>
+        <v>9.519999999999996</v>
       </c>
       <c r="W17" s="11">
         <f t="shared" si="2"/>
-        <v>6.6639999999999953</v>
+        <v>10.471999999999996</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="2"/>
-        <v>7.1399999999999952</v>
+        <v>11.423999999999996</v>
       </c>
       <c r="Y17" s="11">
         <f t="shared" si="2"/>
-        <v>7.6159999999999952</v>
+        <v>12.375999999999996</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.15">
@@ -10876,15 +10880,23 @@
         <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="E19" s="20">
+        <v>2</v>
+      </c>
+      <c r="F19" s="20">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25">
+        <v>4</v>
+      </c>
+      <c r="H19" s="20">
+        <v>8</v>
+      </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
@@ -10920,7 +10932,7 @@
       </c>
       <c r="AA19" s="23">
         <f>SUM(E19:Y19)</f>
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.15">
@@ -10998,19 +11010,19 @@
       <c r="D22" s="7"/>
       <c r="E22" s="21">
         <f>SUM(E19:E21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="21">
         <f t="shared" ref="F22:H22" si="4">SUM(F19:F21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22" s="21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I22" s="21">
         <v>4</v>
@@ -11077,7 +11089,7 @@
       </c>
       <c r="AA22" s="21">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.15">
@@ -11091,83 +11103,83 @@
       </c>
       <c r="F23" s="19">
         <f>E23+F22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="19">
         <f t="shared" ref="G23:Y23" si="17">F23+G22</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H23" s="19">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="17"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K23" s="19">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M23" s="19">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="19">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="17"/>
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="T23" s="19">
         <f t="shared" si="17"/>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="U23" s="19">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="V23" s="19">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="W23" s="19">
         <f t="shared" si="17"/>
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="X23" s="19">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Y23" s="19">
         <f t="shared" si="17"/>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11180,19 +11192,19 @@
       </c>
       <c r="E24" s="11">
         <f>E22*$D$6/1000</f>
-        <v>0</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" ref="F24:Y24" si="18">F22*$D$6/1000</f>
-        <v>0</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="18"/>
@@ -11264,7 +11276,7 @@
       </c>
       <c r="AA24" s="11">
         <f>SUM(E24:Y24)</f>
-        <v>4.76</v>
+        <v>6.6639999999999979</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.15">
@@ -11279,87 +11291,87 @@
       </c>
       <c r="E25" s="11">
         <f>E24</f>
-        <v>0</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="F25" s="11">
         <f>E25+F24</f>
-        <v>0</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" ref="G25" si="19">F25+G24</f>
-        <v>0</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>0</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>0.47599999999999998</v>
+        <v>2.38</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>1.19</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>1.6659999999999999</v>
+        <v>3.57</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>2.1419999999999999</v>
+        <v>4.0459999999999994</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>2.2610000000000001</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>2.2610000000000001</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>2.2610000000000001</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="P25" s="11">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>2.2610000000000001</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>2.2610000000000001</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>2.38</v>
+        <v>4.2839999999999989</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>2.4989999999999997</v>
+        <v>4.4029999999999987</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>2.7369999999999997</v>
+        <v>4.6409999999999982</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>2.8559999999999999</v>
+        <v>4.759999999999998</v>
       </c>
       <c r="V25" s="11">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>3.3319999999999999</v>
+        <v>5.235999999999998</v>
       </c>
       <c r="W25" s="11">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>3.8079999999999998</v>
+        <v>5.711999999999998</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>4.2839999999999998</v>
+        <v>6.1879999999999979</v>
       </c>
       <c r="Y25" s="11">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>4.76</v>
+        <v>6.6639999999999979</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.15">
@@ -11377,7 +11389,7 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="18">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F28" s="18">
         <v>24</v>
@@ -11415,7 +11427,7 @@
       <c r="Y28" s="18"/>
       <c r="AA28" s="21">
         <f>SUM(E28:Y28)</f>
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.15">
@@ -11425,87 +11437,87 @@
       <c r="D29" s="7"/>
       <c r="E29" s="19">
         <f>E28</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F29" s="19">
         <f>E29+F28</f>
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G29" s="19">
         <f>F29+G28</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H29" s="19">
         <f t="shared" ref="H29" si="38">G29+H28</f>
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I29" s="19">
         <f t="shared" ref="I29" si="39">H29+I28</f>
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J29" s="19">
         <f t="shared" ref="J29" si="40">I29+J28</f>
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K29" s="19">
         <f t="shared" ref="K29" si="41">J29+K28</f>
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="L29" s="19">
         <f t="shared" ref="L29" si="42">K29+L28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M29" s="19">
         <f t="shared" ref="M29" si="43">L29+M28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="N29" s="19">
         <f t="shared" ref="N29" si="44">M29+N28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="O29" s="19">
         <f t="shared" ref="O29" si="45">N29+O28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="P29" s="19">
         <f t="shared" ref="P29" si="46">O29+P28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="19">
         <f t="shared" ref="Q29" si="47">P29+Q28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="R29" s="19">
         <f t="shared" ref="R29" si="48">Q29+R28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="S29" s="19">
         <f t="shared" ref="S29" si="49">R29+S28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="T29" s="19">
         <f t="shared" ref="T29" si="50">S29+T28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="U29" s="19">
         <f t="shared" ref="U29" si="51">T29+U28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="V29" s="19">
         <f t="shared" ref="V29" si="52">U29+V28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="W29" s="19">
         <f t="shared" ref="W29" si="53">V29+W28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="X29" s="19">
         <f t="shared" ref="X29" si="54">W29+X28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="Y29" s="19">
         <f t="shared" ref="Y29" si="55">X29+Y28</f>
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="AA29" s="5"/>
     </row>
@@ -11518,7 +11530,7 @@
       </c>
       <c r="E30" s="11">
         <f>E28*$D$7/1000</f>
-        <v>1.6319999999999999</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F30" s="11">
         <f>F28*$D$7/1000</f>
@@ -11602,7 +11614,7 @@
       </c>
       <c r="AA30" s="11">
         <f>SUM(E30:Y30)</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.15">
@@ -11617,87 +11629,87 @@
       </c>
       <c r="E31" s="11">
         <f>E30</f>
-        <v>1.6319999999999999</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F31" s="11">
         <f>E31+F30</f>
-        <v>3.2639999999999998</v>
+        <v>2.448</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" ref="G31" si="57">F31+G30</f>
-        <v>4.8959999999999999</v>
+        <v>4.08</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" ref="H31" si="58">G31+H30</f>
-        <v>6.5279999999999996</v>
+        <v>5.7119999999999997</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ref="I31" si="59">H31+I30</f>
-        <v>8.16</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" ref="J31" si="60">I31+J30</f>
-        <v>9.7919999999999998</v>
+        <v>8.9759999999999991</v>
       </c>
       <c r="K31" s="11">
         <f t="shared" ref="K31" si="61">J31+K30</f>
-        <v>11.016</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L31" s="11">
         <f t="shared" ref="L31" si="62">K31+L30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="M31" s="11">
         <f t="shared" ref="M31" si="63">L31+M30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="N31" s="11">
         <f t="shared" ref="N31" si="64">M31+N30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="O31" s="11">
         <f t="shared" ref="O31" si="65">N31+O30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" ref="P31" si="66">O31+P30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="Q31" s="11">
         <f t="shared" ref="Q31" si="67">P31+Q30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="R31" s="11">
         <f t="shared" ref="R31" si="68">Q31+R30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="S31" s="11">
         <f t="shared" ref="S31" si="69">R31+S30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="T31" s="11">
         <f t="shared" ref="T31" si="70">S31+T30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="U31" s="11">
         <f t="shared" ref="U31" si="71">T31+U30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="V31" s="11">
         <f t="shared" ref="V31" si="72">U31+V30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="W31" s="11">
         <f t="shared" ref="W31" si="73">V31+W30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="X31" s="11">
         <f t="shared" ref="X31" si="74">W31+X30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
       <c r="Y31" s="11">
         <f t="shared" ref="Y31" si="75">X31+Y30</f>
-        <v>11.832000000000001</v>
+        <v>11.016</v>
       </c>
     </row>
     <row r="33" spans="2:27" x14ac:dyDescent="0.15">
@@ -16044,7 +16056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{86F6F99E-EBBD-AA40-BBF9-A0304AC86697}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2BE195BA-2FCA-604E-99FE-7FD85467A279}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74025E0-593B-4B8A-82F9-8E13AAD4FC38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17543" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="72">
   <si>
     <t>Plan</t>
   </si>
@@ -240,6 +239,9 @@
   </si>
   <si>
     <t>Niklaus</t>
+  </si>
+  <si>
+    <t>Claudio</t>
   </si>
 </sst>
 </file>
@@ -2112,16 +2114,16 @@
                   <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4339,31 +4341,31 @@
                   <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6659,49 +6661,49 @@
                   <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9081,61 +9083,61 @@
                   <c:v>0.40800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.02</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10324,34 +10326,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.796875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.46484375" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1640625" style="1"/>
+    <col min="28" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10359,7 +10361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10367,7 +10369,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
@@ -10376,10 +10378,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10390,7 +10392,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
@@ -10459,7 +10461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10490,7 +10492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -10508,13 +10510,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
@@ -10590,7 +10592,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
@@ -10681,7 +10683,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10777,7 +10779,7 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
@@ -10872,10 +10874,10 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
@@ -10935,7 +10937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -10970,7 +10972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
@@ -11003,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
@@ -11092,7 +11094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
@@ -11183,7 +11185,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C24" s="9" t="s">
         <v>38</v>
       </c>
@@ -11279,7 +11281,7 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
@@ -11374,13 +11376,13 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
@@ -11430,7 +11432,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
@@ -11521,7 +11523,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
@@ -11712,7 +11714,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
@@ -11754,7 +11756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>68</v>
@@ -11787,7 +11789,7 @@
       <c r="Y34" s="20"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>69</v>
@@ -11822,17 +11824,19 @@
       <c r="Y35" s="20"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="G36" s="20">
+        <v>4</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
@@ -11853,7 +11857,7 @@
       <c r="Y36" s="20"/>
       <c r="AA36" s="23"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
@@ -11886,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C38" s="12" t="s">
         <v>49</v>
       </c>
@@ -11919,7 +11923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
@@ -11934,7 +11938,7 @@
       </c>
       <c r="G39" s="21">
         <f t="shared" ref="G39" si="78">SUM(G33:G38)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
@@ -12010,10 +12014,10 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
@@ -12028,83 +12032,83 @@
       </c>
       <c r="G40" s="19">
         <f t="shared" ref="G40" si="97">F40+G39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -12121,7 +12125,7 @@
       </c>
       <c r="G41" s="11">
         <f t="shared" ref="G41:Y41" si="116">G39*$D$7/1000</f>
-        <v>0.61199999999999999</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
@@ -12197,10 +12201,10 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
@@ -12220,88 +12224,88 @@
       </c>
       <c r="G42" s="11">
         <f t="shared" ref="G42" si="117">F42+G41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>1.02</v>
+        <v>1.292</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
@@ -12353,7 +12357,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
@@ -12444,7 +12448,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
@@ -12540,7 +12544,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
@@ -12635,7 +12639,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B50" s="24" t="s">
         <v>41</v>
       </c>
@@ -12671,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B51" s="6"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
@@ -12708,7 +12712,7 @@
       <c r="Y51" s="20"/>
       <c r="AA51" s="23"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B52" s="6"/>
       <c r="C52" s="12" t="s">
         <v>44</v>
@@ -12745,7 +12749,7 @@
       <c r="Y52" s="20"/>
       <c r="AA52" s="23"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="6"/>
       <c r="C53" s="12" t="s">
         <v>45</v>
@@ -12782,7 +12786,7 @@
       <c r="Y53" s="20"/>
       <c r="AA53" s="23"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C54" s="12" t="s">
         <v>46</v>
       </c>
@@ -12815,7 +12819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
@@ -12848,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C56" s="8" t="s">
         <v>37</v>
       </c>
@@ -12942,7 +12946,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
@@ -13033,7 +13037,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
@@ -13129,7 +13133,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
@@ -13224,13 +13228,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
@@ -13282,7 +13286,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
@@ -13373,7 +13377,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -13469,7 +13473,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13564,7 +13568,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B67" s="24" t="s">
         <v>41</v>
       </c>
@@ -13606,7 +13610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B68" s="6"/>
       <c r="C68" s="12" t="s">
         <v>43</v>
@@ -13637,7 +13641,7 @@
       <c r="Y68" s="20"/>
       <c r="AA68" s="23"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
         <v>44</v>
@@ -13668,7 +13672,7 @@
       <c r="Y69" s="20"/>
       <c r="AA69" s="23"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B70" s="6"/>
       <c r="C70" s="12" t="s">
         <v>45</v>
@@ -13699,7 +13703,7 @@
       <c r="Y70" s="20"/>
       <c r="AA70" s="23"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C71" s="12" t="s">
         <v>46</v>
       </c>
@@ -13740,7 +13744,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C72" s="12" t="s">
         <v>49</v>
       </c>
@@ -13781,7 +13785,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
@@ -13875,7 +13879,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13966,7 +13970,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -14062,7 +14066,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>56</v>
       </c>
@@ -14157,13 +14161,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B80" s="24" t="s">
         <v>0</v>
       </c>
@@ -14207,7 +14211,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C81" s="8" t="s">
         <v>2</v>
       </c>
@@ -14298,7 +14302,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C82" s="9" t="s">
         <v>38</v>
       </c>
@@ -14394,7 +14398,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>60</v>
       </c>
@@ -14489,7 +14493,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B85" s="24" t="s">
         <v>41</v>
       </c>
@@ -14525,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B86" s="6"/>
       <c r="C86" s="12" t="s">
         <v>43</v>
@@ -14556,7 +14560,7 @@
       <c r="Y86" s="20"/>
       <c r="AA86" s="23"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B87" s="6"/>
       <c r="C87" s="12" t="s">
         <v>44</v>
@@ -14597,7 +14601,7 @@
       <c r="Y87" s="20"/>
       <c r="AA87" s="23"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B88" s="6"/>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -14638,7 +14642,7 @@
       <c r="Y88" s="20"/>
       <c r="AA88" s="23"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C89" s="12" t="s">
         <v>46</v>
       </c>
@@ -14679,7 +14683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C90" s="12" t="s">
         <v>49</v>
       </c>
@@ -14720,7 +14724,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C91" s="8" t="s">
         <v>37</v>
       </c>
@@ -14814,7 +14818,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C92" s="8" t="s">
         <v>2</v>
       </c>
@@ -14905,7 +14909,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
@@ -15001,7 +15005,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>61</v>
       </c>
@@ -15096,13 +15100,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B98" s="24" t="s">
         <v>0</v>
       </c>
@@ -15144,7 +15148,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C99" s="8" t="s">
         <v>2</v>
       </c>
@@ -15235,7 +15239,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C100" s="9" t="s">
         <v>38</v>
       </c>
@@ -15331,7 +15335,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>63</v>
       </c>
@@ -15426,7 +15430,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B103" s="24" t="s">
         <v>41</v>
       </c>
@@ -15472,7 +15476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B104" s="6"/>
       <c r="C104" s="12" t="s">
         <v>43</v>
@@ -15513,7 +15517,7 @@
       </c>
       <c r="AA104" s="23"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B105" s="6"/>
       <c r="C105" s="12" t="s">
         <v>44</v>
@@ -15552,7 +15556,7 @@
       </c>
       <c r="AA105" s="23"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B106" s="6"/>
       <c r="C106" s="12" t="s">
         <v>45</v>
@@ -15589,7 +15593,7 @@
       </c>
       <c r="AA106" s="23"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C107" s="12" t="s">
         <v>46</v>
       </c>
@@ -15626,7 +15630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C108" s="12" t="s">
         <v>49</v>
       </c>
@@ -15667,7 +15671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C109" s="8" t="s">
         <v>37</v>
       </c>
@@ -15761,7 +15765,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C110" s="8" t="s">
         <v>2</v>
       </c>
@@ -15852,7 +15856,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C111" s="9" t="s">
         <v>38</v>
       </c>
@@ -15948,7 +15952,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>64</v>
       </c>
@@ -16060,7 +16064,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16075,7 +16079,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16090,7 +16094,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16101,11 +16105,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74025E0-593B-4B8A-82F9-8E13AAD4FC38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B636AA8-F58A-6B40-AE7E-487286A2D466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17543" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2117,13 +2118,13 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4344,28 +4345,28 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6664,46 +6665,46 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9086,58 +9087,58 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.292</c:v>
+                  <c:v>2.3120000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10326,34 +10327,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.46484375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1328125" style="1"/>
+    <col min="28" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10361,7 +10362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
@@ -10378,10 +10379,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10392,7 +10393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -10510,13 +10511,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
@@ -10683,7 +10684,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10779,7 +10780,7 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
@@ -10874,10 +10875,10 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -10972,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
@@ -11185,7 +11186,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C24" s="9" t="s">
         <v>38</v>
       </c>
@@ -11281,7 +11282,7 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
@@ -11376,13 +11377,13 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="27" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
@@ -11432,7 +11433,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
@@ -11523,7 +11524,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -11619,7 +11620,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
@@ -11756,7 +11757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>68</v>
@@ -11769,7 +11770,9 @@
       <c r="G34" s="20">
         <v>2</v>
       </c>
-      <c r="H34" s="20"/>
+      <c r="H34" s="20">
+        <v>15</v>
+      </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -11789,7 +11792,7 @@
       <c r="Y34" s="20"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>69</v>
@@ -11824,7 +11827,7 @@
       <c r="Y35" s="20"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
         <v>71</v>
@@ -11857,7 +11860,7 @@
       <c r="Y36" s="20"/>
       <c r="AA36" s="23"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C38" s="12" t="s">
         <v>49</v>
       </c>
@@ -11923,7 +11926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
@@ -11942,7 +11945,7 @@
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
@@ -12014,10 +12017,10 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
@@ -12036,79 +12039,79 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -12129,7 +12132,7 @@
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="116"/>
@@ -12201,10 +12204,10 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
@@ -12228,84 +12231,84 @@
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>1.292</v>
+        <v>2.3120000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
@@ -12448,7 +12451,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
@@ -12544,7 +12547,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B50" s="24" t="s">
         <v>41</v>
       </c>
@@ -12675,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
@@ -12712,7 +12715,7 @@
       <c r="Y51" s="20"/>
       <c r="AA51" s="23"/>
     </row>
-    <row r="52" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B52" s="6"/>
       <c r="C52" s="12" t="s">
         <v>44</v>
@@ -12749,7 +12752,7 @@
       <c r="Y52" s="20"/>
       <c r="AA52" s="23"/>
     </row>
-    <row r="53" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
       <c r="C53" s="12" t="s">
         <v>45</v>
@@ -12786,7 +12789,7 @@
       <c r="Y53" s="20"/>
       <c r="AA53" s="23"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C54" s="12" t="s">
         <v>46</v>
       </c>
@@ -12819,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
@@ -12852,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C56" s="8" t="s">
         <v>37</v>
       </c>
@@ -12946,7 +12949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
@@ -13037,7 +13040,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
@@ -13133,7 +13136,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
@@ -13228,13 +13231,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
@@ -13377,7 +13380,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -13473,7 +13476,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13568,7 +13571,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="67" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="24" t="s">
         <v>41</v>
       </c>
@@ -13610,7 +13613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="6"/>
       <c r="C68" s="12" t="s">
         <v>43</v>
@@ -13641,7 +13644,7 @@
       <c r="Y68" s="20"/>
       <c r="AA68" s="23"/>
     </row>
-    <row r="69" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
         <v>44</v>
@@ -13672,7 +13675,7 @@
       <c r="Y69" s="20"/>
       <c r="AA69" s="23"/>
     </row>
-    <row r="70" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="6"/>
       <c r="C70" s="12" t="s">
         <v>45</v>
@@ -13703,7 +13706,7 @@
       <c r="Y70" s="20"/>
       <c r="AA70" s="23"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C71" s="12" t="s">
         <v>46</v>
       </c>
@@ -13744,7 +13747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C72" s="12" t="s">
         <v>49</v>
       </c>
@@ -13785,7 +13788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
@@ -13879,7 +13882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13970,7 +13973,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -14066,7 +14069,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="15" t="s">
         <v>56</v>
       </c>
@@ -14161,13 +14164,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B80" s="24" t="s">
         <v>0</v>
       </c>
@@ -14211,7 +14214,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C81" s="8" t="s">
         <v>2</v>
       </c>
@@ -14302,7 +14305,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C82" s="9" t="s">
         <v>38</v>
       </c>
@@ -14398,7 +14401,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B83" s="15" t="s">
         <v>60</v>
       </c>
@@ -14493,7 +14496,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="24" t="s">
         <v>41</v>
       </c>
@@ -14529,7 +14532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="6"/>
       <c r="C86" s="12" t="s">
         <v>43</v>
@@ -14560,7 +14563,7 @@
       <c r="Y86" s="20"/>
       <c r="AA86" s="23"/>
     </row>
-    <row r="87" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="6"/>
       <c r="C87" s="12" t="s">
         <v>44</v>
@@ -14601,7 +14604,7 @@
       <c r="Y87" s="20"/>
       <c r="AA87" s="23"/>
     </row>
-    <row r="88" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B88" s="6"/>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -14642,7 +14645,7 @@
       <c r="Y88" s="20"/>
       <c r="AA88" s="23"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C89" s="12" t="s">
         <v>46</v>
       </c>
@@ -14683,7 +14686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C90" s="12" t="s">
         <v>49</v>
       </c>
@@ -14724,7 +14727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C91" s="8" t="s">
         <v>37</v>
       </c>
@@ -14818,7 +14821,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C92" s="8" t="s">
         <v>2</v>
       </c>
@@ -14909,7 +14912,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
@@ -15005,7 +15008,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B94" s="15" t="s">
         <v>61</v>
       </c>
@@ -15100,13 +15103,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C97" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B98" s="24" t="s">
         <v>0</v>
       </c>
@@ -15148,7 +15151,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C99" s="8" t="s">
         <v>2</v>
       </c>
@@ -15239,7 +15242,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C100" s="9" t="s">
         <v>38</v>
       </c>
@@ -15335,7 +15338,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B101" s="15" t="s">
         <v>63</v>
       </c>
@@ -15430,7 +15433,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B103" s="24" t="s">
         <v>41</v>
       </c>
@@ -15476,7 +15479,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B104" s="6"/>
       <c r="C104" s="12" t="s">
         <v>43</v>
@@ -15517,7 +15520,7 @@
       </c>
       <c r="AA104" s="23"/>
     </row>
-    <row r="105" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B105" s="6"/>
       <c r="C105" s="12" t="s">
         <v>44</v>
@@ -15556,7 +15559,7 @@
       </c>
       <c r="AA105" s="23"/>
     </row>
-    <row r="106" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B106" s="6"/>
       <c r="C106" s="12" t="s">
         <v>45</v>
@@ -15593,7 +15596,7 @@
       </c>
       <c r="AA106" s="23"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C107" s="12" t="s">
         <v>46</v>
       </c>
@@ -15630,7 +15633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C108" s="12" t="s">
         <v>49</v>
       </c>
@@ -15671,7 +15674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C109" s="8" t="s">
         <v>37</v>
       </c>
@@ -15765,7 +15768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C110" s="8" t="s">
         <v>2</v>
       </c>
@@ -15856,7 +15859,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C111" s="9" t="s">
         <v>38</v>
       </c>
@@ -15952,7 +15955,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B112" s="15" t="s">
         <v>64</v>
       </c>
@@ -16064,7 +16067,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16079,7 +16082,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16094,7 +16097,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16105,11 +16108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B636AA8-F58A-6B40-AE7E-487286A2D466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0993538-78A6-4517-9735-E849F1DDC408}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,7 @@
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -2118,13 +2110,13 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,28 +4337,28 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,46 +6657,46 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9087,58 +9079,58 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10328,33 +10320,33 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1640625" style="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10362,7 +10354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10370,7 +10362,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
@@ -10379,10 +10371,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10393,7 +10385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
@@ -10462,7 +10454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10493,7 +10485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -10511,13 +10503,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
@@ -10593,7 +10585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
@@ -10684,7 +10676,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10780,7 +10772,7 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
@@ -10875,10 +10867,10 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
@@ -10938,7 +10930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -10973,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
@@ -11006,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
@@ -11095,7 +11087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
@@ -11186,7 +11178,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
         <v>38</v>
       </c>
@@ -11282,7 +11274,7 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
@@ -11377,13 +11369,13 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
@@ -11433,7 +11425,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
@@ -11524,7 +11516,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -11620,7 +11612,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
@@ -11715,7 +11707,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
@@ -11734,7 +11726,9 @@
       <c r="G33" s="20">
         <v>6</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="20">
+        <v>18</v>
+      </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -11754,10 +11748,10 @@
       <c r="Y33" s="20"/>
       <c r="AA33" s="23">
         <f>SUM(E33:Y33)</f>
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>68</v>
@@ -11792,7 +11786,7 @@
       <c r="Y34" s="20"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>69</v>
@@ -11827,7 +11821,7 @@
       <c r="Y35" s="20"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
         <v>71</v>
@@ -11860,7 +11854,7 @@
       <c r="Y36" s="20"/>
       <c r="AA36" s="23"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
@@ -11893,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C38" s="12" t="s">
         <v>49</v>
       </c>
@@ -11926,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
@@ -11945,7 +11939,7 @@
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
@@ -12017,10 +12011,10 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
@@ -12039,79 +12033,79 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -12132,7 +12126,7 @@
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
-        <v>1.02</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="116"/>
@@ -12204,10 +12198,10 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
@@ -12231,84 +12225,84 @@
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>2.3120000000000003</v>
+        <v>3.5360000000000005</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
@@ -12360,7 +12354,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
@@ -12451,7 +12445,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
@@ -12547,7 +12541,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
@@ -12642,7 +12636,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
         <v>41</v>
       </c>
@@ -12678,7 +12672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
@@ -12715,7 +12709,7 @@
       <c r="Y51" s="20"/>
       <c r="AA51" s="23"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="12" t="s">
         <v>44</v>
@@ -12752,7 +12746,7 @@
       <c r="Y52" s="20"/>
       <c r="AA52" s="23"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="12" t="s">
         <v>45</v>
@@ -12789,7 +12783,7 @@
       <c r="Y53" s="20"/>
       <c r="AA53" s="23"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C54" s="12" t="s">
         <v>46</v>
       </c>
@@ -12822,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
@@ -12855,7 +12849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C56" s="8" t="s">
         <v>37</v>
       </c>
@@ -12949,7 +12943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
@@ -13040,7 +13034,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
@@ -13136,7 +13130,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
@@ -13231,13 +13225,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
@@ -13289,7 +13283,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
@@ -13380,7 +13374,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -13476,7 +13470,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13571,7 +13565,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="24" t="s">
         <v>41</v>
       </c>
@@ -13613,7 +13607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="12" t="s">
         <v>43</v>
@@ -13644,7 +13638,7 @@
       <c r="Y68" s="20"/>
       <c r="AA68" s="23"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
         <v>44</v>
@@ -13675,7 +13669,7 @@
       <c r="Y69" s="20"/>
       <c r="AA69" s="23"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="12" t="s">
         <v>45</v>
@@ -13706,7 +13700,7 @@
       <c r="Y70" s="20"/>
       <c r="AA70" s="23"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C71" s="12" t="s">
         <v>46</v>
       </c>
@@ -13747,7 +13741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C72" s="12" t="s">
         <v>49</v>
       </c>
@@ -13788,7 +13782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
@@ -13882,7 +13876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13973,7 +13967,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -14069,7 +14063,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
         <v>56</v>
       </c>
@@ -14164,13 +14158,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="24" t="s">
         <v>0</v>
       </c>
@@ -14214,7 +14208,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C81" s="8" t="s">
         <v>2</v>
       </c>
@@ -14305,7 +14299,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C82" s="9" t="s">
         <v>38</v>
       </c>
@@ -14401,7 +14395,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
         <v>60</v>
       </c>
@@ -14496,7 +14490,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
         <v>41</v>
       </c>
@@ -14532,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="12" t="s">
         <v>43</v>
@@ -14563,7 +14557,7 @@
       <c r="Y86" s="20"/>
       <c r="AA86" s="23"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="12" t="s">
         <v>44</v>
@@ -14604,7 +14598,7 @@
       <c r="Y87" s="20"/>
       <c r="AA87" s="23"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -14645,7 +14639,7 @@
       <c r="Y88" s="20"/>
       <c r="AA88" s="23"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C89" s="12" t="s">
         <v>46</v>
       </c>
@@ -14686,7 +14680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C90" s="12" t="s">
         <v>49</v>
       </c>
@@ -14727,7 +14721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C91" s="8" t="s">
         <v>37</v>
       </c>
@@ -14821,7 +14815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C92" s="8" t="s">
         <v>2</v>
       </c>
@@ -14912,7 +14906,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
@@ -15008,7 +15002,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>61</v>
       </c>
@@ -15103,13 +15097,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="24" t="s">
         <v>0</v>
       </c>
@@ -15151,7 +15145,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C99" s="8" t="s">
         <v>2</v>
       </c>
@@ -15242,7 +15236,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C100" s="9" t="s">
         <v>38</v>
       </c>
@@ -15338,7 +15332,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
         <v>63</v>
       </c>
@@ -15433,7 +15427,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="24" t="s">
         <v>41</v>
       </c>
@@ -15479,7 +15473,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="12" t="s">
         <v>43</v>
@@ -15520,7 +15514,7 @@
       </c>
       <c r="AA104" s="23"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="12" t="s">
         <v>44</v>
@@ -15559,7 +15553,7 @@
       </c>
       <c r="AA105" s="23"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="12" t="s">
         <v>45</v>
@@ -15596,7 +15590,7 @@
       </c>
       <c r="AA106" s="23"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C107" s="12" t="s">
         <v>46</v>
       </c>
@@ -15633,7 +15627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C108" s="12" t="s">
         <v>49</v>
       </c>
@@ -15674,7 +15668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C109" s="8" t="s">
         <v>37</v>
       </c>
@@ -15768,7 +15762,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C110" s="8" t="s">
         <v>2</v>
       </c>
@@ -15859,7 +15853,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C111" s="9" t="s">
         <v>38</v>
       </c>
@@ -15955,7 +15949,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
         <v>64</v>
       </c>
@@ -16067,7 +16061,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16082,7 +16076,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16097,7 +16091,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16112,7 +16106,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B0993538-78A6-4517-9735-E849F1DDC408}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3642EEA9-1CDE-EE4E-9BF1-4079391156C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,15 @@
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2110,13 +2118,13 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4337,28 +4345,28 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6657,46 +6665,46 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9079,58 +9087,58 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5360000000000005</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10320,33 +10328,33 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.109375" style="1"/>
+    <col min="28" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10354,7 +10362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10362,7 +10370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
@@ -10371,10 +10379,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10385,7 +10393,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
@@ -10454,7 +10462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10485,7 +10493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -10503,13 +10511,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
@@ -10585,7 +10593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
@@ -10676,7 +10684,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10772,7 +10780,7 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
@@ -10867,10 +10875,10 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
@@ -10930,7 +10938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
         <v>43</v>
       </c>
@@ -10965,7 +10973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
@@ -10998,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
@@ -11087,7 +11095,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
@@ -11178,7 +11186,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C24" s="9" t="s">
         <v>38</v>
       </c>
@@ -11274,7 +11282,7 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
@@ -11369,13 +11377,13 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
@@ -11425,7 +11433,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
@@ -11516,7 +11524,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -11612,7 +11620,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
@@ -11707,7 +11715,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
@@ -11751,7 +11759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>68</v>
@@ -11786,7 +11794,7 @@
       <c r="Y34" s="20"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>69</v>
@@ -11801,7 +11809,9 @@
       <c r="G35" s="20">
         <v>1</v>
       </c>
-      <c r="H35" s="20"/>
+      <c r="H35" s="20">
+        <v>12</v>
+      </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
@@ -11821,7 +11831,7 @@
       <c r="Y35" s="20"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
         <v>71</v>
@@ -11854,7 +11864,7 @@
       <c r="Y36" s="20"/>
       <c r="AA36" s="23"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
@@ -11887,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C38" s="12" t="s">
         <v>49</v>
       </c>
@@ -11920,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
@@ -11939,7 +11949,7 @@
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
@@ -12011,10 +12021,10 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
@@ -12033,79 +12043,79 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -12126,7 +12136,7 @@
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
-        <v>2.2440000000000002</v>
+        <v>3.06</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="116"/>
@@ -12198,10 +12208,10 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
@@ -12225,84 +12235,84 @@
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>3.5360000000000005</v>
+        <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
@@ -12354,7 +12364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
@@ -12445,7 +12455,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
@@ -12541,7 +12551,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
@@ -12636,7 +12646,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B50" s="24" t="s">
         <v>41</v>
       </c>
@@ -12672,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="6"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
@@ -12709,7 +12719,7 @@
       <c r="Y51" s="20"/>
       <c r="AA51" s="23"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B52" s="6"/>
       <c r="C52" s="12" t="s">
         <v>44</v>
@@ -12746,7 +12756,7 @@
       <c r="Y52" s="20"/>
       <c r="AA52" s="23"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="6"/>
       <c r="C53" s="12" t="s">
         <v>45</v>
@@ -12783,7 +12793,7 @@
       <c r="Y53" s="20"/>
       <c r="AA53" s="23"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C54" s="12" t="s">
         <v>46</v>
       </c>
@@ -12816,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
@@ -12849,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C56" s="8" t="s">
         <v>37</v>
       </c>
@@ -12943,7 +12953,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
@@ -13034,7 +13044,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
@@ -13130,7 +13140,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
@@ -13225,13 +13235,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
@@ -13283,7 +13293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
@@ -13374,7 +13384,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -13470,7 +13480,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13565,7 +13575,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="24" t="s">
         <v>41</v>
       </c>
@@ -13607,7 +13617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="6"/>
       <c r="C68" s="12" t="s">
         <v>43</v>
@@ -13638,7 +13648,7 @@
       <c r="Y68" s="20"/>
       <c r="AA68" s="23"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
         <v>44</v>
@@ -13669,7 +13679,7 @@
       <c r="Y69" s="20"/>
       <c r="AA69" s="23"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="6"/>
       <c r="C70" s="12" t="s">
         <v>45</v>
@@ -13700,7 +13710,7 @@
       <c r="Y70" s="20"/>
       <c r="AA70" s="23"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C71" s="12" t="s">
         <v>46</v>
       </c>
@@ -13741,7 +13751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C72" s="12" t="s">
         <v>49</v>
       </c>
@@ -13782,7 +13792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
@@ -13876,7 +13886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13967,7 +13977,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -14063,7 +14073,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="15" t="s">
         <v>56</v>
       </c>
@@ -14158,13 +14168,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B80" s="24" t="s">
         <v>0</v>
       </c>
@@ -14208,7 +14218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C81" s="8" t="s">
         <v>2</v>
       </c>
@@ -14299,7 +14309,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C82" s="9" t="s">
         <v>38</v>
       </c>
@@ -14395,7 +14405,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B83" s="15" t="s">
         <v>60</v>
       </c>
@@ -14490,7 +14500,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="24" t="s">
         <v>41</v>
       </c>
@@ -14526,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="6"/>
       <c r="C86" s="12" t="s">
         <v>43</v>
@@ -14557,7 +14567,7 @@
       <c r="Y86" s="20"/>
       <c r="AA86" s="23"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="6"/>
       <c r="C87" s="12" t="s">
         <v>44</v>
@@ -14598,7 +14608,7 @@
       <c r="Y87" s="20"/>
       <c r="AA87" s="23"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B88" s="6"/>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -14639,7 +14649,7 @@
       <c r="Y88" s="20"/>
       <c r="AA88" s="23"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C89" s="12" t="s">
         <v>46</v>
       </c>
@@ -14680,7 +14690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C90" s="12" t="s">
         <v>49</v>
       </c>
@@ -14721,7 +14731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C91" s="8" t="s">
         <v>37</v>
       </c>
@@ -14815,7 +14825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C92" s="8" t="s">
         <v>2</v>
       </c>
@@ -14906,7 +14916,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
@@ -15002,7 +15012,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B94" s="15" t="s">
         <v>61</v>
       </c>
@@ -15097,13 +15107,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C97" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B98" s="24" t="s">
         <v>0</v>
       </c>
@@ -15145,7 +15155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C99" s="8" t="s">
         <v>2</v>
       </c>
@@ -15236,7 +15246,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C100" s="9" t="s">
         <v>38</v>
       </c>
@@ -15332,7 +15342,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B101" s="15" t="s">
         <v>63</v>
       </c>
@@ -15427,7 +15437,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B103" s="24" t="s">
         <v>41</v>
       </c>
@@ -15473,7 +15483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B104" s="6"/>
       <c r="C104" s="12" t="s">
         <v>43</v>
@@ -15514,7 +15524,7 @@
       </c>
       <c r="AA104" s="23"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B105" s="6"/>
       <c r="C105" s="12" t="s">
         <v>44</v>
@@ -15553,7 +15563,7 @@
       </c>
       <c r="AA105" s="23"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B106" s="6"/>
       <c r="C106" s="12" t="s">
         <v>45</v>
@@ -15590,7 +15600,7 @@
       </c>
       <c r="AA106" s="23"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C107" s="12" t="s">
         <v>46</v>
       </c>
@@ -15627,7 +15637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C108" s="12" t="s">
         <v>49</v>
       </c>
@@ -15668,7 +15678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C109" s="8" t="s">
         <v>37</v>
       </c>
@@ -15762,7 +15772,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C110" s="8" t="s">
         <v>2</v>
       </c>
@@ -15853,7 +15863,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C111" s="9" t="s">
         <v>38</v>
       </c>
@@ -15949,7 +15959,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B112" s="15" t="s">
         <v>64</v>
       </c>
@@ -16061,7 +16071,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16076,7 +16086,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16091,7 +16101,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16106,7 +16116,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3642EEA9-1CDE-EE4E-9BF1-4079391156C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3642EEA9-1CDE-EE4E-9BF1-4079391156C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{40931B75-3B1C-3D4B-A19A-33FC3A59D0F0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1837,13 +1837,13 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.6889999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,13 +2118,13 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,28 +4049,28 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.6889999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.57</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>4.6409999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,28 +4345,28 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,46 +6351,46 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.6889999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.57</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>4.6409999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>4.8789999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4029999999999987</c:v>
+                  <c:v>4.9979999999999984</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6409999999999982</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>5.3549999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,46 +6665,46 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8761,58 +8761,58 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9039999999999999</c:v>
+                  <c:v>2.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.38</c:v>
+                  <c:v>2.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0939999999999999</c:v>
+                  <c:v>3.6889999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.57</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>4.6409999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1649999999999991</c:v>
+                  <c:v>4.7599999999999989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2839999999999989</c:v>
+                  <c:v>4.8789999999999987</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4029999999999987</c:v>
+                  <c:v>4.9979999999999984</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.6409999999999982</c:v>
+                  <c:v>5.2359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.759999999999998</c:v>
+                  <c:v>5.3549999999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.235999999999998</c:v>
+                  <c:v>5.8309999999999986</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.711999999999998</c:v>
+                  <c:v>6.3069999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1879999999999979</c:v>
+                  <c:v>6.7829999999999986</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6639999999999979</c:v>
+                  <c:v>7.2589999999999986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9087,58 +9087,58 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>4.1479999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10331,7 +10331,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10940,7 +10940,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>40</v>
@@ -10948,7 +10948,9 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="H20" s="20">
+        <v>5</v>
+      </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -10970,7 +10972,7 @@
       <c r="Y20" s="20"/>
       <c r="AA20" s="23">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.15">
@@ -11025,7 +11027,7 @@
       </c>
       <c r="H22" s="21">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I22" s="21">
         <v>4</v>
@@ -11092,7 +11094,7 @@
       </c>
       <c r="AA22" s="21">
         <f t="shared" si="3"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.15">
@@ -11114,75 +11116,75 @@
       </c>
       <c r="H23" s="19">
         <f t="shared" si="17"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="17"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K23" s="19">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="17"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M23" s="19">
         <f t="shared" si="17"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" si="17"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="17"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="17"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="19">
         <f t="shared" si="17"/>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="17"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="T23" s="19">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="U23" s="19">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="V23" s="19">
         <f t="shared" si="17"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="W23" s="19">
         <f t="shared" si="17"/>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="X23" s="19">
         <f t="shared" si="17"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y23" s="19">
         <f t="shared" si="17"/>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11207,7 +11209,7 @@
       </c>
       <c r="H24" s="11">
         <f t="shared" si="18"/>
-        <v>0.95199999999999996</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="18"/>
@@ -11279,7 +11281,7 @@
       </c>
       <c r="AA24" s="11">
         <f>SUM(E24:Y24)</f>
-        <v>6.6639999999999979</v>
+        <v>7.2589999999999986</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.15">
@@ -11306,75 +11308,75 @@
       </c>
       <c r="H25" s="11">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>1.9039999999999999</v>
+        <v>2.4989999999999997</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>2.38</v>
+        <v>2.9749999999999996</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>3.0939999999999999</v>
+        <v>3.6889999999999996</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>3.57</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>4.0459999999999994</v>
+        <v>4.6409999999999991</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>4.1649999999999991</v>
+        <v>4.7599999999999989</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>4.1649999999999991</v>
+        <v>4.7599999999999989</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>4.1649999999999991</v>
+        <v>4.7599999999999989</v>
       </c>
       <c r="P25" s="11">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>4.1649999999999991</v>
+        <v>4.7599999999999989</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>4.1649999999999991</v>
+        <v>4.7599999999999989</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>4.2839999999999989</v>
+        <v>4.8789999999999987</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>4.4029999999999987</v>
+        <v>4.9979999999999984</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>4.6409999999999982</v>
+        <v>5.2359999999999989</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>4.759999999999998</v>
+        <v>5.3549999999999986</v>
       </c>
       <c r="V25" s="11">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>5.235999999999998</v>
+        <v>5.8309999999999986</v>
       </c>
       <c r="W25" s="11">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>5.711999999999998</v>
+        <v>6.3069999999999986</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>6.1879999999999979</v>
+        <v>6.7829999999999986</v>
       </c>
       <c r="Y25" s="11">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>6.6639999999999979</v>
+        <v>7.2589999999999986</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.15">
@@ -11810,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -11949,7 +11951,7 @@
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
@@ -12021,7 +12023,7 @@
       </c>
       <c r="AA39" s="21">
         <f t="shared" si="76"/>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:27" x14ac:dyDescent="0.15">
@@ -12043,75 +12045,75 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J40" s="19">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K40" s="19">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L40" s="19">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M40" s="19">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N40" s="19">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O40" s="19">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P40" s="19">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q40" s="19">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R40" s="19">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S40" s="19">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="T40" s="19">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U40" s="19">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="V40" s="19">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W40" s="19">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X40" s="19">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y40" s="19">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12136,7 +12138,7 @@
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
-        <v>3.06</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="116"/>
@@ -12208,7 +12210,7 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.15">
@@ -12235,75 +12237,75 @@
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>4.3520000000000003</v>
+        <v>4.1479999999999997</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.15">

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{3642EEA9-1CDE-EE4E-9BF1-4079391156C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{40931B75-3B1C-3D4B-A19A-33FC3A59D0F0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{AC110230-BAF6-2C45-B6EB-562B9FB8FA6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -10327,7 +10327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
@@ -16069,7 +16069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{AC110230-BAF6-2C45-B6EB-562B9FB8FA6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="114_{AC110230-BAF6-2C45-B6EB-562B9FB8FA6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{598340C2-70FF-354E-962E-75F0BF45709D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -227,9 +227,6 @@
     <t>Wiss. MA</t>
   </si>
   <si>
-    <t>pro2E, Team-x Personalkosten Tracking</t>
-  </si>
-  <si>
     <t>Pascal</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Claudio</t>
+  </si>
+  <si>
+    <t>pro2E, Team 1 Personalkosten Tracking</t>
   </si>
 </sst>
 </file>
@@ -10327,11 +10327,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10348,7 +10348,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10883,7 +10883,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>40</v>
@@ -10900,8 +10900,12 @@
       <c r="H19" s="20">
         <v>8</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="20">
+        <v>8</v>
+      </c>
+      <c r="J19" s="20">
+        <v>2</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -10935,12 +10939,12 @@
       </c>
       <c r="AA19" s="23">
         <f>SUM(E19:Y19)</f>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>40</v>
@@ -11722,7 +11726,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>40</v>
@@ -11764,7 +11768,7 @@
     <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>40</v>
@@ -11799,7 +11803,7 @@
     <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>40</v>
@@ -11836,7 +11840,7 @@
     <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>40</v>
@@ -16069,7 +16073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="114_{AC110230-BAF6-2C45-B6EB-562B9FB8FA6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{598340C2-70FF-354E-962E-75F0BF45709D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{AC110230-BAF6-2C45-B6EB-562B9FB8FA6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E1309BDC-99F6-B44F-8217-A83C84FC80F8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1837,13 +1837,13 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9749999999999996</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6889999999999996</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2118,13 +2118,13 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,28 +4049,28 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9749999999999996</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6889999999999996</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.1649999999999991</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6409999999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7599999999999989</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4345,28 +4345,28 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,46 +6351,46 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9749999999999996</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6889999999999996</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.1649999999999991</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6409999999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7599999999999989</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8789999999999987</c:v>
+                  <c:v>4.2839999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9979999999999984</c:v>
+                  <c:v>4.4029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2359999999999989</c:v>
+                  <c:v>4.6409999999999982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3549999999999986</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6665,46 +6665,46 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8761,58 +8761,58 @@
                   <c:v>0.95199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4989999999999997</c:v>
+                  <c:v>1.9039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9749999999999996</c:v>
+                  <c:v>2.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6889999999999996</c:v>
+                  <c:v>3.0939999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.1649999999999991</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.6409999999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.7599999999999989</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7599999999999989</c:v>
+                  <c:v>4.1649999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8789999999999987</c:v>
+                  <c:v>4.2839999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9979999999999984</c:v>
+                  <c:v>4.4029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2359999999999989</c:v>
+                  <c:v>4.6409999999999982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3549999999999986</c:v>
+                  <c:v>4.759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8309999999999986</c:v>
+                  <c:v>5.235999999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3069999999999986</c:v>
+                  <c:v>5.711999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.7829999999999986</c:v>
+                  <c:v>6.1879999999999979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.2589999999999986</c:v>
+                  <c:v>6.6639999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9087,58 +9087,58 @@
                   <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1479999999999997</c:v>
+                  <c:v>4.1480000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10331,7 +10331,7 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10952,10 +10952,10 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="20">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20">
         <v>5</v>
       </c>
-      <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H22" s="21">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I22" s="21">
         <v>4</v>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="AA22" s="21">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.15">
@@ -11120,75 +11120,75 @@
       </c>
       <c r="H23" s="19">
         <f t="shared" si="17"/>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I23" s="19">
         <f t="shared" si="17"/>
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J23" s="19">
         <f t="shared" si="17"/>
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K23" s="19">
         <f t="shared" si="17"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="L23" s="19">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M23" s="19">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N23" s="19">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O23" s="19">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="P23" s="19">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="19">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R23" s="19">
         <f t="shared" si="17"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S23" s="19">
         <f t="shared" si="17"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="T23" s="19">
         <f t="shared" si="17"/>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U23" s="19">
         <f t="shared" si="17"/>
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="V23" s="19">
         <f t="shared" si="17"/>
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="W23" s="19">
         <f t="shared" si="17"/>
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="X23" s="19">
         <f t="shared" si="17"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y23" s="19">
         <f t="shared" si="17"/>
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="H24" s="11">
         <f t="shared" si="18"/>
-        <v>1.5469999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="18"/>
@@ -11285,7 +11285,7 @@
       </c>
       <c r="AA24" s="11">
         <f>SUM(E24:Y24)</f>
-        <v>7.2589999999999986</v>
+        <v>6.6639999999999979</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.15">
@@ -11312,75 +11312,75 @@
       </c>
       <c r="H25" s="11">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>2.4989999999999997</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>2.9749999999999996</v>
+        <v>2.38</v>
       </c>
       <c r="J25" s="11">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>3.6889999999999996</v>
+        <v>3.0939999999999999</v>
       </c>
       <c r="K25" s="11">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>4.1649999999999991</v>
+        <v>3.57</v>
       </c>
       <c r="L25" s="11">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>4.6409999999999991</v>
+        <v>4.0459999999999994</v>
       </c>
       <c r="M25" s="11">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>4.7599999999999989</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="N25" s="11">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>4.7599999999999989</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="O25" s="11">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>4.7599999999999989</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="P25" s="11">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>4.7599999999999989</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="Q25" s="11">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>4.7599999999999989</v>
+        <v>4.1649999999999991</v>
       </c>
       <c r="R25" s="11">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>4.8789999999999987</v>
+        <v>4.2839999999999989</v>
       </c>
       <c r="S25" s="11">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>4.9979999999999984</v>
+        <v>4.4029999999999987</v>
       </c>
       <c r="T25" s="11">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>5.2359999999999989</v>
+        <v>4.6409999999999982</v>
       </c>
       <c r="U25" s="11">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>5.3549999999999986</v>
+        <v>4.759999999999998</v>
       </c>
       <c r="V25" s="11">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>5.8309999999999986</v>
+        <v>5.235999999999998</v>
       </c>
       <c r="W25" s="11">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>6.3069999999999986</v>
+        <v>5.711999999999998</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>6.7829999999999986</v>
+        <v>6.1879999999999979</v>
       </c>
       <c r="Y25" s="11">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>7.2589999999999986</v>
+        <v>6.6639999999999979</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.15">
@@ -11815,10 +11815,10 @@
       <c r="G35" s="20">
         <v>1</v>
       </c>
-      <c r="H35" s="20">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20">
         <v>9</v>
       </c>
-      <c r="I35" s="20"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -11955,11 +11955,11 @@
       </c>
       <c r="H39" s="21">
         <f t="shared" ref="H39" si="79">SUM(H33:H38)</f>
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I39" s="21">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J39" s="21">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
@@ -12049,7 +12049,7 @@
       </c>
       <c r="H40" s="19">
         <f t="shared" ref="H40" si="98">G40+H39</f>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I40" s="19">
         <f t="shared" ref="I40" si="99">H40+I39</f>
@@ -12142,11 +12142,11 @@
       </c>
       <c r="H41" s="11">
         <f t="shared" si="116"/>
-        <v>2.8559999999999999</v>
+        <v>2.2440000000000002</v>
       </c>
       <c r="I41" s="11">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="J41" s="11">
         <f t="shared" si="116"/>
@@ -12214,7 +12214,7 @@
       </c>
       <c r="AA41" s="11">
         <f>SUM(E41:Y41)</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.15">
@@ -12241,75 +12241,75 @@
       </c>
       <c r="H42" s="11">
         <f t="shared" ref="H42" si="118">G42+H41</f>
-        <v>4.1479999999999997</v>
+        <v>3.5360000000000005</v>
       </c>
       <c r="I42" s="11">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="K42" s="11">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="L42" s="11">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="M42" s="11">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="N42" s="11">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="O42" s="11">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>4.1479999999999997</v>
+        <v>4.1480000000000006</v>
       </c>
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.15">

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{AC110230-BAF6-2C45-B6EB-562B9FB8FA6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E1309BDC-99F6-B44F-8217-A83C84FC80F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{695FFF2A-4AB4-49CF-88B7-DCFA1D3EBBB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="17544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,7 @@
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -10328,33 +10320,33 @@
   <dimension ref="B2:AA112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H36" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1640625" style="1"/>
+    <col min="28" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10362,7 +10354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10370,7 +10362,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>65</v>
       </c>
@@ -10379,10 +10371,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA8" s="16"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10393,7 +10385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="13" t="s">
         <v>3</v>
       </c>
@@ -10462,7 +10454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -10493,7 +10485,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -10511,13 +10503,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="24" t="s">
         <v>0</v>
       </c>
@@ -10593,7 +10585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>2</v>
       </c>
@@ -10684,7 +10676,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -10780,7 +10772,7 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>47</v>
       </c>
@@ -10875,10 +10867,10 @@
         <v>12.375999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA18" s="22"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
@@ -10942,7 +10934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
         <v>68</v>
       </c>
@@ -10979,7 +10971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
@@ -11012,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C22" s="8" t="s">
         <v>37</v>
       </c>
@@ -11101,7 +11093,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C23" s="8" t="s">
         <v>2</v>
       </c>
@@ -11192,7 +11184,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
         <v>38</v>
       </c>
@@ -11288,7 +11280,7 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
         <v>48</v>
       </c>
@@ -11383,13 +11375,13 @@
         <v>6.6639999999999979</v>
       </c>
     </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
         <v>0</v>
       </c>
@@ -11439,7 +11431,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C29" s="8" t="s">
         <v>2</v>
       </c>
@@ -11530,7 +11522,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>38</v>
       </c>
@@ -11626,7 +11618,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
         <v>51</v>
       </c>
@@ -11721,7 +11713,7 @@
         <v>11.016</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
         <v>41</v>
       </c>
@@ -11743,7 +11735,9 @@
       <c r="H33" s="20">
         <v>18</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="20">
+        <v>0</v>
+      </c>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -11765,7 +11759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="12" t="s">
         <v>67</v>
@@ -11800,7 +11794,7 @@
       <c r="Y34" s="20"/>
       <c r="AA34" s="23"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="12" t="s">
         <v>68</v>
@@ -11837,7 +11831,7 @@
       <c r="Y35" s="20"/>
       <c r="AA35" s="23"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="12" t="s">
         <v>70</v>
@@ -11870,7 +11864,7 @@
       <c r="Y36" s="20"/>
       <c r="AA36" s="23"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C37" s="12" t="s">
         <v>46</v>
       </c>
@@ -11903,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C38" s="12" t="s">
         <v>49</v>
       </c>
@@ -11936,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C39" s="8" t="s">
         <v>37</v>
       </c>
@@ -12030,7 +12024,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C40" s="8" t="s">
         <v>2</v>
       </c>
@@ -12121,7 +12115,7 @@
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
@@ -12217,7 +12211,7 @@
         <v>4.1480000000000006</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
         <v>52</v>
       </c>
@@ -12312,13 +12306,13 @@
         <v>4.1480000000000006</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
         <v>0</v>
       </c>
@@ -12370,7 +12364,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C46" s="8" t="s">
         <v>2</v>
       </c>
@@ -12461,7 +12455,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C47" s="9" t="s">
         <v>38</v>
       </c>
@@ -12557,7 +12551,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
         <v>57</v>
       </c>
@@ -12652,7 +12646,7 @@
         <v>10.879999999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
         <v>41</v>
       </c>
@@ -12688,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="12" t="s">
         <v>43</v>
@@ -12725,7 +12719,7 @@
       <c r="Y51" s="20"/>
       <c r="AA51" s="23"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="12" t="s">
         <v>44</v>
@@ -12762,7 +12756,7 @@
       <c r="Y52" s="20"/>
       <c r="AA52" s="23"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="12" t="s">
         <v>45</v>
@@ -12799,7 +12793,7 @@
       <c r="Y53" s="20"/>
       <c r="AA53" s="23"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C54" s="12" t="s">
         <v>46</v>
       </c>
@@ -12832,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
         <v>49</v>
       </c>
@@ -12865,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C56" s="8" t="s">
         <v>37</v>
       </c>
@@ -12959,7 +12953,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C57" s="8" t="s">
         <v>2</v>
       </c>
@@ -13050,7 +13044,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C58" s="9" t="s">
         <v>38</v>
       </c>
@@ -13146,7 +13140,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>58</v>
       </c>
@@ -13241,13 +13235,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="24" t="s">
         <v>0</v>
       </c>
@@ -13299,7 +13293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C63" s="8" t="s">
         <v>2</v>
       </c>
@@ -13390,7 +13384,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
         <v>38</v>
       </c>
@@ -13486,7 +13480,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
         <v>55</v>
       </c>
@@ -13581,7 +13575,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="24" t="s">
         <v>41</v>
       </c>
@@ -13623,7 +13617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="12" t="s">
         <v>43</v>
@@ -13654,7 +13648,7 @@
       <c r="Y68" s="20"/>
       <c r="AA68" s="23"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="12" t="s">
         <v>44</v>
@@ -13685,7 +13679,7 @@
       <c r="Y69" s="20"/>
       <c r="AA69" s="23"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="12" t="s">
         <v>45</v>
@@ -13716,7 +13710,7 @@
       <c r="Y70" s="20"/>
       <c r="AA70" s="23"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C71" s="12" t="s">
         <v>46</v>
       </c>
@@ -13757,7 +13751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C72" s="12" t="s">
         <v>49</v>
       </c>
@@ -13798,7 +13792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C73" s="8" t="s">
         <v>37</v>
       </c>
@@ -13892,7 +13886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13983,7 +13977,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C75" s="9" t="s">
         <v>38</v>
       </c>
@@ -14079,7 +14073,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
         <v>56</v>
       </c>
@@ -14174,13 +14168,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="24" t="s">
         <v>0</v>
       </c>
@@ -14224,7 +14218,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C81" s="8" t="s">
         <v>2</v>
       </c>
@@ -14315,7 +14309,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C82" s="9" t="s">
         <v>38</v>
       </c>
@@ -14411,7 +14405,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
         <v>60</v>
       </c>
@@ -14506,7 +14500,7 @@
         <v>7.7519999999999998</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" s="24" t="s">
         <v>41</v>
       </c>
@@ -14542,7 +14536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="12" t="s">
         <v>43</v>
@@ -14573,7 +14567,7 @@
       <c r="Y86" s="20"/>
       <c r="AA86" s="23"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
       <c r="C87" s="12" t="s">
         <v>44</v>
@@ -14614,7 +14608,7 @@
       <c r="Y87" s="20"/>
       <c r="AA87" s="23"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="12" t="s">
         <v>45</v>
@@ -14655,7 +14649,7 @@
       <c r="Y88" s="20"/>
       <c r="AA88" s="23"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C89" s="12" t="s">
         <v>46</v>
       </c>
@@ -14696,7 +14690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C90" s="12" t="s">
         <v>49</v>
       </c>
@@ -14737,7 +14731,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C91" s="8" t="s">
         <v>37</v>
       </c>
@@ -14831,7 +14825,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C92" s="8" t="s">
         <v>2</v>
       </c>
@@ -14922,7 +14916,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C93" s="9" t="s">
         <v>38</v>
       </c>
@@ -15018,7 +15012,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>61</v>
       </c>
@@ -15113,13 +15107,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="24" t="s">
         <v>0</v>
       </c>
@@ -15161,7 +15155,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C99" s="8" t="s">
         <v>2</v>
       </c>
@@ -15252,7 +15246,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C100" s="9" t="s">
         <v>38</v>
       </c>
@@ -15348,7 +15342,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
         <v>63</v>
       </c>
@@ -15443,7 +15437,7 @@
         <v>8.0240000000000009</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="24" t="s">
         <v>41</v>
       </c>
@@ -15489,7 +15483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="12" t="s">
         <v>43</v>
@@ -15530,7 +15524,7 @@
       </c>
       <c r="AA104" s="23"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="12" t="s">
         <v>44</v>
@@ -15569,7 +15563,7 @@
       </c>
       <c r="AA105" s="23"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="12" t="s">
         <v>45</v>
@@ -15606,7 +15600,7 @@
       </c>
       <c r="AA106" s="23"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C107" s="12" t="s">
         <v>46</v>
       </c>
@@ -15643,7 +15637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C108" s="12" t="s">
         <v>49</v>
       </c>
@@ -15684,7 +15678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C109" s="8" t="s">
         <v>37</v>
       </c>
@@ -15778,7 +15772,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C110" s="8" t="s">
         <v>2</v>
       </c>
@@ -15869,7 +15863,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C111" s="9" t="s">
         <v>38</v>
       </c>
@@ -15965,7 +15959,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
         <v>64</v>
       </c>
@@ -16077,7 +16071,7 @@
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16092,7 +16086,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16107,7 +16101,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16122,7 +16116,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9DDA97-A2A7-48C1-B02E-362063BEA302}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FC4424-2464-4708-AA95-98CD46626682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="19418" windowHeight="11018" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,19 @@
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
   <si>
     <t>Plan</t>
   </si>
@@ -247,7 +254,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,7 +701,7 @@
             <c:numRef>
               <c:f>Kosten!$E$17:$Y$17</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -867,7 +874,7 @@
             <c:numRef>
               <c:f>Kosten!$E$31:$Y$31</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -1040,7 +1047,7 @@
             <c:numRef>
               <c:f>Kosten!$E$48:$Y$48</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1213,7 +1220,7 @@
             <c:numRef>
               <c:f>Kosten!$E$65:$Y$65</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1386,7 +1393,7 @@
             <c:numRef>
               <c:f>Kosten!$E$83:$Y$83</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1559,7 +1566,7 @@
             <c:numRef>
               <c:f>Kosten!$E$101:$Y$101</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1901,7 +1908,7 @@
             <c:numRef>
               <c:f>Kosten!$E$25:$J$25</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -2181,7 +2188,7 @@
             <c:numRef>
               <c:f>Kosten!$E$42:$J$42</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -2196,10 +2203,10 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,7 +2247,7 @@
             <c:numRef>
               <c:f>Kosten!$E$59:$J$59</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2299,7 +2306,7 @@
             <c:numRef>
               <c:f>Kosten!$E$76:$J$76</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2358,7 +2365,7 @@
             <c:numRef>
               <c:f>Kosten!$E$94:$J$94</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2417,7 +2424,7 @@
             <c:numRef>
               <c:f>Kosten!$E$112:$J$112</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2482,7 +2489,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2542,7 +2549,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2606,7 +2613,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2919,7 +2926,7 @@
             <c:numRef>
               <c:f>Kosten!$E$17:$Y$17</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -3091,7 +3098,7 @@
             <c:numRef>
               <c:f>Kosten!$E$31:$Y$31</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -3263,7 +3270,7 @@
             <c:numRef>
               <c:f>Kosten!$E$48:$Y$48</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3435,7 +3442,7 @@
             <c:numRef>
               <c:f>Kosten!$E$65:$Y$65</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3607,7 +3614,7 @@
             <c:numRef>
               <c:f>Kosten!$E$83:$Y$83</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3779,7 +3786,7 @@
             <c:numRef>
               <c:f>Kosten!$E$101:$Y$101</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4122,7 +4129,7 @@
             <c:numRef>
               <c:f>Kosten!$E$25:$O$25</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -4418,7 +4425,7 @@
             <c:numRef>
               <c:f>Kosten!$E$42:$O$42</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -4433,25 +4440,25 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4492,7 +4499,7 @@
             <c:numRef>
               <c:f>Kosten!$E$59:$O$59</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4565,7 +4572,7 @@
             <c:numRef>
               <c:f>Kosten!$E$76:$O$76</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4638,7 +4645,7 @@
             <c:numRef>
               <c:f>Kosten!$E$94:$O$94</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4711,7 +4718,7 @@
             <c:numRef>
               <c:f>Kosten!$E$112:$O$112</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5221,7 +5228,7 @@
             <c:numRef>
               <c:f>Kosten!$E$17:$Y$17</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -5393,7 +5400,7 @@
             <c:numRef>
               <c:f>Kosten!$E$31:$Y$31</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -5565,7 +5572,7 @@
             <c:numRef>
               <c:f>Kosten!$E$48:$Y$48</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5737,7 +5744,7 @@
             <c:numRef>
               <c:f>Kosten!$E$65:$Y$65</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5909,7 +5916,7 @@
             <c:numRef>
               <c:f>Kosten!$E$83:$Y$83</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6081,7 +6088,7 @@
             <c:numRef>
               <c:f>Kosten!$E$101:$Y$101</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6424,7 +6431,7 @@
             <c:numRef>
               <c:f>Kosten!$E$25:$U$25</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -6738,7 +6745,7 @@
             <c:numRef>
               <c:f>Kosten!$E$42:$U$42</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -6753,43 +6760,43 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6830,7 +6837,7 @@
             <c:numRef>
               <c:f>Kosten!$E$59:$U$59</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6921,7 +6928,7 @@
             <c:numRef>
               <c:f>Kosten!$E$76:$U$76</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7012,7 +7019,7 @@
             <c:numRef>
               <c:f>Kosten!$E$94:$U$94</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7103,7 +7110,7 @@
             <c:numRef>
               <c:f>Kosten!$E$112:$U$112</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7631,7 +7638,7 @@
             <c:numRef>
               <c:f>Kosten!$E$17:$Y$17</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -7803,7 +7810,7 @@
             <c:numRef>
               <c:f>Kosten!$E$31:$Y$31</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -7975,7 +7982,7 @@
             <c:numRef>
               <c:f>Kosten!$E$48:$Y$48</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8147,7 +8154,7 @@
             <c:numRef>
               <c:f>Kosten!$E$65:$Y$65</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8319,7 +8326,7 @@
             <c:numRef>
               <c:f>Kosten!$E$83:$Y$83</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8491,7 +8498,7 @@
             <c:numRef>
               <c:f>Kosten!$E$101:$Y$101</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8834,7 +8841,7 @@
             <c:numRef>
               <c:f>Kosten!$E$25:$Y$25</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.23799999999999999</c:v>
@@ -9160,7 +9167,7 @@
             <c:numRef>
               <c:f>Kosten!$E$42:$Y$42</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.13600000000000001</c:v>
@@ -9175,55 +9182,55 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1480000000000006</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9264,7 +9271,7 @@
             <c:numRef>
               <c:f>Kosten!$E$59:$Y$59</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9367,7 +9374,7 @@
             <c:numRef>
               <c:f>Kosten!$E$76:$Y$76</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9470,7 +9477,7 @@
             <c:numRef>
               <c:f>Kosten!$E$94:$Y$94</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -9573,7 +9580,7 @@
             <c:numRef>
               <c:f>Kosten!$E$112:$Y$112</c:f>
               <c:numCache>
-                <c:formatCode>#\ ##0.0</c:formatCode>
+                <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -10893,33 +10900,33 @@
   <dimension ref="B2:AD112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
+      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="1" customWidth="1"/>
-    <col min="5" max="25" width="8.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.6328125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.08984375" style="1"/>
+    <col min="2" max="2" width="15.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.06640625" style="1" customWidth="1"/>
+    <col min="5" max="25" width="8.59765625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.46484375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.59765625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10927,7 +10934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10935,7 +10942,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="13">
+    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
@@ -10944,10 +10951,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="2:27" ht="13">
+    <row r="9" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10958,7 +10965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" ht="13">
+    <row r="10" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
@@ -11027,7 +11034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" ht="13">
+    <row r="11" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -11058,7 +11065,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" ht="13">
+    <row r="12" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -11076,13 +11083,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" ht="13">
+    <row r="13" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" ht="13">
+    <row r="14" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -11158,7 +11165,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="13">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C15" s="19" t="s">
         <v>2</v>
       </c>
@@ -11249,7 +11256,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" ht="13">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11345,7 +11352,7 @@
         <v>14.636999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:30" ht="13">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B17" s="12" t="s">
         <v>47</v>
       </c>
@@ -11440,10 +11447,10 @@
         <v>14.636999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
       <c r="AA18" s="16"/>
     </row>
-    <row r="19" spans="2:30" ht="13">
+    <row r="19" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
@@ -11507,7 +11514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:30" ht="13">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
@@ -11544,7 +11551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:30" ht="13">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C21" s="9" t="s">
         <v>69</v>
       </c>
@@ -11585,7 +11592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:30" ht="13">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C22" s="19" t="s">
         <v>37</v>
       </c>
@@ -11674,7 +11681,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:30" ht="13">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C23" s="19" t="s">
         <v>2</v>
       </c>
@@ -11765,7 +11772,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:30" ht="13">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
@@ -11861,7 +11868,7 @@
         <v>7.020999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:30" ht="13">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25" s="12" t="s">
         <v>48</v>
       </c>
@@ -11956,14 +11963,14 @@
         <v>7.020999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="13">
+    <row r="27" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="3"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="2:30" ht="13">
+    <row r="28" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
@@ -12011,7 +12018,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:30" ht="13">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -12102,7 +12109,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:30" ht="13">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
@@ -12198,7 +12205,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:30" ht="13">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B31" s="12" t="s">
         <v>50</v>
       </c>
@@ -12293,7 +12300,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="13">
+    <row r="33" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12339,7 +12346,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="13">
+    <row r="34" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
         <v>64</v>
@@ -12374,7 +12381,7 @@
       <c r="Y34" s="15"/>
       <c r="AA34" s="17"/>
     </row>
-    <row r="35" spans="2:27" ht="13">
+    <row r="35" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="9" t="s">
         <v>65</v>
@@ -12411,7 +12418,7 @@
       <c r="Y35" s="15"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="2:27" ht="13">
+    <row r="36" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
         <v>67</v>
@@ -12425,7 +12432,9 @@
         <v>4</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="I36" s="15">
+        <v>5</v>
+      </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -12444,7 +12453,7 @@
       <c r="Y36" s="15"/>
       <c r="AA36" s="17"/>
     </row>
-    <row r="37" spans="2:27" ht="13">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
         <v>40</v>
@@ -12475,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="13">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C38" s="9" t="s">
         <v>49</v>
       </c>
@@ -12508,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" ht="13">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C39" s="25" t="s">
         <v>37</v>
       </c>
@@ -12531,7 +12540,7 @@
       </c>
       <c r="I39" s="27">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J39" s="27">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
@@ -12599,10 +12608,10 @@
       </c>
       <c r="AA39" s="27">
         <f t="shared" si="76"/>
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:27" ht="13">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C40" s="25" t="s">
         <v>2</v>
       </c>
@@ -12625,75 +12634,75 @@
       </c>
       <c r="I40" s="26">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J40" s="26">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="K40" s="26">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="M40" s="26">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N40" s="26">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O40" s="26">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P40" s="26">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q40" s="26">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="R40" s="26">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="S40" s="26">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="T40" s="26">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="U40" s="26">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="V40" s="26">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="W40" s="26">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" ht="13">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
@@ -12718,7 +12727,7 @@
       </c>
       <c r="I41" s="8">
         <f t="shared" si="116"/>
-        <v>0.61199999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="116"/>
@@ -12786,10 +12795,10 @@
       </c>
       <c r="AA41" s="8">
         <f>SUM(E41:Y41)</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="13">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B42" s="12" t="s">
         <v>51</v>
       </c>
@@ -12817,80 +12826,80 @@
       </c>
       <c r="I42" s="8">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="J42" s="8">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>4.1480000000000006</v>
+        <v>4.4880000000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="13">
+    <row r="44" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C44" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" ht="13">
+    <row r="45" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -12934,7 +12943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:27" ht="13">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
@@ -13025,7 +13034,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" ht="13">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
@@ -13121,7 +13130,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:27" ht="13">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B48" s="12" t="s">
         <v>55</v>
       </c>
@@ -13216,7 +13225,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:27" ht="13">
+    <row r="50" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B50" s="4" t="s">
         <v>41</v>
       </c>
@@ -13252,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" ht="13">
+    <row r="51" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B51" s="3"/>
       <c r="C51" s="9" t="s">
         <v>43</v>
@@ -13289,7 +13298,7 @@
       <c r="Y51" s="15"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="2:27" ht="13">
+    <row r="52" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B52" s="3"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -13326,7 +13335,7 @@
       <c r="Y52" s="15"/>
       <c r="AA52" s="17"/>
     </row>
-    <row r="53" spans="2:27" ht="13">
+    <row r="53" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -13363,7 +13372,7 @@
       <c r="Y53" s="15"/>
       <c r="AA53" s="17"/>
     </row>
-    <row r="54" spans="2:27" ht="13">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C54" s="9" t="s">
         <v>46</v>
       </c>
@@ -13396,7 +13405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" ht="13">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C55" s="9" t="s">
         <v>49</v>
       </c>
@@ -13429,7 +13438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" ht="13">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C56" s="29" t="s">
         <v>37</v>
       </c>
@@ -13523,7 +13532,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" ht="13">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
@@ -13614,7 +13623,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" ht="13">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C58" s="6" t="s">
         <v>38</v>
       </c>
@@ -13710,7 +13719,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" ht="13">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B59" s="12" t="s">
         <v>56</v>
       </c>
@@ -13805,13 +13814,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" ht="13">
+    <row r="61" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" ht="13">
+    <row r="62" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
@@ -13863,7 +13872,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="63" spans="2:27" ht="13">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C63" s="36" t="s">
         <v>2</v>
       </c>
@@ -13954,7 +13963,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" ht="13">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C64" s="6" t="s">
         <v>38</v>
       </c>
@@ -14050,7 +14059,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="65" spans="2:27" ht="13">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B65" s="12" t="s">
         <v>53</v>
       </c>
@@ -14145,7 +14154,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="67" spans="2:27" ht="13">
+    <row r="67" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B67" s="4" t="s">
         <v>41</v>
       </c>
@@ -14187,7 +14196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" ht="13">
+    <row r="68" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B68" s="3"/>
       <c r="C68" s="9" t="s">
         <v>43</v>
@@ -14218,7 +14227,7 @@
       <c r="Y68" s="15"/>
       <c r="AA68" s="17"/>
     </row>
-    <row r="69" spans="2:27" ht="13">
+    <row r="69" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B69" s="3"/>
       <c r="C69" s="9" t="s">
         <v>44</v>
@@ -14249,7 +14258,7 @@
       <c r="Y69" s="15"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="70" spans="2:27" ht="13">
+    <row r="70" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B70" s="3"/>
       <c r="C70" s="9" t="s">
         <v>45</v>
@@ -14280,7 +14289,7 @@
       <c r="Y70" s="15"/>
       <c r="AA70" s="17"/>
     </row>
-    <row r="71" spans="2:27" ht="13">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C71" s="9" t="s">
         <v>46</v>
       </c>
@@ -14321,7 +14330,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" ht="13">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -14362,7 +14371,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" ht="13">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C73" s="36" t="s">
         <v>37</v>
       </c>
@@ -14456,7 +14465,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" ht="13">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C74" s="36" t="s">
         <v>2</v>
       </c>
@@ -14547,7 +14556,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" ht="13">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C75" s="6" t="s">
         <v>38</v>
       </c>
@@ -14643,7 +14652,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" ht="13">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B76" s="12" t="s">
         <v>54</v>
       </c>
@@ -14738,13 +14747,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" ht="13">
+    <row r="79" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" ht="13">
+    <row r="80" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B80" s="4" t="s">
         <v>0</v>
       </c>
@@ -14788,7 +14797,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="2:27" ht="13">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C81" s="41" t="s">
         <v>2</v>
       </c>
@@ -14879,7 +14888,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" ht="13">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C82" s="6" t="s">
         <v>38</v>
       </c>
@@ -14975,7 +14984,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="83" spans="2:27" ht="13">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B83" s="12" t="s">
         <v>58</v>
       </c>
@@ -15070,7 +15079,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="85" spans="2:27" ht="13">
+    <row r="85" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B85" s="4" t="s">
         <v>41</v>
       </c>
@@ -15106,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" ht="13">
+    <row r="86" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B86" s="3"/>
       <c r="C86" s="9" t="s">
         <v>43</v>
@@ -15137,7 +15146,7 @@
       <c r="Y86" s="15"/>
       <c r="AA86" s="17"/>
     </row>
-    <row r="87" spans="2:27" ht="13">
+    <row r="87" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B87" s="3"/>
       <c r="C87" s="9" t="s">
         <v>44</v>
@@ -15178,7 +15187,7 @@
       <c r="Y87" s="15"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="2:27" ht="13">
+    <row r="88" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B88" s="3"/>
       <c r="C88" s="9" t="s">
         <v>45</v>
@@ -15219,7 +15228,7 @@
       <c r="Y88" s="15"/>
       <c r="AA88" s="17"/>
     </row>
-    <row r="89" spans="2:27" ht="13">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C89" s="9" t="s">
         <v>46</v>
       </c>
@@ -15260,7 +15269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" ht="13">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C90" s="9" t="s">
         <v>49</v>
       </c>
@@ -15301,7 +15310,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" ht="13">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C91" s="41" t="s">
         <v>37</v>
       </c>
@@ -15395,7 +15404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" ht="13">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C92" s="41" t="s">
         <v>2</v>
       </c>
@@ -15486,7 +15495,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" ht="13">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C93" s="6" t="s">
         <v>38</v>
       </c>
@@ -15582,7 +15591,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" ht="13">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B94" s="12" t="s">
         <v>59</v>
       </c>
@@ -15677,13 +15686,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="13">
+    <row r="97" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C97" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" ht="13">
+    <row r="98" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B98" s="4" t="s">
         <v>0</v>
       </c>
@@ -15725,7 +15734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="2:27" ht="13">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C99" s="46" t="s">
         <v>2</v>
       </c>
@@ -15816,7 +15825,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" ht="13">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C100" s="6" t="s">
         <v>38</v>
       </c>
@@ -15912,7 +15921,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="101" spans="2:27" ht="13">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B101" s="12" t="s">
         <v>60</v>
       </c>
@@ -16007,7 +16016,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="13">
+    <row r="103" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B103" s="4" t="s">
         <v>41</v>
       </c>
@@ -16053,7 +16062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" ht="13">
+    <row r="104" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B104" s="3"/>
       <c r="C104" s="9" t="s">
         <v>43</v>
@@ -16094,7 +16103,7 @@
       </c>
       <c r="AA104" s="17"/>
     </row>
-    <row r="105" spans="2:27" ht="13">
+    <row r="105" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B105" s="3"/>
       <c r="C105" s="9" t="s">
         <v>44</v>
@@ -16133,7 +16142,7 @@
       </c>
       <c r="AA105" s="17"/>
     </row>
-    <row r="106" spans="2:27" ht="13">
+    <row r="106" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B106" s="3"/>
       <c r="C106" s="9" t="s">
         <v>45</v>
@@ -16170,7 +16179,7 @@
       </c>
       <c r="AA106" s="17"/>
     </row>
-    <row r="107" spans="2:27" ht="13">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C107" s="9" t="s">
         <v>46</v>
       </c>
@@ -16207,7 +16216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" ht="13">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C108" s="9" t="s">
         <v>49</v>
       </c>
@@ -16248,7 +16257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" ht="13">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C109" s="46" t="s">
         <v>37</v>
       </c>
@@ -16342,7 +16351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" ht="13">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C110" s="46" t="s">
         <v>2</v>
       </c>
@@ -16433,7 +16442,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" ht="13">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.35">
       <c r="C111" s="6" t="s">
         <v>38</v>
       </c>
@@ -16529,7 +16538,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" ht="13">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B112" s="12" t="s">
         <v>61</v>
       </c>
@@ -16641,7 +16650,7 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16656,7 +16665,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16671,7 +16680,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16686,7 +16695,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FC4424-2464-4708-AA95-98CD46626682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE9318-16FC-0144-87DC-5B9DAB00CF28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="19418" windowHeight="11018" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -254,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2203,10 +2204,10 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4440,25 +4441,25 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6760,43 +6761,43 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9182,55 +9183,55 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4880000000000004</c:v>
+                  <c:v>4.8280000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10903,30 +10904,30 @@
       <pane xSplit="4" ySplit="10" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.06640625" style="1" customWidth="1"/>
-    <col min="5" max="25" width="8.59765625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.46484375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.59765625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:27">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:27">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10942,7 +10943,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:27">
       <c r="C7" s="1" t="s">
         <v>62</v>
       </c>
@@ -10951,10 +10952,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:27">
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:27">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10965,7 +10966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:27" s="3" customFormat="1">
       <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:27" s="3" customFormat="1">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -11065,7 +11066,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:27" s="3" customFormat="1">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -11083,13 +11084,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:27">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:27">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:27">
       <c r="C15" s="19" t="s">
         <v>2</v>
       </c>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:27">
       <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11352,7 +11353,7 @@
         <v>14.636999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:30">
       <c r="B17" s="12" t="s">
         <v>47</v>
       </c>
@@ -11447,10 +11448,10 @@
         <v>14.636999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:30">
       <c r="AA18" s="16"/>
     </row>
-    <row r="19" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:30">
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
@@ -11514,7 +11515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:30">
       <c r="C20" s="9" t="s">
         <v>65</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:30">
       <c r="C21" s="9" t="s">
         <v>69</v>
       </c>
@@ -11592,7 +11593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:30">
       <c r="C22" s="19" t="s">
         <v>37</v>
       </c>
@@ -11681,7 +11682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:30">
       <c r="C23" s="19" t="s">
         <v>2</v>
       </c>
@@ -11772,7 +11773,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:30">
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
@@ -11868,7 +11869,7 @@
         <v>7.020999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:30">
       <c r="B25" s="12" t="s">
         <v>48</v>
       </c>
@@ -11963,14 +11964,14 @@
         <v>7.020999999999999</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:30">
       <c r="C27" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="3"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="2:30" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:30">
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
@@ -12018,7 +12019,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:30">
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -12109,7 +12110,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:30">
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
@@ -12205,7 +12206,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:30">
       <c r="B31" s="12" t="s">
         <v>50</v>
       </c>
@@ -12300,7 +12301,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:27">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12346,7 +12347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:27">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
         <v>64</v>
@@ -12362,7 +12363,9 @@
       <c r="H34" s="15">
         <v>15</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="15">
+        <v>5</v>
+      </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
@@ -12381,7 +12384,7 @@
       <c r="Y34" s="15"/>
       <c r="AA34" s="17"/>
     </row>
-    <row r="35" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:27">
       <c r="B35" s="3"/>
       <c r="C35" s="9" t="s">
         <v>65</v>
@@ -12418,7 +12421,7 @@
       <c r="Y35" s="15"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:27">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
         <v>67</v>
@@ -12453,7 +12456,7 @@
       <c r="Y36" s="15"/>
       <c r="AA36" s="17"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:27">
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
         <v>40</v>
@@ -12484,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:27">
       <c r="C38" s="9" t="s">
         <v>49</v>
       </c>
@@ -12517,7 +12520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:27">
       <c r="C39" s="25" t="s">
         <v>37</v>
       </c>
@@ -12540,7 +12543,7 @@
       </c>
       <c r="I39" s="27">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J39" s="27">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
@@ -12608,10 +12611,10 @@
       </c>
       <c r="AA39" s="27">
         <f t="shared" si="76"/>
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:27">
       <c r="C40" s="25" t="s">
         <v>2</v>
       </c>
@@ -12634,75 +12637,75 @@
       </c>
       <c r="I40" s="26">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J40" s="26">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="K40" s="26">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M40" s="26">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N40" s="26">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="O40" s="26">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="P40" s="26">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q40" s="26">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R40" s="26">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="S40" s="26">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="T40" s="26">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="U40" s="26">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="V40" s="26">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="W40" s="26">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:27">
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
@@ -12727,7 +12730,7 @@
       </c>
       <c r="I41" s="8">
         <f t="shared" si="116"/>
-        <v>0.95199999999999996</v>
+        <v>1.292</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="116"/>
@@ -12795,10 +12798,10 @@
       </c>
       <c r="AA41" s="8">
         <f>SUM(E41:Y41)</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:27">
       <c r="B42" s="12" t="s">
         <v>51</v>
       </c>
@@ -12826,80 +12829,80 @@
       </c>
       <c r="I42" s="8">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="J42" s="8">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>4.4880000000000004</v>
+        <v>4.8280000000000003</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:27">
       <c r="C44" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:27">
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -12943,7 +12946,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:27">
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
@@ -13034,7 +13037,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:27">
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
@@ -13130,7 +13133,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:27">
       <c r="B48" s="12" t="s">
         <v>55</v>
       </c>
@@ -13225,7 +13228,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:27">
       <c r="B50" s="4" t="s">
         <v>41</v>
       </c>
@@ -13261,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:27">
       <c r="B51" s="3"/>
       <c r="C51" s="9" t="s">
         <v>43</v>
@@ -13298,7 +13301,7 @@
       <c r="Y51" s="15"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:27">
       <c r="B52" s="3"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -13335,7 +13338,7 @@
       <c r="Y52" s="15"/>
       <c r="AA52" s="17"/>
     </row>
-    <row r="53" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:27">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -13372,7 +13375,7 @@
       <c r="Y53" s="15"/>
       <c r="AA53" s="17"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:27">
       <c r="C54" s="9" t="s">
         <v>46</v>
       </c>
@@ -13405,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:27">
       <c r="C55" s="9" t="s">
         <v>49</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:27">
       <c r="C56" s="29" t="s">
         <v>37</v>
       </c>
@@ -13532,7 +13535,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:27">
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
@@ -13623,7 +13626,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:27">
       <c r="C58" s="6" t="s">
         <v>38</v>
       </c>
@@ -13719,7 +13722,7 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:27">
       <c r="B59" s="12" t="s">
         <v>56</v>
       </c>
@@ -13814,13 +13817,13 @@
         <v>4.3520000000000003</v>
       </c>
     </row>
-    <row r="61" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:27">
       <c r="C61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:27">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
@@ -13872,7 +13875,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:27">
       <c r="C63" s="36" t="s">
         <v>2</v>
       </c>
@@ -13963,7 +13966,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:27">
       <c r="C64" s="6" t="s">
         <v>38</v>
       </c>
@@ -14059,7 +14062,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:27">
       <c r="B65" s="12" t="s">
         <v>53</v>
       </c>
@@ -14154,7 +14157,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="67" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:27">
       <c r="B67" s="4" t="s">
         <v>41</v>
       </c>
@@ -14196,7 +14199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:27">
       <c r="B68" s="3"/>
       <c r="C68" s="9" t="s">
         <v>43</v>
@@ -14227,7 +14230,7 @@
       <c r="Y68" s="15"/>
       <c r="AA68" s="17"/>
     </row>
-    <row r="69" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:27">
       <c r="B69" s="3"/>
       <c r="C69" s="9" t="s">
         <v>44</v>
@@ -14258,7 +14261,7 @@
       <c r="Y69" s="15"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="70" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:27">
       <c r="B70" s="3"/>
       <c r="C70" s="9" t="s">
         <v>45</v>
@@ -14289,7 +14292,7 @@
       <c r="Y70" s="15"/>
       <c r="AA70" s="17"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:27">
       <c r="C71" s="9" t="s">
         <v>46</v>
       </c>
@@ -14330,7 +14333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:27">
       <c r="C72" s="9" t="s">
         <v>49</v>
       </c>
@@ -14371,7 +14374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:27">
       <c r="C73" s="36" t="s">
         <v>37</v>
       </c>
@@ -14465,7 +14468,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:27">
       <c r="C74" s="36" t="s">
         <v>2</v>
       </c>
@@ -14556,7 +14559,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:27">
       <c r="C75" s="6" t="s">
         <v>38</v>
       </c>
@@ -14652,7 +14655,7 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:27">
       <c r="B76" s="12" t="s">
         <v>54</v>
       </c>
@@ -14747,13 +14750,13 @@
         <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="79" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:27">
       <c r="C79" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:27">
       <c r="B80" s="4" t="s">
         <v>0</v>
       </c>
@@ -14797,7 +14800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:27">
       <c r="C81" s="41" t="s">
         <v>2</v>
       </c>
@@ -14888,7 +14891,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:27">
       <c r="C82" s="6" t="s">
         <v>38</v>
       </c>
@@ -14984,7 +14987,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:27">
       <c r="B83" s="12" t="s">
         <v>58</v>
       </c>
@@ -15079,7 +15082,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="85" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:27">
       <c r="B85" s="4" t="s">
         <v>41</v>
       </c>
@@ -15115,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:27">
       <c r="B86" s="3"/>
       <c r="C86" s="9" t="s">
         <v>43</v>
@@ -15146,7 +15149,7 @@
       <c r="Y86" s="15"/>
       <c r="AA86" s="17"/>
     </row>
-    <row r="87" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:27">
       <c r="B87" s="3"/>
       <c r="C87" s="9" t="s">
         <v>44</v>
@@ -15187,7 +15190,7 @@
       <c r="Y87" s="15"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:27">
       <c r="B88" s="3"/>
       <c r="C88" s="9" t="s">
         <v>45</v>
@@ -15228,7 +15231,7 @@
       <c r="Y88" s="15"/>
       <c r="AA88" s="17"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:27">
       <c r="C89" s="9" t="s">
         <v>46</v>
       </c>
@@ -15269,7 +15272,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:27">
       <c r="C90" s="9" t="s">
         <v>49</v>
       </c>
@@ -15310,7 +15313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:27">
       <c r="C91" s="41" t="s">
         <v>37</v>
       </c>
@@ -15404,7 +15407,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:27">
       <c r="C92" s="41" t="s">
         <v>2</v>
       </c>
@@ -15495,7 +15498,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:27">
       <c r="C93" s="6" t="s">
         <v>38</v>
       </c>
@@ -15591,7 +15594,7 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:27">
       <c r="B94" s="12" t="s">
         <v>59</v>
       </c>
@@ -15686,13 +15689,13 @@
         <v>7.4120000000000008</v>
       </c>
     </row>
-    <row r="97" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:27">
       <c r="C97" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:27">
       <c r="B98" s="4" t="s">
         <v>0</v>
       </c>
@@ -15734,7 +15737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:27">
       <c r="C99" s="46" t="s">
         <v>2</v>
       </c>
@@ -15825,7 +15828,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:27">
       <c r="C100" s="6" t="s">
         <v>38</v>
       </c>
@@ -15921,7 +15924,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:27">
       <c r="B101" s="12" t="s">
         <v>60</v>
       </c>
@@ -16016,7 +16019,7 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:27">
       <c r="B103" s="4" t="s">
         <v>41</v>
       </c>
@@ -16062,7 +16065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:27">
       <c r="B104" s="3"/>
       <c r="C104" s="9" t="s">
         <v>43</v>
@@ -16103,7 +16106,7 @@
       </c>
       <c r="AA104" s="17"/>
     </row>
-    <row r="105" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:27">
       <c r="B105" s="3"/>
       <c r="C105" s="9" t="s">
         <v>44</v>
@@ -16142,7 +16145,7 @@
       </c>
       <c r="AA105" s="17"/>
     </row>
-    <row r="106" spans="2:27" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:27">
       <c r="B106" s="3"/>
       <c r="C106" s="9" t="s">
         <v>45</v>
@@ -16179,7 +16182,7 @@
       </c>
       <c r="AA106" s="17"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:27">
       <c r="C107" s="9" t="s">
         <v>46</v>
       </c>
@@ -16216,7 +16219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:27">
       <c r="C108" s="9" t="s">
         <v>49</v>
       </c>
@@ -16257,7 +16260,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:27">
       <c r="C109" s="46" t="s">
         <v>37</v>
       </c>
@@ -16351,7 +16354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:27">
       <c r="C110" s="46" t="s">
         <v>2</v>
       </c>
@@ -16442,7 +16445,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:27">
       <c r="C111" s="6" t="s">
         <v>38</v>
       </c>
@@ -16538,7 +16541,7 @@
         <v>7.1400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:27">
       <c r="B112" s="12" t="s">
         <v>61</v>
       </c>
@@ -16650,7 +16653,7 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16665,7 +16668,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16680,7 +16683,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16695,7 +16698,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFE9318-16FC-0144-87DC-5B9DAB00CF28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="114_{60DFA482-C0C2-B248-9939-8AFB35E06AC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{36C500B8-66E0-984C-829A-528EB725D720}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, status 1</a:t>
+              <a:t>Team-x Personalkosten, Status 1</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -2780,7 +2780,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, status 2</a:t>
+              <a:t>Team-x Personalkosten, Status 2</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -5082,7 +5082,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, status 3</a:t>
+              <a:t>Team-x Personalkosten, Status 3</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -6880,16 +6880,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6971,16 +6971,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3040000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7120000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7068,10 +7068,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7162,7 +7162,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.748</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7492,7 +7492,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, status 4</a:t>
+              <a:t>Team-x Personalkosten, Status 4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -9314,28 +9314,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6319999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2639999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3520000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9417,28 +9417,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.496</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3040000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7120000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7120000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7120000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.7120000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7120000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9526,22 +9526,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0880000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0120000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.7120000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.4120000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.4120000000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9632,19 +9632,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.748</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3120000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.6720000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.1400000000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10900,11 +10900,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AD112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="84" zoomScaleNormal="29" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomRight" activeCell="U104" sqref="U104:Y108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -13285,15 +13285,9 @@
       <c r="O51" s="15"/>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
-      <c r="R51" s="15">
-        <v>8</v>
-      </c>
-      <c r="S51" s="15">
-        <v>8</v>
-      </c>
-      <c r="T51" s="15">
-        <v>8</v>
-      </c>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
       <c r="U51" s="15"/>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
@@ -13322,15 +13316,9 @@
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
-      <c r="R52" s="15">
-        <v>8</v>
-      </c>
-      <c r="S52" s="15">
-        <v>8</v>
-      </c>
-      <c r="T52" s="15">
-        <v>4</v>
-      </c>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="15"/>
       <c r="U52" s="15"/>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
@@ -13359,15 +13347,9 @@
       <c r="O53" s="15"/>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
-      <c r="R53" s="15">
-        <v>8</v>
-      </c>
-      <c r="S53" s="15">
-        <v>8</v>
-      </c>
-      <c r="T53" s="15">
-        <v>4</v>
-      </c>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
       <c r="U53" s="15"/>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
@@ -13500,15 +13482,15 @@
       </c>
       <c r="R56" s="33">
         <f t="shared" ref="R56" si="187">SUM(R50:R55)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S56" s="33">
         <f t="shared" ref="S56" si="188">SUM(S50:S55)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="T56" s="33">
         <f t="shared" ref="T56" si="189">SUM(T50:T55)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U56" s="33">
         <f t="shared" ref="U56" si="190">SUM(U50:U55)</f>
@@ -13532,7 +13514,7 @@
       </c>
       <c r="AA56" s="33">
         <f t="shared" si="174"/>
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:27">
@@ -13594,35 +13576,35 @@
       </c>
       <c r="R57" s="32">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S57" s="32">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="T57" s="32">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="U57" s="32">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="V57" s="32">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="W57" s="32">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="X57" s="32">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="32">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -13687,15 +13669,15 @@
       </c>
       <c r="R58" s="8">
         <f t="shared" si="214"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="S58" s="8">
         <f t="shared" si="214"/>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="T58" s="8">
         <f t="shared" si="214"/>
-        <v>1.0880000000000001</v>
+        <v>0</v>
       </c>
       <c r="U58" s="8">
         <f t="shared" si="214"/>
@@ -13719,7 +13701,7 @@
       </c>
       <c r="AA58" s="8">
         <f>SUM(E58:Y58)</f>
-        <v>4.3520000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:27">
@@ -13786,35 +13768,35 @@
       </c>
       <c r="R59" s="8">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>1.6319999999999999</v>
+        <v>0</v>
       </c>
       <c r="S59" s="8">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>3.2639999999999998</v>
+        <v>0</v>
       </c>
       <c r="T59" s="8">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>4.3520000000000003</v>
+        <v>0</v>
       </c>
       <c r="U59" s="8">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>4.3520000000000003</v>
+        <v>0</v>
       </c>
       <c r="V59" s="8">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>4.3520000000000003</v>
+        <v>0</v>
       </c>
       <c r="W59" s="8">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>4.3520000000000003</v>
+        <v>0</v>
       </c>
       <c r="X59" s="8">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>4.3520000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="8">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>4.3520000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:27">
@@ -14180,15 +14162,9 @@
       <c r="O67" s="15"/>
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
-      <c r="R67" s="15">
-        <v>5</v>
-      </c>
-      <c r="S67" s="15">
-        <v>5</v>
-      </c>
-      <c r="T67" s="15">
-        <v>6</v>
-      </c>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
       <c r="U67" s="15"/>
       <c r="V67" s="15"/>
       <c r="W67" s="15"/>
@@ -14196,7 +14172,7 @@
       <c r="Y67" s="15"/>
       <c r="AA67" s="17">
         <f>SUM(E67:Y67)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:27">
@@ -14312,25 +14288,17 @@
       <c r="O71" s="15"/>
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
-      <c r="R71" s="15">
-        <v>9</v>
-      </c>
-      <c r="S71" s="15">
-        <v>8</v>
-      </c>
-      <c r="T71" s="15">
-        <v>12</v>
-      </c>
-      <c r="U71" s="15">
-        <v>2</v>
-      </c>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
       <c r="V71" s="15"/>
       <c r="W71" s="15"/>
       <c r="X71" s="15"/>
       <c r="Y71" s="15"/>
       <c r="AA71" s="17">
         <f t="shared" ref="AA71:AA73" si="272">SUM(E71:Y71)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:27">
@@ -14353,25 +14321,17 @@
       <c r="O72" s="15"/>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
-      <c r="R72" s="15">
-        <v>8</v>
-      </c>
-      <c r="S72" s="15">
-        <v>9</v>
-      </c>
-      <c r="T72" s="15">
-        <v>16</v>
-      </c>
-      <c r="U72" s="15">
-        <v>4</v>
-      </c>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
       <c r="X72" s="15"/>
       <c r="Y72" s="15"/>
       <c r="AA72" s="17">
         <f t="shared" si="272"/>
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:27">
@@ -14433,19 +14393,19 @@
       </c>
       <c r="R73" s="38">
         <f t="shared" ref="R73" si="285">SUM(R67:R72)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S73" s="38">
         <f t="shared" ref="S73" si="286">SUM(S67:S72)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="T73" s="38">
         <f t="shared" ref="T73" si="287">SUM(T67:T72)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U73" s="38">
         <f t="shared" ref="U73" si="288">SUM(U67:U72)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V73" s="38">
         <f t="shared" ref="V73" si="289">SUM(V67:V72)</f>
@@ -14465,7 +14425,7 @@
       </c>
       <c r="AA73" s="38">
         <f t="shared" si="272"/>
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:27">
@@ -14527,35 +14487,35 @@
       </c>
       <c r="R74" s="37">
         <f t="shared" ref="R74" si="304">Q74+R73</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S74" s="37">
         <f t="shared" ref="S74" si="305">R74+S73</f>
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="T74" s="37">
         <f t="shared" ref="T74" si="306">S74+T73</f>
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="U74" s="37">
         <f t="shared" ref="U74" si="307">T74+U73</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="V74" s="37">
         <f t="shared" ref="V74" si="308">U74+V73</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="W74" s="37">
         <f t="shared" ref="W74" si="309">V74+W73</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X74" s="37">
         <f t="shared" ref="X74" si="310">W74+X73</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="Y74" s="37">
         <f t="shared" ref="Y74" si="311">X74+Y73</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14620,19 +14580,19 @@
       </c>
       <c r="R75" s="8">
         <f t="shared" si="312"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="S75" s="8">
         <f t="shared" si="312"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="T75" s="8">
         <f t="shared" si="312"/>
-        <v>2.3119999999999998</v>
+        <v>0</v>
       </c>
       <c r="U75" s="8">
         <f t="shared" si="312"/>
-        <v>0.40799999999999997</v>
+        <v>0</v>
       </c>
       <c r="V75" s="8">
         <f t="shared" si="312"/>
@@ -14652,7 +14612,7 @@
       </c>
       <c r="AA75" s="8">
         <f>SUM(E75:Y75)</f>
-        <v>5.7120000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:27">
@@ -14719,35 +14679,35 @@
       </c>
       <c r="R76" s="8">
         <f t="shared" ref="R76" si="324">Q76+R75</f>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="S76" s="8">
         <f t="shared" ref="S76" si="325">R76+S75</f>
-        <v>2.992</v>
+        <v>0</v>
       </c>
       <c r="T76" s="8">
         <f t="shared" ref="T76" si="326">S76+T75</f>
-        <v>5.3040000000000003</v>
+        <v>0</v>
       </c>
       <c r="U76" s="8">
         <f t="shared" ref="U76" si="327">T76+U75</f>
-        <v>5.7120000000000006</v>
+        <v>0</v>
       </c>
       <c r="V76" s="8">
         <f t="shared" ref="V76" si="328">U76+V75</f>
-        <v>5.7120000000000006</v>
+        <v>0</v>
       </c>
       <c r="W76" s="8">
         <f t="shared" ref="W76" si="329">V76+W75</f>
-        <v>5.7120000000000006</v>
+        <v>0</v>
       </c>
       <c r="X76" s="8">
         <f t="shared" ref="X76" si="330">W76+X75</f>
-        <v>5.7120000000000006</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="8">
         <f t="shared" ref="Y76" si="331">X76+Y75</f>
-        <v>5.7120000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:27">
@@ -15172,21 +15132,11 @@
       <c r="Q87" s="15"/>
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
-      <c r="T87" s="15">
-        <v>8</v>
-      </c>
-      <c r="U87" s="15">
-        <v>5</v>
-      </c>
-      <c r="V87" s="15">
-        <v>6</v>
-      </c>
-      <c r="W87" s="15">
-        <v>7</v>
-      </c>
-      <c r="X87" s="15">
-        <v>7</v>
-      </c>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
       <c r="Y87" s="15"/>
       <c r="AA87" s="17"/>
     </row>
@@ -15213,21 +15163,11 @@
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
-      <c r="T88" s="15">
-        <v>8</v>
-      </c>
-      <c r="U88" s="15">
-        <v>8</v>
-      </c>
-      <c r="V88" s="15">
-        <v>6</v>
-      </c>
-      <c r="W88" s="15">
-        <v>6</v>
-      </c>
-      <c r="X88" s="15">
-        <v>6</v>
-      </c>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
       <c r="Y88" s="15"/>
       <c r="AA88" s="17"/>
     </row>
@@ -15254,22 +15194,14 @@
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
       <c r="T89" s="15"/>
-      <c r="U89" s="15">
-        <v>6</v>
-      </c>
-      <c r="V89" s="15">
-        <v>6</v>
-      </c>
-      <c r="W89" s="15">
-        <v>8</v>
-      </c>
-      <c r="X89" s="15">
-        <v>8</v>
-      </c>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
       <c r="Y89" s="15"/>
       <c r="AA89" s="17">
         <f t="shared" ref="AA89:AA91" si="370">SUM(E89:Y89)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:27">
@@ -15295,22 +15227,14 @@
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
       <c r="T90" s="15"/>
-      <c r="U90" s="15">
-        <v>2</v>
-      </c>
-      <c r="V90" s="15">
-        <v>4</v>
-      </c>
-      <c r="W90" s="15">
-        <v>4</v>
-      </c>
-      <c r="X90" s="15">
-        <v>4</v>
-      </c>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
       <c r="AA90" s="17">
         <f t="shared" si="370"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:27">
@@ -15380,23 +15304,23 @@
       </c>
       <c r="T91" s="43">
         <f t="shared" ref="T91" si="385">SUM(T85:T90)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U91" s="43">
         <f t="shared" ref="U91" si="386">SUM(U85:U90)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="V91" s="43">
         <f t="shared" ref="V91" si="387">SUM(V85:V90)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="W91" s="43">
         <f t="shared" ref="W91" si="388">SUM(W85:W90)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X91" s="43">
         <f t="shared" ref="X91" si="389">SUM(X85:X90)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="43">
         <f t="shared" ref="Y91" si="390">SUM(Y85:Y90)</f>
@@ -15404,7 +15328,7 @@
       </c>
       <c r="AA91" s="43">
         <f t="shared" si="370"/>
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:27">
@@ -15474,27 +15398,27 @@
       </c>
       <c r="T92" s="42">
         <f t="shared" ref="T92" si="404">S92+T91</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U92" s="42">
         <f t="shared" ref="U92" si="405">T92+U91</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="V92" s="42">
         <f t="shared" ref="V92" si="406">U92+V91</f>
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="W92" s="42">
         <f t="shared" ref="W92" si="407">V92+W91</f>
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="X92" s="42">
         <f t="shared" ref="X92" si="408">W92+X91</f>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="Y92" s="42">
         <f t="shared" ref="Y92" si="409">X92+Y91</f>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15567,23 +15491,23 @@
       </c>
       <c r="T93" s="8">
         <f t="shared" si="410"/>
-        <v>1.0880000000000001</v>
+        <v>0</v>
       </c>
       <c r="U93" s="8">
         <f t="shared" si="410"/>
-        <v>1.4279999999999999</v>
+        <v>0</v>
       </c>
       <c r="V93" s="8">
         <f t="shared" si="410"/>
-        <v>1.496</v>
+        <v>0</v>
       </c>
       <c r="W93" s="8">
         <f t="shared" si="410"/>
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="X93" s="8">
         <f t="shared" si="410"/>
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Y93" s="8">
         <f t="shared" si="410"/>
@@ -15591,7 +15515,7 @@
       </c>
       <c r="AA93" s="8">
         <f>SUM(E93:Y93)</f>
-        <v>7.4120000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:27">
@@ -15666,27 +15590,27 @@
       </c>
       <c r="T94" s="8">
         <f t="shared" ref="T94" si="424">S94+T93</f>
-        <v>1.0880000000000001</v>
+        <v>0</v>
       </c>
       <c r="U94" s="8">
         <f t="shared" ref="U94" si="425">T94+U93</f>
-        <v>2.516</v>
+        <v>0</v>
       </c>
       <c r="V94" s="8">
         <f t="shared" ref="V94" si="426">U94+V93</f>
-        <v>4.0120000000000005</v>
+        <v>0</v>
       </c>
       <c r="W94" s="8">
         <f t="shared" ref="W94" si="427">V94+W93</f>
-        <v>5.7120000000000006</v>
+        <v>0</v>
       </c>
       <c r="X94" s="8">
         <f t="shared" ref="X94" si="428">W94+X93</f>
-        <v>7.4120000000000008</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="8">
         <f t="shared" ref="Y94" si="429">X94+Y93</f>
-        <v>7.4120000000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:27">
@@ -16045,24 +15969,14 @@
       <c r="R103" s="15"/>
       <c r="S103" s="15"/>
       <c r="T103" s="15"/>
-      <c r="U103" s="15">
-        <v>4</v>
-      </c>
-      <c r="V103" s="15">
-        <v>5</v>
-      </c>
-      <c r="W103" s="15">
-        <v>4</v>
-      </c>
-      <c r="X103" s="15">
-        <v>4</v>
-      </c>
-      <c r="Y103" s="15">
-        <v>4</v>
-      </c>
+      <c r="U103" s="15"/>
+      <c r="V103" s="15"/>
+      <c r="W103" s="15"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
       <c r="AA103" s="17">
         <f>SUM(E103:Y103)</f>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="2:27">
@@ -16089,21 +16003,11 @@
       <c r="R104" s="15"/>
       <c r="S104" s="15"/>
       <c r="T104" s="15"/>
-      <c r="U104" s="15">
-        <v>7</v>
-      </c>
-      <c r="V104" s="15">
-        <v>8</v>
-      </c>
-      <c r="W104" s="15">
-        <v>8</v>
-      </c>
-      <c r="X104" s="15">
-        <v>8</v>
-      </c>
-      <c r="Y104" s="15">
-        <v>6</v>
-      </c>
+      <c r="U104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
       <c r="AA104" s="17"/>
     </row>
     <row r="105" spans="2:27">
@@ -16131,18 +16035,10 @@
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
       <c r="U105" s="15"/>
-      <c r="V105" s="15">
-        <v>2</v>
-      </c>
-      <c r="W105" s="15">
-        <v>2</v>
-      </c>
-      <c r="X105" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y105" s="15">
-        <v>6</v>
-      </c>
+      <c r="V105" s="15"/>
+      <c r="W105" s="15"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
       <c r="AA105" s="17"/>
     </row>
     <row r="106" spans="2:27">
@@ -16170,16 +16066,10 @@
       <c r="S106" s="15"/>
       <c r="T106" s="15"/>
       <c r="U106" s="15"/>
-      <c r="V106" s="15">
-        <v>2</v>
-      </c>
-      <c r="W106" s="15">
-        <v>2</v>
-      </c>
+      <c r="V106" s="15"/>
+      <c r="W106" s="15"/>
       <c r="X106" s="15"/>
-      <c r="Y106" s="15">
-        <v>6</v>
-      </c>
+      <c r="Y106" s="15"/>
       <c r="AA106" s="17"/>
     </row>
     <row r="107" spans="2:27">
@@ -16206,17 +16096,13 @@
       <c r="S107" s="15"/>
       <c r="T107" s="15"/>
       <c r="U107" s="15"/>
-      <c r="V107" s="15">
-        <v>2</v>
-      </c>
+      <c r="V107" s="15"/>
       <c r="W107" s="15"/>
       <c r="X107" s="15"/>
-      <c r="Y107" s="15">
-        <v>6</v>
-      </c>
+      <c r="Y107" s="15"/>
       <c r="AA107" s="17">
         <f t="shared" ref="AA107:AA109" si="468">SUM(E107:Y107)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:27">
@@ -16243,21 +16129,13 @@
       <c r="S108" s="15"/>
       <c r="T108" s="15"/>
       <c r="U108" s="15"/>
-      <c r="V108" s="15">
-        <v>4</v>
-      </c>
-      <c r="W108" s="15">
-        <v>4</v>
-      </c>
-      <c r="X108" s="15">
-        <v>4</v>
-      </c>
-      <c r="Y108" s="15">
-        <v>6</v>
-      </c>
+      <c r="V108" s="15"/>
+      <c r="W108" s="15"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
       <c r="AA108" s="17">
         <f t="shared" si="468"/>
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="2:27">
@@ -16331,27 +16209,27 @@
       </c>
       <c r="U109" s="48">
         <f t="shared" ref="U109" si="484">SUM(U103:U108)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V109" s="48">
         <f t="shared" ref="V109" si="485">SUM(V103:V108)</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W109" s="48">
         <f t="shared" ref="W109" si="486">SUM(W103:W108)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X109" s="48">
         <f t="shared" ref="X109" si="487">SUM(X103:X108)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y109" s="48">
         <f t="shared" ref="Y109" si="488">SUM(Y103:Y108)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AA109" s="48">
         <f t="shared" si="468"/>
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="2:27">
@@ -16425,23 +16303,23 @@
       </c>
       <c r="U110" s="47">
         <f t="shared" ref="U110" si="503">T110+U109</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V110" s="47">
         <f t="shared" ref="V110" si="504">U110+V109</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="W110" s="47">
         <f t="shared" ref="W110" si="505">V110+W109</f>
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="X110" s="47">
         <f t="shared" ref="X110" si="506">W110+X109</f>
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="Y110" s="47">
         <f t="shared" ref="Y110" si="507">X110+Y109</f>
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AA110" s="5"/>
     </row>
@@ -16518,27 +16396,27 @@
       </c>
       <c r="U111" s="8">
         <f t="shared" si="508"/>
-        <v>0.748</v>
+        <v>0</v>
       </c>
       <c r="V111" s="8">
         <f t="shared" si="508"/>
-        <v>1.5640000000000001</v>
+        <v>0</v>
       </c>
       <c r="W111" s="8">
         <f t="shared" si="508"/>
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X111" s="8">
         <f t="shared" si="508"/>
-        <v>1.1559999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y111" s="8">
         <f t="shared" si="508"/>
-        <v>2.3119999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA111" s="8">
         <f>SUM(E111:Y111)</f>
-        <v>7.1400000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="2:27">
@@ -16617,23 +16495,23 @@
       </c>
       <c r="U112" s="8">
         <f t="shared" ref="U112" si="523">T112+U111</f>
-        <v>0.748</v>
+        <v>0</v>
       </c>
       <c r="V112" s="8">
         <f t="shared" ref="V112" si="524">U112+V111</f>
-        <v>2.3120000000000003</v>
+        <v>0</v>
       </c>
       <c r="W112" s="8">
         <f t="shared" ref="W112" si="525">V112+W111</f>
-        <v>3.6720000000000006</v>
+        <v>0</v>
       </c>
       <c r="X112" s="8">
         <f t="shared" ref="X112" si="526">W112+X111</f>
-        <v>4.8280000000000003</v>
+        <v>0</v>
       </c>
       <c r="Y112" s="8">
         <f t="shared" ref="Y112" si="527">X112+Y111</f>
-        <v>7.1400000000000006</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16649,7 +16527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
@@ -16664,7 +16542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
@@ -16679,7 +16557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{AC110230-BAF6-2C45-B6EB-562B9FB8FA6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E1309BDC-99F6-B44F-8217-A83C84FC80F8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{6B6B0BD2-8EE7-2F43-BFB5-DBBA1333B175}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E5ACEBD-DCD0-6245-9B9F-FB89F5EAFB9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="102_{6604020D-283F-B74C-811A-F73CED704360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E97BE7FF-7074-1342-A120-D12D8A21124D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="Status-3" sheetId="5" r:id="rId4"/>
     <sheet name="Status-4" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Status-1'!$A$1:$P$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
   <si>
     <t>Plan</t>
   </si>
@@ -246,6 +249,9 @@
   </si>
   <si>
     <t>Reserve</t>
+  </si>
+  <si>
+    <t>Dummy</t>
   </si>
 </sst>
 </file>
@@ -705,67 +711,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.87360000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5287999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>2.4024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.57</c:v>
+                  <c:v>3.2760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>3.9312000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9979999999999993</c:v>
+                  <c:v>4.5864000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9499999999999993</c:v>
+                  <c:v>5.2416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6639999999999997</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3780000000000001</c:v>
+                  <c:v>6.3335999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0920000000000005</c:v>
+                  <c:v>6.7703999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.33</c:v>
+                  <c:v>6.9887999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5679999999999996</c:v>
+                  <c:v>7.2071999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8059999999999992</c:v>
+                  <c:v>7.4255999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0439999999999987</c:v>
+                  <c:v>7.6439999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7579999999999991</c:v>
+                  <c:v>7.8623999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.472</c:v>
+                  <c:v>8.299199999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.948</c:v>
+                  <c:v>8.7359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.138</c:v>
+                  <c:v>9.6095999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.327999999999999</c:v>
+                  <c:v>10.483199999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.636999999999999</c:v>
+                  <c:v>11.356799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1621,16 +1627,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.36</c:v>
+                  <c:v>1.768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.04</c:v>
+                  <c:v>2.992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1912,22 +1918,22 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.43680000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.98280000000000012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>2.0748000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.5116000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4510000000000001</c:v>
+                  <c:v>3.1668000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,7 +2213,7 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2726,7 +2732,7 @@
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2930,67 +2936,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.87360000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5287999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>2.4024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.57</c:v>
+                  <c:v>3.2760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>3.9312000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9979999999999993</c:v>
+                  <c:v>4.5864000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9499999999999993</c:v>
+                  <c:v>5.2416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6639999999999997</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3780000000000001</c:v>
+                  <c:v>6.3335999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0920000000000005</c:v>
+                  <c:v>6.7703999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.33</c:v>
+                  <c:v>6.9887999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5679999999999996</c:v>
+                  <c:v>7.2071999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8059999999999992</c:v>
+                  <c:v>7.4255999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0439999999999987</c:v>
+                  <c:v>7.6439999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7579999999999991</c:v>
+                  <c:v>7.8623999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.472</c:v>
+                  <c:v>8.299199999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.948</c:v>
+                  <c:v>8.7359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.138</c:v>
+                  <c:v>9.6095999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.327999999999999</c:v>
+                  <c:v>10.483199999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.636999999999999</c:v>
+                  <c:v>11.356799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3841,16 +3847,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.36</c:v>
+                  <c:v>1.768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.04</c:v>
+                  <c:v>2.992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,37 +4139,37 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.43680000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.98280000000000012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>2.0748000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.5116000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4510000000000001</c:v>
+                  <c:v>3.1668000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.927</c:v>
+                  <c:v>3.6036000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4030000000000005</c:v>
+                  <c:v>4.0404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4444,22 +4450,22 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5232,67 +5238,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.87360000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5287999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>2.4024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.57</c:v>
+                  <c:v>3.2760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>3.9312000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9979999999999993</c:v>
+                  <c:v>4.5864000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9499999999999993</c:v>
+                  <c:v>5.2416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6639999999999997</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3780000000000001</c:v>
+                  <c:v>6.3335999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0920000000000005</c:v>
+                  <c:v>6.7703999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.33</c:v>
+                  <c:v>6.9887999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5679999999999996</c:v>
+                  <c:v>7.2071999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8059999999999992</c:v>
+                  <c:v>7.4255999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0439999999999987</c:v>
+                  <c:v>7.6439999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7579999999999991</c:v>
+                  <c:v>7.8623999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.472</c:v>
+                  <c:v>8.299199999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.948</c:v>
+                  <c:v>8.7359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.138</c:v>
+                  <c:v>9.6095999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.327999999999999</c:v>
+                  <c:v>10.483199999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.636999999999999</c:v>
+                  <c:v>11.356799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6143,16 +6149,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.36</c:v>
+                  <c:v>1.768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.04</c:v>
+                  <c:v>2.992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6435,55 +6441,55 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.43680000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.98280000000000012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>2.0748000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.5116000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4510000000000001</c:v>
+                  <c:v>3.1668000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.927</c:v>
+                  <c:v>3.6036000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4030000000000005</c:v>
+                  <c:v>4.0404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.641</c:v>
+                  <c:v>4.2588000000000008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.76</c:v>
+                  <c:v>4.3680000000000012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9979999999999993</c:v>
+                  <c:v>4.5864000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1169999999999991</c:v>
+                  <c:v>4.6956000000000016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6764,40 +6770,40 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7642,67 +7648,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95199999999999996</c:v>
+                  <c:v>0.87360000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6659999999999999</c:v>
+                  <c:v>1.5287999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6179999999999999</c:v>
+                  <c:v>2.4024000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.57</c:v>
+                  <c:v>3.2760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0459999999999994</c:v>
+                  <c:v>3.9312000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9979999999999993</c:v>
+                  <c:v>4.5864000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9499999999999993</c:v>
+                  <c:v>5.2416</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6639999999999997</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.3780000000000001</c:v>
+                  <c:v>6.3335999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.0920000000000005</c:v>
+                  <c:v>6.7703999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.33</c:v>
+                  <c:v>6.9887999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5679999999999996</c:v>
+                  <c:v>7.2071999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8059999999999992</c:v>
+                  <c:v>7.4255999999999993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0439999999999987</c:v>
+                  <c:v>7.6439999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.7579999999999991</c:v>
+                  <c:v>7.8623999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10.472</c:v>
+                  <c:v>8.299199999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.948</c:v>
+                  <c:v>8.7359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.138</c:v>
+                  <c:v>9.6095999999999986</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.327999999999999</c:v>
+                  <c:v>10.483199999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14.636999999999999</c:v>
+                  <c:v>11.356799999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8553,16 +8559,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68</c:v>
+                  <c:v>0.88400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.36</c:v>
+                  <c:v>1.768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.04</c:v>
+                  <c:v>2.992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.4000000000000004</c:v>
+                  <c:v>4.6920000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8845,67 +8851,67 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.23799999999999999</c:v>
+                  <c:v>0.21840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47599999999999998</c:v>
+                  <c:v>0.43680000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.071</c:v>
+                  <c:v>0.98280000000000012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2610000000000001</c:v>
+                  <c:v>2.0748000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>2.5116000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4510000000000001</c:v>
+                  <c:v>3.1668000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.927</c:v>
+                  <c:v>3.6036000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.4030000000000005</c:v>
+                  <c:v>4.0404</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5220000000000002</c:v>
+                  <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.641</c:v>
+                  <c:v>4.2588000000000008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.76</c:v>
+                  <c:v>4.3680000000000012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.9979999999999993</c:v>
+                  <c:v>4.5864000000000011</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1169999999999991</c:v>
+                  <c:v>4.6956000000000016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.5929999999999991</c:v>
+                  <c:v>5.1324000000000014</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0689999999999991</c:v>
+                  <c:v>5.5692000000000013</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.544999999999999</c:v>
+                  <c:v>6.0060000000000011</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.020999999999999</c:v>
+                  <c:v>6.442800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9186,52 +9192,52 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>5.3719999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10409,16 +10415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393701</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10900,11 +10906,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AD112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="84" zoomScaleNormal="29" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="U104" sqref="U104:Y108"/>
+      <selection pane="bottomRight" activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -10940,7 +10946,7 @@
         <v>35</v>
       </c>
       <c r="D6" s="1">
-        <v>119</v>
+        <v>109.2</v>
       </c>
     </row>
     <row r="7" spans="2:27">
@@ -11114,22 +11120,22 @@
         <v>8</v>
       </c>
       <c r="J14" s="21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K14" s="21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L14" s="21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M14" s="21">
         <v>6</v>
       </c>
       <c r="N14" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O14" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P14" s="21">
         <v>2</v>
@@ -11144,26 +11150,26 @@
         <v>2</v>
       </c>
       <c r="T14" s="21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U14" s="21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V14" s="21">
         <v>4</v>
       </c>
       <c r="W14" s="21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="X14" s="21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y14" s="21">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA14" s="20">
         <f>SUM(E14:Y14)</f>
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:27">
@@ -11193,7 +11199,7 @@
       </c>
       <c r="J15" s="22">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K15" s="22">
         <f t="shared" si="0"/>
@@ -11201,59 +11207,59 @@
       </c>
       <c r="L15" s="22">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M15" s="22">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N15" s="22">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O15" s="22">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P15" s="22">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="22">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R15" s="22">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S15" s="22">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="T15" s="22">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="U15" s="22">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="V15" s="22">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="W15" s="22">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="X15" s="22">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="Y15" s="22">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="AA15" s="5"/>
     </row>
@@ -11266,91 +11272,91 @@
       </c>
       <c r="E16" s="8">
         <f>E14*$D$6/1000</f>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="F16" s="8">
         <f>F14*$D$6/1000</f>
-        <v>0.71399999999999997</v>
+        <v>0.6552</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" ref="G16:Y16" si="1">G14*$D$6/1000</f>
-        <v>0.71399999999999997</v>
+        <v>0.6552</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>0.95199999999999996</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="I16" s="8">
         <f t="shared" si="1"/>
-        <v>0.95199999999999996</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="J16" s="8">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.6552</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="1"/>
-        <v>0.95199999999999996</v>
+        <v>0.6552</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="1"/>
-        <v>0.95199999999999996</v>
+        <v>0.6552</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="1"/>
-        <v>0.71399999999999997</v>
+        <v>0.6552</v>
       </c>
       <c r="N16" s="8">
         <f t="shared" si="1"/>
-        <v>0.71399999999999997</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="O16" s="8">
         <f t="shared" si="1"/>
-        <v>0.71399999999999997</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="1"/>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>0.71399999999999997</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="1"/>
-        <v>0.71399999999999997</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="1"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="1"/>
-        <v>1.19</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="1"/>
-        <v>1.19</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="1"/>
-        <v>1.3089999999999999</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="AA16" s="8">
         <f>SUM(E16:Y16)</f>
-        <v>14.636999999999999</v>
+        <v>11.356799999999998</v>
       </c>
     </row>
     <row r="17" spans="2:30">
@@ -11365,87 +11371,87 @@
       </c>
       <c r="E17" s="8">
         <f>E16</f>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="F17" s="8">
         <f>E17+F16</f>
-        <v>0.95199999999999996</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" ref="G17:Y17" si="2">F17+G16</f>
-        <v>1.6659999999999999</v>
+        <v>1.5287999999999999</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="2"/>
-        <v>2.6179999999999999</v>
+        <v>2.4024000000000001</v>
       </c>
       <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>3.57</v>
+        <v>3.2760000000000002</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="2"/>
-        <v>4.0459999999999994</v>
+        <v>3.9312000000000005</v>
       </c>
       <c r="K17" s="8">
         <f t="shared" si="2"/>
-        <v>4.9979999999999993</v>
+        <v>4.5864000000000003</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="2"/>
-        <v>5.9499999999999993</v>
+        <v>5.2416</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="2"/>
-        <v>6.6639999999999997</v>
+        <v>5.8967999999999998</v>
       </c>
       <c r="N17" s="8">
         <f t="shared" si="2"/>
-        <v>7.3780000000000001</v>
+        <v>6.3335999999999997</v>
       </c>
       <c r="O17" s="8">
         <f t="shared" si="2"/>
-        <v>8.0920000000000005</v>
+        <v>6.7703999999999995</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="2"/>
-        <v>8.33</v>
+        <v>6.9887999999999995</v>
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="2"/>
-        <v>8.5679999999999996</v>
+        <v>7.2071999999999994</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="2"/>
-        <v>8.8059999999999992</v>
+        <v>7.4255999999999993</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="2"/>
-        <v>9.0439999999999987</v>
+        <v>7.6439999999999992</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="2"/>
-        <v>9.7579999999999991</v>
+        <v>7.8623999999999992</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
-        <v>10.472</v>
+        <v>8.299199999999999</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>10.948</v>
+        <v>8.7359999999999989</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="2"/>
-        <v>12.138</v>
+        <v>9.6095999999999986</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="2"/>
-        <v>13.327999999999999</v>
+        <v>10.483199999999998</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="2"/>
-        <v>14.636999999999999</v>
+        <v>11.356799999999998</v>
       </c>
     </row>
     <row r="18" spans="2:30">
@@ -11782,39 +11788,39 @@
       </c>
       <c r="E24" s="8">
         <f>E22*$D$6/1000</f>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="F24" s="8">
         <f t="shared" ref="F24:Y24" si="18">F22*$D$6/1000</f>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="18"/>
-        <v>0.59499999999999997</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="18"/>
-        <v>1.19</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="J24" s="8">
         <f t="shared" si="18"/>
-        <v>0.71399999999999997</v>
+        <v>0.6552</v>
       </c>
       <c r="K24" s="8">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="L24" s="8">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="M24" s="8">
         <f t="shared" si="18"/>
-        <v>0.11899999999999999</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="N24" s="8">
         <f t="shared" si="18"/>
@@ -11834,39 +11840,39 @@
       </c>
       <c r="R24" s="8">
         <f t="shared" si="18"/>
-        <v>0.11899999999999999</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="18"/>
-        <v>0.11899999999999999</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="18"/>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="18"/>
-        <v>0.11899999999999999</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="18"/>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="AA24" s="8">
         <f>SUM(E24:Y24)</f>
-        <v>7.020999999999999</v>
+        <v>6.442800000000001</v>
       </c>
     </row>
     <row r="25" spans="2:30">
@@ -11881,87 +11887,87 @@
       </c>
       <c r="E25" s="8">
         <f>E24</f>
-        <v>0.23799999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="F25" s="8">
         <f>E25+F24</f>
-        <v>0.47599999999999998</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" ref="G25" si="19">F25+G24</f>
-        <v>1.071</v>
+        <v>0.98280000000000012</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" ref="H25" si="20">G25+H24</f>
-        <v>2.2610000000000001</v>
+        <v>2.0748000000000002</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" ref="I25" si="21">H25+I24</f>
-        <v>2.7370000000000001</v>
+        <v>2.5116000000000001</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" ref="J25" si="22">I25+J24</f>
-        <v>3.4510000000000001</v>
+        <v>3.1668000000000003</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" ref="K25" si="23">J25+K24</f>
-        <v>3.927</v>
+        <v>3.6036000000000001</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" ref="L25" si="24">K25+L24</f>
-        <v>4.4030000000000005</v>
+        <v>4.0404</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" ref="M25" si="25">L25+M24</f>
-        <v>4.5220000000000002</v>
+        <v>4.1496000000000004</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>4.5220000000000002</v>
+        <v>4.1496000000000004</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>4.5220000000000002</v>
+        <v>4.1496000000000004</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>4.5220000000000002</v>
+        <v>4.1496000000000004</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>4.5220000000000002</v>
+        <v>4.1496000000000004</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>4.641</v>
+        <v>4.2588000000000008</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>4.76</v>
+        <v>4.3680000000000012</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>4.9979999999999993</v>
+        <v>4.5864000000000011</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>5.1169999999999991</v>
+        <v>4.6956000000000016</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>5.5929999999999991</v>
+        <v>5.1324000000000014</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>6.0689999999999991</v>
+        <v>5.5692000000000013</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>6.544999999999999</v>
+        <v>6.0060000000000011</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>7.020999999999999</v>
+        <v>6.442800000000001</v>
       </c>
     </row>
     <row r="27" spans="2:30">
@@ -12457,7 +12463,9 @@
       <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="2:27">
-      <c r="C37" s="9"/>
+      <c r="C37" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="D37" s="9" t="s">
         <v>40</v>
       </c>
@@ -12466,7 +12474,9 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="J37" s="15">
+        <v>8</v>
+      </c>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -12484,7 +12494,7 @@
       <c r="Y37" s="15"/>
       <c r="AA37" s="17">
         <f t="shared" ref="AA37:AA39" si="76">SUM(E37:Y37)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:27">
@@ -12547,7 +12557,7 @@
       </c>
       <c r="J39" s="27">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" ref="K39" si="82">SUM(K33:K38)</f>
@@ -12611,7 +12621,7 @@
       </c>
       <c r="AA39" s="27">
         <f t="shared" si="76"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:27">
@@ -12641,67 +12651,67 @@
       </c>
       <c r="J40" s="26">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K40" s="26">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="M40" s="26">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N40" s="26">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="O40" s="26">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="P40" s="26">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="26">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="R40" s="26">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="S40" s="26">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="T40" s="26">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="U40" s="26">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="V40" s="26">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="W40" s="26">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
@@ -12734,7 +12744,7 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="K41" s="8">
         <f t="shared" si="116"/>
@@ -12798,7 +12808,7 @@
       </c>
       <c r="AA41" s="8">
         <f>SUM(E41:Y41)</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
     </row>
     <row r="42" spans="2:27">
@@ -12833,67 +12843,67 @@
       </c>
       <c r="J42" s="8">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>4.8280000000000003</v>
+        <v>5.3719999999999999</v>
       </c>
     </row>
     <row r="44" spans="2:27">
@@ -15645,20 +15655,20 @@
       <c r="T98" s="44"/>
       <c r="U98" s="44"/>
       <c r="V98" s="44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W98" s="44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X98" s="44">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Y98" s="44">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA98" s="48">
         <f>SUM(E98:Y98)</f>
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="2:27">
@@ -15736,19 +15746,19 @@
       </c>
       <c r="V99" s="47">
         <f t="shared" ref="V99" si="444">U99+V98</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W99" s="47">
         <f t="shared" ref="W99" si="445">V99+W98</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="X99" s="47">
         <f t="shared" ref="X99" si="446">W99+X98</f>
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="Y99" s="47">
         <f t="shared" ref="Y99" si="447">X99+Y98</f>
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="AA99" s="5"/>
     </row>
@@ -15829,23 +15839,23 @@
       </c>
       <c r="V100" s="8">
         <f t="shared" si="448"/>
-        <v>0.68</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="W100" s="8">
         <f t="shared" si="448"/>
-        <v>0.68</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="X100" s="8">
         <f t="shared" si="448"/>
-        <v>0.68</v>
+        <v>1.224</v>
       </c>
       <c r="Y100" s="8">
         <f t="shared" si="448"/>
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="AA100" s="8">
         <f>SUM(E100:Y100)</f>
-        <v>3.4000000000000004</v>
+        <v>4.6920000000000002</v>
       </c>
     </row>
     <row r="101" spans="2:27">
@@ -15928,19 +15938,19 @@
       </c>
       <c r="V101" s="8">
         <f t="shared" ref="V101" si="464">U101+V100</f>
-        <v>0.68</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="W101" s="8">
         <f t="shared" ref="W101" si="465">V101+W100</f>
-        <v>1.36</v>
+        <v>1.768</v>
       </c>
       <c r="X101" s="8">
         <f t="shared" ref="X101" si="466">W101+X100</f>
-        <v>2.04</v>
+        <v>2.992</v>
       </c>
       <c r="Y101" s="8">
         <f t="shared" ref="Y101" si="467">X101+Y100</f>
-        <v>3.4000000000000004</v>
+        <v>4.6920000000000002</v>
       </c>
     </row>
     <row r="103" spans="2:27">
@@ -16525,15 +16535,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="102_{6604020D-283F-B74C-811A-F73CED704360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E97BE7FF-7074-1342-A120-D12D8A21124D}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="102_{6604020D-283F-B74C-811A-F73CED704360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{67C9F8CD-0B0F-B742-8CFC-07E0DAFA8699}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -173,49 +173,16 @@
     <t>Ressource-5</t>
   </si>
   <si>
-    <t>1_PM_plan</t>
-  </si>
-  <si>
     <t>1_PM_ist</t>
   </si>
   <si>
     <t>Ressource-6</t>
   </si>
   <si>
-    <t>2_Analyse&amp;Entwurf_plan</t>
-  </si>
-  <si>
-    <t>2_Analyse&amp;Entwurf_ist</t>
-  </si>
-  <si>
     <t>4_Realisierung_SW</t>
   </si>
   <si>
-    <t>4_Real_SW_plan</t>
-  </si>
-  <si>
-    <t>4_Real_SW_ist</t>
-  </si>
-  <si>
-    <t>3_Real_HW_plan</t>
-  </si>
-  <si>
-    <t>3_Real_HW_ist</t>
-  </si>
-  <si>
     <t>5_Validierung</t>
-  </si>
-  <si>
-    <t>5_Validierung_plan</t>
-  </si>
-  <si>
-    <t>5_Validierung_ist</t>
-  </si>
-  <si>
-    <t>6_Abschluss_plan</t>
-  </si>
-  <si>
-    <t>6_Abschluss_ist</t>
   </si>
   <si>
     <t>Wiss. MA</t>
@@ -242,16 +209,49 @@
     <t>Simon</t>
   </si>
   <si>
-    <t>Auftrags Analyse</t>
-  </si>
-  <si>
-    <t>Entwurf</t>
-  </si>
-  <si>
     <t>Reserve</t>
   </si>
   <si>
     <t>Dummy</t>
+  </si>
+  <si>
+    <t>2_Auftrags Analyse</t>
+  </si>
+  <si>
+    <t>3_Entwurf</t>
+  </si>
+  <si>
+    <t>1_PM_Plan</t>
+  </si>
+  <si>
+    <t>2_Auftrags_Analyse_Plan</t>
+  </si>
+  <si>
+    <t>2_Auftrags_Analyse_ist</t>
+  </si>
+  <si>
+    <t>3_Entwurf_ist</t>
+  </si>
+  <si>
+    <t>3_Entwurf_Plan</t>
+  </si>
+  <si>
+    <t>4_Realisierung_Plan</t>
+  </si>
+  <si>
+    <t>4_Realisierung_ist</t>
+  </si>
+  <si>
+    <t>5_Validierung_Plan</t>
+  </si>
+  <si>
+    <t>5_Validierung_Ist</t>
+  </si>
+  <si>
+    <t>6_Reserve_Plan</t>
+  </si>
+  <si>
+    <t>6_Reserve_ist</t>
   </si>
 </sst>
 </file>
@@ -470,16 +470,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFA900"/>
       <color rgb="FFEE7D30"/>
-      <color rgb="FF9900FF"/>
-      <color rgb="FF6600CC"/>
-      <color rgb="FF70AE47"/>
-      <color rgb="FF0066FF"/>
-      <color rgb="FFFFC013"/>
-      <color rgb="FF5B9BD6"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF66"/>
-      <color rgb="FFFF66FF"/>
+      <color rgb="FFED7D31"/>
+      <color rgb="FF1B335D"/>
+      <color rgb="FF70AD47"/>
+      <color rgb="FF5B9BD5"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FF4472C4"/>
+      <color rgb="FFFFC003"/>
     </mruColors>
   </colors>
   <extLst>
@@ -542,7 +542,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, Status 1</a:t>
+              <a:t>Team-1 Personalkosten, Status 1</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -618,14 +618,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_PM_plan</c:v>
+                  <c:v>1_PM_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4472C4">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -791,14 +793,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Auftrags_Analyse_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="ED7D31">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -964,14 +968,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="EE7D30"/>
+              <a:srgbClr val="A5A5A5">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1137,14 +1143,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1310,14 +1318,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_plan</c:v>
+                  <c:v>5_Validierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="5B9BD5">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1483,14 +1493,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Reserve_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="70AD47">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1680,12 +1692,12 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="1B335D"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1953,19 +1965,19 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Auftrags_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
+              <a:srgbClr val="FFA900"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2233,7 +2245,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2292,7 +2304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2351,7 +2363,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_ist</c:v>
+                  <c:v>5_Validierung_Ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2410,7 +2422,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Reserve_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2844,7 +2856,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_PM_plan</c:v>
+                  <c:v>1_PM_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3016,7 +3028,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Auftrags_Analyse_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3188,7 +3200,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3360,7 +3372,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3532,7 +3544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_plan</c:v>
+                  <c:v>5_Validierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3704,7 +3716,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Reserve_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4189,7 +4201,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Auftrags_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4485,7 +4497,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4559,7 +4571,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4632,7 +4644,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_ist</c:v>
+                  <c:v>5_Validierung_Ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4705,7 +4717,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Reserve_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5146,7 +5158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_PM_plan</c:v>
+                  <c:v>1_PM_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5318,7 +5330,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Auftrags_Analyse_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5490,7 +5502,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5662,7 +5674,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5834,7 +5846,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_plan</c:v>
+                  <c:v>5_Validierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6006,7 +6018,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Reserve_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6509,7 +6521,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Auftrags_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6823,7 +6835,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6915,7 +6927,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7006,7 +7018,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_ist</c:v>
+                  <c:v>5_Validierung_Ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7097,7 +7109,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Reserve_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7556,7 +7568,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_PM_plan</c:v>
+                  <c:v>1_PM_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7728,7 +7740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_plan</c:v>
+                  <c:v>2_Auftrags_Analyse_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7900,7 +7912,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_plan</c:v>
+                  <c:v>3_Entwurf_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8072,7 +8084,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_plan</c:v>
+                  <c:v>4_Realisierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8244,7 +8256,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_plan</c:v>
+                  <c:v>5_Validierung_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8416,7 +8428,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_plan</c:v>
+                  <c:v>6_Reserve_Plan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8931,7 +8943,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_Analyse&amp;Entwurf_ist</c:v>
+                  <c:v>2_Auftrags_Analyse_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9257,7 +9269,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_Real_HW_ist</c:v>
+                  <c:v>3_Entwurf_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9361,7 +9373,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_Real_SW_ist</c:v>
+                  <c:v>4_Realisierung_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9464,7 +9476,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_Validierung_ist</c:v>
+                  <c:v>5_Validierung_Ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9567,7 +9579,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_Abschluss_ist</c:v>
+                  <c:v>6_Reserve_ist</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10907,10 +10919,10 @@
   <dimension ref="B2:AD112"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="P80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="Y16" sqref="Y16"/>
+      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -10927,7 +10939,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="16.5" customHeight="1">
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="12.75" customHeight="1">
@@ -10951,7 +10963,7 @@
     </row>
     <row r="7" spans="2:27">
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1">
         <v>68</v>
@@ -11361,7 +11373,7 @@
     </row>
     <row r="17" spans="2:30">
       <c r="B17" s="12" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>33</v>
@@ -11462,7 +11474,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>40</v>
@@ -11523,7 +11535,7 @@
     </row>
     <row r="20" spans="2:30">
       <c r="C20" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>40</v>
@@ -11560,7 +11572,7 @@
     </row>
     <row r="21" spans="2:30">
       <c r="C21" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>40</v>
@@ -11877,7 +11889,7 @@
     </row>
     <row r="25" spans="2:30">
       <c r="B25" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>33</v>
@@ -11972,7 +11984,7 @@
     </row>
     <row r="27" spans="2:30">
       <c r="C27" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3"/>
       <c r="AD27" s="28"/>
@@ -12214,7 +12226,7 @@
     </row>
     <row r="31" spans="2:30">
       <c r="B31" s="12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>33</v>
@@ -12312,7 +12324,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>40</v>
@@ -12356,7 +12368,7 @@
     <row r="34" spans="2:27">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>40</v>
@@ -12393,7 +12405,7 @@
     <row r="35" spans="2:27">
       <c r="B35" s="3"/>
       <c r="C35" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>40</v>
@@ -12430,7 +12442,7 @@
     <row r="36" spans="2:27">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>40</v>
@@ -12464,7 +12476,7 @@
     </row>
     <row r="37" spans="2:27">
       <c r="C37" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>40</v>
@@ -12499,7 +12511,7 @@
     </row>
     <row r="38" spans="2:27">
       <c r="C38" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>40</v>
@@ -12813,7 +12825,7 @@
     </row>
     <row r="42" spans="2:27">
       <c r="B42" s="12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>33</v>
@@ -12908,7 +12920,7 @@
     </row>
     <row r="44" spans="2:27">
       <c r="C44" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -13145,7 +13157,7 @@
     </row>
     <row r="48" spans="2:27">
       <c r="B48" s="12" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>33</v>
@@ -13402,7 +13414,7 @@
     </row>
     <row r="55" spans="2:27">
       <c r="C55" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>40</v>
@@ -13716,7 +13728,7 @@
     </row>
     <row r="59" spans="2:27">
       <c r="B59" s="12" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>33</v>
@@ -13811,7 +13823,7 @@
     </row>
     <row r="61" spans="2:27">
       <c r="C61" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -14056,7 +14068,7 @@
     </row>
     <row r="65" spans="2:27">
       <c r="B65" s="12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>33</v>
@@ -14313,7 +14325,7 @@
     </row>
     <row r="72" spans="2:27">
       <c r="C72" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>40</v>
@@ -14627,7 +14639,7 @@
     </row>
     <row r="76" spans="2:27">
       <c r="B76" s="12" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>33</v>
@@ -14722,7 +14734,7 @@
     </row>
     <row r="79" spans="2:27">
       <c r="C79" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D79" s="3"/>
     </row>
@@ -14959,7 +14971,7 @@
     </row>
     <row r="83" spans="2:27">
       <c r="B83" s="12" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>33</v>
@@ -15216,7 +15228,7 @@
     </row>
     <row r="90" spans="2:27">
       <c r="C90" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>40</v>
@@ -15530,7 +15542,7 @@
     </row>
     <row r="94" spans="2:27">
       <c r="B94" s="12" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>33</v>
@@ -15625,7 +15637,7 @@
     </row>
     <row r="97" spans="2:27">
       <c r="C97" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D97" s="3"/>
     </row>
@@ -15860,7 +15872,7 @@
     </row>
     <row r="101" spans="2:27">
       <c r="B101" s="12" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>33</v>
@@ -16117,7 +16129,7 @@
     </row>
     <row r="108" spans="2:27">
       <c r="C108" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>40</v>
@@ -16431,7 +16443,7 @@
     </row>
     <row r="112" spans="2:27">
       <c r="B112" s="12" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>33</v>
@@ -16540,14 +16552,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="84" documentId="102_{6604020D-283F-B74C-811A-F73CED704360}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{67C9F8CD-0B0F-B742-8CFC-07E0DAFA8699}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="114_{87DB3B06-595E-984E-9A06-F9DF75677CD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F88D8567-FABD-2D43-A408-E227F332B289}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2225,7 +2225,7 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.5760000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,22 +4462,22 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.5760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6782,40 +6782,40 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.5760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9204,52 +9204,52 @@
                   <c:v>4.8280000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.5760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3719999999999999</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10918,14 +10918,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AD112"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="29" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B101" sqref="B101"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -10937,15 +10937,15 @@
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
@@ -10970,10 +10970,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="2:27">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10984,7 +10984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -11102,13 +11102,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C15" s="19" t="s">
         <v>2</v>
       </c>
@@ -11275,7 +11275,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>11.356799999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>63</v>
       </c>
@@ -11466,10 +11466,10 @@
         <v>11.356799999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:30">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.15">
       <c r="AA18" s="16"/>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:30">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C20" s="9" t="s">
         <v>54</v>
       </c>
@@ -11547,8 +11547,12 @@
       <c r="I20" s="15">
         <v>5</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
+      <c r="J20" s="15">
+        <v>5</v>
+      </c>
+      <c r="K20" s="15">
+        <v>3</v>
+      </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -11567,10 +11571,10 @@
       <c r="Y20" s="15"/>
       <c r="AA20" s="17">
         <f t="shared" ref="AA20:AA22" si="3">SUM(E20:Y20)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C21" s="9" t="s">
         <v>58</v>
       </c>
@@ -11611,7 +11615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C22" s="19" t="s">
         <v>37</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C23" s="19" t="s">
         <v>2</v>
       </c>
@@ -11791,7 +11795,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
@@ -11887,7 +11891,7 @@
         <v>6.442800000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>47</v>
       </c>
@@ -11982,14 +11986,14 @@
         <v>6.442800000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="3"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
@@ -12037,7 +12041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -12128,7 +12132,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
@@ -12224,7 +12228,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
         <v>64</v>
       </c>
@@ -12319,7 +12323,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:27">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12365,7 +12369,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:27">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
         <v>53</v>
@@ -12402,7 +12406,7 @@
       <c r="Y34" s="15"/>
       <c r="AA34" s="17"/>
     </row>
-    <row r="35" spans="2:27">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="9" t="s">
         <v>54</v>
@@ -12421,8 +12425,12 @@
       <c r="I35" s="15">
         <v>9</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
+      <c r="J35" s="15">
+        <v>3</v>
+      </c>
+      <c r="K35" s="15">
+        <v>3</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
       <c r="N35" s="15"/>
@@ -12439,7 +12447,7 @@
       <c r="Y35" s="15"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="2:27">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
         <v>56</v>
@@ -12474,7 +12482,7 @@
       <c r="Y36" s="15"/>
       <c r="AA36" s="17"/>
     </row>
-    <row r="37" spans="2:27">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C37" s="9" t="s">
         <v>60</v>
       </c>
@@ -12509,7 +12517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:27">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C38" s="9" t="s">
         <v>48</v>
       </c>
@@ -12542,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C39" s="25" t="s">
         <v>37</v>
       </c>
@@ -12569,11 +12577,11 @@
       </c>
       <c r="J39" s="27">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" ref="K39" si="82">SUM(K33:K38)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" s="27">
         <f t="shared" ref="L39" si="83">SUM(L33:L38)</f>
@@ -12633,10 +12641,10 @@
       </c>
       <c r="AA39" s="27">
         <f t="shared" si="76"/>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:27">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C40" s="25" t="s">
         <v>2</v>
       </c>
@@ -12663,71 +12671,71 @@
       </c>
       <c r="J40" s="26">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K40" s="26">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="M40" s="26">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N40" s="26">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O40" s="26">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P40" s="26">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q40" s="26">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="R40" s="26">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="S40" s="26">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="T40" s="26">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="U40" s="26">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="V40" s="26">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="W40" s="26">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
@@ -12756,11 +12764,11 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" si="116"/>
-        <v>0.54400000000000004</v>
+        <v>0.748</v>
       </c>
       <c r="K41" s="8">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="116"/>
@@ -12820,10 +12828,10 @@
       </c>
       <c r="AA41" s="8">
         <f>SUM(E41:Y41)</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
     </row>
-    <row r="42" spans="2:27">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
         <v>65</v>
       </c>
@@ -12855,76 +12863,76 @@
       </c>
       <c r="J42" s="8">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>5.3719999999999999</v>
+        <v>5.5760000000000005</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>5.3719999999999999</v>
+        <v>5.78</v>
       </c>
     </row>
-    <row r="44" spans="2:27">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -12968,7 +12976,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:27">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
@@ -13059,7 +13067,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
@@ -13155,7 +13163,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:27">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
         <v>67</v>
       </c>
@@ -13250,7 +13258,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:27">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>41</v>
       </c>
@@ -13286,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
       <c r="C51" s="9" t="s">
         <v>43</v>
@@ -13317,7 +13325,7 @@
       <c r="Y51" s="15"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="2:27">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -13348,7 +13356,7 @@
       <c r="Y52" s="15"/>
       <c r="AA52" s="17"/>
     </row>
-    <row r="53" spans="2:27">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -13379,7 +13387,7 @@
       <c r="Y53" s="15"/>
       <c r="AA53" s="17"/>
     </row>
-    <row r="54" spans="2:27">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C54" s="9" t="s">
         <v>46</v>
       </c>
@@ -13412,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C55" s="9" t="s">
         <v>48</v>
       </c>
@@ -13445,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C56" s="29" t="s">
         <v>37</v>
       </c>
@@ -13539,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:27">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
@@ -13630,7 +13638,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C58" s="6" t="s">
         <v>38</v>
       </c>
@@ -13726,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:27">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="12" t="s">
         <v>66</v>
       </c>
@@ -13821,13 +13829,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:27">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
@@ -13879,7 +13887,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="63" spans="2:27">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C63" s="36" t="s">
         <v>2</v>
       </c>
@@ -13970,7 +13978,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C64" s="6" t="s">
         <v>38</v>
       </c>
@@ -14066,7 +14074,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="65" spans="2:27">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="12" t="s">
         <v>68</v>
       </c>
@@ -14161,7 +14169,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="67" spans="2:27">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
         <v>41</v>
       </c>
@@ -14197,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:27">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
       <c r="C68" s="9" t="s">
         <v>43</v>
@@ -14228,7 +14236,7 @@
       <c r="Y68" s="15"/>
       <c r="AA68" s="17"/>
     </row>
-    <row r="69" spans="2:27">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="3"/>
       <c r="C69" s="9" t="s">
         <v>44</v>
@@ -14259,7 +14267,7 @@
       <c r="Y69" s="15"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="70" spans="2:27">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
       <c r="C70" s="9" t="s">
         <v>45</v>
@@ -14290,7 +14298,7 @@
       <c r="Y70" s="15"/>
       <c r="AA70" s="17"/>
     </row>
-    <row r="71" spans="2:27">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C71" s="9" t="s">
         <v>46</v>
       </c>
@@ -14323,7 +14331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:27">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C72" s="9" t="s">
         <v>48</v>
       </c>
@@ -14356,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:27">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C73" s="36" t="s">
         <v>37</v>
       </c>
@@ -14450,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:27">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C74" s="36" t="s">
         <v>2</v>
       </c>
@@ -14541,7 +14549,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C75" s="6" t="s">
         <v>38</v>
       </c>
@@ -14637,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:27">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="12" t="s">
         <v>69</v>
       </c>
@@ -14732,13 +14740,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:27">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>0</v>
       </c>
@@ -14782,7 +14790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="2:27">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C81" s="41" t="s">
         <v>2</v>
       </c>
@@ -14873,7 +14881,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C82" s="6" t="s">
         <v>38</v>
       </c>
@@ -14969,7 +14977,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="83" spans="2:27">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B83" s="12" t="s">
         <v>70</v>
       </c>
@@ -15064,7 +15072,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="85" spans="2:27">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>41</v>
       </c>
@@ -15100,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="3"/>
       <c r="C86" s="9" t="s">
         <v>43</v>
@@ -15131,7 +15139,7 @@
       <c r="Y86" s="15"/>
       <c r="AA86" s="17"/>
     </row>
-    <row r="87" spans="2:27">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="3"/>
       <c r="C87" s="9" t="s">
         <v>44</v>
@@ -15162,7 +15170,7 @@
       <c r="Y87" s="15"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="2:27">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B88" s="3"/>
       <c r="C88" s="9" t="s">
         <v>45</v>
@@ -15193,7 +15201,7 @@
       <c r="Y88" s="15"/>
       <c r="AA88" s="17"/>
     </row>
-    <row r="89" spans="2:27">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C89" s="9" t="s">
         <v>46</v>
       </c>
@@ -15226,7 +15234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:27">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C90" s="9" t="s">
         <v>48</v>
       </c>
@@ -15259,7 +15267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:27">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C91" s="41" t="s">
         <v>37</v>
       </c>
@@ -15353,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:27">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C92" s="41" t="s">
         <v>2</v>
       </c>
@@ -15444,7 +15452,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C93" s="6" t="s">
         <v>38</v>
       </c>
@@ -15540,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:27">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B94" s="12" t="s">
         <v>71</v>
       </c>
@@ -15635,13 +15643,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:27">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C97" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
         <v>0</v>
       </c>
@@ -15683,7 +15691,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="2:27">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C99" s="46" t="s">
         <v>2</v>
       </c>
@@ -15774,7 +15782,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C100" s="6" t="s">
         <v>38</v>
       </c>
@@ -15870,7 +15878,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="101" spans="2:27">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B101" s="12" t="s">
         <v>72</v>
       </c>
@@ -15965,7 +15973,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="103" spans="2:27">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>41</v>
       </c>
@@ -16001,7 +16009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:27">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B104" s="3"/>
       <c r="C104" s="9" t="s">
         <v>43</v>
@@ -16032,7 +16040,7 @@
       <c r="Y104" s="15"/>
       <c r="AA104" s="17"/>
     </row>
-    <row r="105" spans="2:27">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B105" s="3"/>
       <c r="C105" s="9" t="s">
         <v>44</v>
@@ -16063,7 +16071,7 @@
       <c r="Y105" s="15"/>
       <c r="AA105" s="17"/>
     </row>
-    <row r="106" spans="2:27">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B106" s="3"/>
       <c r="C106" s="9" t="s">
         <v>45</v>
@@ -16094,7 +16102,7 @@
       <c r="Y106" s="15"/>
       <c r="AA106" s="17"/>
     </row>
-    <row r="107" spans="2:27">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C107" s="9" t="s">
         <v>46</v>
       </c>
@@ -16127,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:27">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C108" s="9" t="s">
         <v>48</v>
       </c>
@@ -16160,7 +16168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:27">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C109" s="46" t="s">
         <v>37</v>
       </c>
@@ -16254,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:27">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C110" s="46" t="s">
         <v>2</v>
       </c>
@@ -16345,7 +16353,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C111" s="6" t="s">
         <v>38</v>
       </c>
@@ -16441,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:27">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B112" s="12" t="s">
         <v>73</v>
       </c>
@@ -16552,11 +16560,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -16572,7 +16580,7 @@
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16587,7 +16595,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16602,7 +16610,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="114_{87DB3B06-595E-984E-9A06-F9DF75677CD6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F88D8567-FABD-2D43-A408-E227F332B289}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4352021-31E3-43EC-A03D-85E668148AA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="20544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Status-1'!$A$1:$P$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -2222,10 +2214,10 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5760000000000005</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4459,25 +4451,25 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5760000000000005</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.78</c:v>
+                  <c:v>6.0520000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6779,43 +6771,43 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5760000000000005</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.78</c:v>
+                  <c:v>6.0520000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9201,55 +9193,55 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8280000000000003</c:v>
+                  <c:v>4.9640000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5760000000000005</c:v>
+                  <c:v>5.78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.78</c:v>
+                  <c:v>6.0520000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.78</c:v>
+                  <c:v>6.1880000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10919,33 +10911,33 @@
   <dimension ref="B2:AD112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.44140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10953,7 +10945,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10961,7 +10953,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
@@ -10970,10 +10962,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10984,7 +10976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
@@ -11053,7 +11045,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -11084,7 +11076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -11102,13 +11094,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -11184,7 +11176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C15" s="19" t="s">
         <v>2</v>
       </c>
@@ -11275,7 +11267,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11371,7 +11363,7 @@
         <v>11.356799999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>63</v>
       </c>
@@ -11466,10 +11458,10 @@
         <v>11.356799999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
       <c r="AA18" s="16"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
@@ -11533,7 +11525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>54</v>
       </c>
@@ -11574,7 +11566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
         <v>58</v>
       </c>
@@ -11615,7 +11607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C22" s="19" t="s">
         <v>37</v>
       </c>
@@ -11704,7 +11696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C23" s="19" t="s">
         <v>2</v>
       </c>
@@ -11795,7 +11787,7 @@
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
@@ -11891,7 +11883,7 @@
         <v>6.442800000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
         <v>47</v>
       </c>
@@ -11986,14 +11978,14 @@
         <v>6.442800000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="3"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
@@ -12041,7 +12033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -12132,7 +12124,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
@@ -12228,7 +12220,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>64</v>
       </c>
@@ -12323,7 +12315,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12346,11 +12338,17 @@
         <v>18</v>
       </c>
       <c r="I33" s="15">
-        <v>0</v>
-      </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="J33" s="15">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
+        <v>1</v>
+      </c>
+      <c r="L33" s="15">
+        <v>2</v>
+      </c>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
@@ -12366,10 +12364,10 @@
       <c r="Y33" s="15"/>
       <c r="AA33" s="17">
         <f>SUM(E33:Y33)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
         <v>53</v>
@@ -12406,7 +12404,7 @@
       <c r="Y34" s="15"/>
       <c r="AA34" s="17"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="9" t="s">
         <v>54</v>
@@ -12447,7 +12445,7 @@
       <c r="Y35" s="15"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
         <v>56</v>
@@ -12482,7 +12480,7 @@
       <c r="Y36" s="15"/>
       <c r="AA36" s="17"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C37" s="9" t="s">
         <v>60</v>
       </c>
@@ -12517,7 +12515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
         <v>48</v>
       </c>
@@ -12550,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C39" s="25" t="s">
         <v>37</v>
       </c>
@@ -12573,19 +12571,19 @@
       </c>
       <c r="I39" s="27">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J39" s="27">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" ref="K39" si="82">SUM(K33:K38)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L39" s="27">
         <f t="shared" ref="L39" si="83">SUM(L33:L38)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="27">
         <f t="shared" ref="M39" si="84">SUM(M33:M38)</f>
@@ -12641,10 +12639,10 @@
       </c>
       <c r="AA39" s="27">
         <f t="shared" si="76"/>
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C40" s="25" t="s">
         <v>2</v>
       </c>
@@ -12667,75 +12665,75 @@
       </c>
       <c r="I40" s="26">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J40" s="26">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K40" s="26">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M40" s="26">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N40" s="26">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O40" s="26">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="P40" s="26">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="26">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R40" s="26">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="S40" s="26">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="T40" s="26">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="U40" s="26">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="V40" s="26">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="W40" s="26">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
@@ -12760,19 +12758,19 @@
       </c>
       <c r="I41" s="8">
         <f t="shared" si="116"/>
-        <v>1.292</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="116"/>
-        <v>0.748</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="K41" s="8">
         <f t="shared" si="116"/>
-        <v>0.20399999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="M41" s="8">
         <f t="shared" si="116"/>
@@ -12828,10 +12826,10 @@
       </c>
       <c r="AA41" s="8">
         <f>SUM(E41:Y41)</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>65</v>
       </c>
@@ -12859,80 +12857,80 @@
       </c>
       <c r="I42" s="8">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>4.8280000000000003</v>
+        <v>4.9640000000000004</v>
       </c>
       <c r="J42" s="8">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>5.5760000000000005</v>
+        <v>5.78</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>5.78</v>
+        <v>6.0520000000000005</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>5.78</v>
+        <v>6.1880000000000006</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -12976,7 +12974,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
@@ -13067,7 +13065,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
@@ -13163,7 +13161,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>67</v>
       </c>
@@ -13258,7 +13256,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>41</v>
       </c>
@@ -13294,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="9" t="s">
         <v>43</v>
@@ -13325,7 +13323,7 @@
       <c r="Y51" s="15"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -13356,7 +13354,7 @@
       <c r="Y52" s="15"/>
       <c r="AA52" s="17"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -13387,7 +13385,7 @@
       <c r="Y53" s="15"/>
       <c r="AA53" s="17"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
         <v>46</v>
       </c>
@@ -13420,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C55" s="9" t="s">
         <v>48</v>
       </c>
@@ -13453,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C56" s="29" t="s">
         <v>37</v>
       </c>
@@ -13547,7 +13545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
@@ -13638,7 +13636,7 @@
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C58" s="6" t="s">
         <v>38</v>
       </c>
@@ -13734,7 +13732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>66</v>
       </c>
@@ -13829,13 +13827,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
@@ -13887,7 +13885,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C63" s="36" t="s">
         <v>2</v>
       </c>
@@ -13978,7 +13976,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C64" s="6" t="s">
         <v>38</v>
       </c>
@@ -14074,7 +14072,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>68</v>
       </c>
@@ -14169,7 +14167,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>41</v>
       </c>
@@ -14205,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="9" t="s">
         <v>43</v>
@@ -14236,7 +14234,7 @@
       <c r="Y68" s="15"/>
       <c r="AA68" s="17"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="9" t="s">
         <v>44</v>
@@ -14267,7 +14265,7 @@
       <c r="Y69" s="15"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="9" t="s">
         <v>45</v>
@@ -14298,7 +14296,7 @@
       <c r="Y70" s="15"/>
       <c r="AA70" s="17"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C71" s="9" t="s">
         <v>46</v>
       </c>
@@ -14331,7 +14329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
         <v>48</v>
       </c>
@@ -14364,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C73" s="36" t="s">
         <v>37</v>
       </c>
@@ -14458,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C74" s="36" t="s">
         <v>2</v>
       </c>
@@ -14549,7 +14547,7 @@
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C75" s="6" t="s">
         <v>38</v>
       </c>
@@ -14645,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>69</v>
       </c>
@@ -14740,13 +14738,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
         <v>0</v>
       </c>
@@ -14790,7 +14788,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C81" s="41" t="s">
         <v>2</v>
       </c>
@@ -14881,7 +14879,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C82" s="6" t="s">
         <v>38</v>
       </c>
@@ -14977,7 +14975,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>70</v>
       </c>
@@ -15072,7 +15070,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B85" s="4" t="s">
         <v>41</v>
       </c>
@@ -15108,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
       <c r="C86" s="9" t="s">
         <v>43</v>
@@ -15139,7 +15137,7 @@
       <c r="Y86" s="15"/>
       <c r="AA86" s="17"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
       <c r="C87" s="9" t="s">
         <v>44</v>
@@ -15170,7 +15168,7 @@
       <c r="Y87" s="15"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
       <c r="C88" s="9" t="s">
         <v>45</v>
@@ -15201,7 +15199,7 @@
       <c r="Y88" s="15"/>
       <c r="AA88" s="17"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C89" s="9" t="s">
         <v>46</v>
       </c>
@@ -15234,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C90" s="9" t="s">
         <v>48</v>
       </c>
@@ -15267,7 +15265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C91" s="41" t="s">
         <v>37</v>
       </c>
@@ -15361,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C92" s="41" t="s">
         <v>2</v>
       </c>
@@ -15452,7 +15450,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C93" s="6" t="s">
         <v>38</v>
       </c>
@@ -15548,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>71</v>
       </c>
@@ -15643,13 +15641,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C97" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
         <v>0</v>
       </c>
@@ -15691,7 +15689,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C99" s="46" t="s">
         <v>2</v>
       </c>
@@ -15782,7 +15780,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C100" s="6" t="s">
         <v>38</v>
       </c>
@@ -15878,7 +15876,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>72</v>
       </c>
@@ -15973,7 +15971,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
         <v>41</v>
       </c>
@@ -16009,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
       <c r="C104" s="9" t="s">
         <v>43</v>
@@ -16040,7 +16038,7 @@
       <c r="Y104" s="15"/>
       <c r="AA104" s="17"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="9" t="s">
         <v>44</v>
@@ -16071,7 +16069,7 @@
       <c r="Y105" s="15"/>
       <c r="AA105" s="17"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="9" t="s">
         <v>45</v>
@@ -16102,7 +16100,7 @@
       <c r="Y106" s="15"/>
       <c r="AA106" s="17"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C107" s="9" t="s">
         <v>46</v>
       </c>
@@ -16135,7 +16133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C108" s="9" t="s">
         <v>48</v>
       </c>
@@ -16168,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C109" s="46" t="s">
         <v>37</v>
       </c>
@@ -16262,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C110" s="46" t="s">
         <v>2</v>
       </c>
@@ -16353,7 +16351,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C111" s="6" t="s">
         <v>38</v>
       </c>
@@ -16449,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>73</v>
       </c>
@@ -16564,7 +16562,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -16576,11 +16574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16595,7 +16593,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16610,7 +16608,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C4352021-31E3-43EC-A03D-85E668148AA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="114_{E1DC5FB2-3482-2245-BA8E-DE13D287D19B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{01CBF61D-2B00-C04E-AE76-E3BDF0B6B07A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="33600" windowHeight="20544" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Status-1'!$A$1:$P$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Status-2'!$A$1:$S$32</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2214,10 +2223,10 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9640000000000004</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.78</c:v>
+                  <c:v>5.3040000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,7 +2799,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, Status 2</a:t>
+              <a:t>Team-1 Personalkosten, Status 2</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -4170,10 +4179,10 @@
                   <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.0232000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4451,25 +4460,25 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9640000000000004</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.78</c:v>
+                  <c:v>5.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0520000000000005</c:v>
+                  <c:v>5.5760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4531,19 +4540,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4607,16 +4616,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5037,8 +5046,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6472,28 +6481,28 @@
                   <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.0232000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2588000000000008</c:v>
+                  <c:v>6.0060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3680000000000012</c:v>
+                  <c:v>6.1152000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5864000000000011</c:v>
+                  <c:v>6.3336000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6956000000000016</c:v>
+                  <c:v>6.442800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6771,43 +6780,43 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9640000000000004</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.78</c:v>
+                  <c:v>5.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0520000000000005</c:v>
+                  <c:v>5.5760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6869,37 +6878,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6963,34 +6972,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8882,40 +8891,40 @@
                   <c:v>4.1496000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.0232000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1496000000000004</c:v>
+                  <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2588000000000008</c:v>
+                  <c:v>6.0060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3680000000000012</c:v>
+                  <c:v>6.1152000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5864000000000011</c:v>
+                  <c:v>6.3336000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.6956000000000016</c:v>
+                  <c:v>6.442800000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1324000000000014</c:v>
+                  <c:v>6.8796000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5692000000000013</c:v>
+                  <c:v>7.3164000000000007</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0060000000000011</c:v>
+                  <c:v>7.7532000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.442800000000001</c:v>
+                  <c:v>8.1900000000000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9193,55 +9202,55 @@
                   <c:v>3.5360000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9640000000000004</c:v>
+                  <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.78</c:v>
+                  <c:v>5.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0520000000000005</c:v>
+                  <c:v>5.5760000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1880000000000006</c:v>
+                  <c:v>5.7120000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9303,49 +9312,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.224</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.448</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.4399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>7.0719999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9409,46 +9418,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>12.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10910,34 +10919,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AD112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E71" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="29" workbookViewId="0">
+      <pane xSplit="4" ySplit="10" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="25" width="8.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.5" style="1" customWidth="1"/>
     <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
     <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>34</v>
       </c>
@@ -10945,7 +10954,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
@@ -10953,7 +10962,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>51</v>
       </c>
@@ -10962,10 +10971,10 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.15">
       <c r="AA8" s="13"/>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.15">
       <c r="J9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -10976,7 +10985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E10" s="10" t="s">
         <v>3</v>
       </c>
@@ -11045,7 +11054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
@@ -11076,7 +11085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -11094,13 +11103,13 @@
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>0</v>
       </c>
@@ -11176,7 +11185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C15" s="19" t="s">
         <v>2</v>
       </c>
@@ -11267,7 +11276,7 @@
       </c>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C16" s="6" t="s">
         <v>38</v>
       </c>
@@ -11363,7 +11372,7 @@
         <v>11.356799999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>63</v>
       </c>
@@ -11458,10 +11467,10 @@
         <v>11.356799999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:30" x14ac:dyDescent="0.15">
       <c r="AA18" s="16"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
         <v>41</v>
       </c>
@@ -11489,11 +11498,21 @@
       <c r="J19" s="15">
         <v>2</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
+        <v>4</v>
+      </c>
+      <c r="M19" s="15">
+        <v>4</v>
+      </c>
+      <c r="N19" s="15">
+        <v>4</v>
+      </c>
+      <c r="O19" s="15">
+        <v>4</v>
+      </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15">
@@ -11522,10 +11541,10 @@
       </c>
       <c r="AA19" s="17">
         <f>SUM(E19:Y19)</f>
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C20" s="9" t="s">
         <v>54</v>
       </c>
@@ -11566,7 +11585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C21" s="9" t="s">
         <v>58</v>
       </c>
@@ -11587,11 +11606,21 @@
       <c r="J21" s="15">
         <v>2</v>
       </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="K21" s="15">
+        <v>2</v>
+      </c>
+      <c r="L21" s="15">
+        <v>4</v>
+      </c>
+      <c r="M21" s="15">
+        <v>4</v>
+      </c>
+      <c r="N21" s="15">
+        <v>4</v>
+      </c>
+      <c r="O21" s="15">
+        <v>4</v>
+      </c>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
@@ -11604,10 +11633,10 @@
       <c r="Y21" s="15"/>
       <c r="AA21" s="17">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C22" s="19" t="s">
         <v>37</v>
       </c>
@@ -11645,11 +11674,11 @@
       </c>
       <c r="N22" s="20">
         <f t="shared" ref="N22" si="5">SUM(N19:N21)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O22" s="20">
         <f t="shared" ref="O22" si="6">SUM(O19:O21)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P22" s="20">
         <f t="shared" ref="P22" si="7">SUM(P19:P21)</f>
@@ -11693,10 +11722,10 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C23" s="19" t="s">
         <v>2</v>
       </c>
@@ -11739,55 +11768,55 @@
       </c>
       <c r="N23" s="22">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="O23" s="22">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="P23" s="22">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="22">
         <f t="shared" si="17"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="R23" s="22">
         <f t="shared" si="17"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="S23" s="22">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T23" s="22">
         <f t="shared" si="17"/>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="U23" s="22">
         <f t="shared" si="17"/>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="V23" s="22">
         <f t="shared" si="17"/>
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="W23" s="22">
         <f t="shared" si="17"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="X23" s="22">
         <f t="shared" si="17"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Y23" s="22">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C24" s="6" t="s">
         <v>38</v>
       </c>
@@ -11832,11 +11861,11 @@
       </c>
       <c r="N24" s="8">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="O24" s="8">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.87360000000000004</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="18"/>
@@ -11880,10 +11909,10 @@
       </c>
       <c r="AA24" s="8">
         <f>SUM(E24:Y24)</f>
-        <v>6.442800000000001</v>
+        <v>8.1900000000000013</v>
       </c>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
         <v>47</v>
       </c>
@@ -11931,61 +11960,61 @@
       </c>
       <c r="N25" s="8">
         <f t="shared" ref="N25" si="26">M25+N24</f>
-        <v>4.1496000000000004</v>
+        <v>5.0232000000000001</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" ref="O25" si="27">N25+O24</f>
-        <v>4.1496000000000004</v>
+        <v>5.8967999999999998</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>4.1496000000000004</v>
+        <v>5.8967999999999998</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>4.1496000000000004</v>
+        <v>5.8967999999999998</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>4.2588000000000008</v>
+        <v>6.0060000000000002</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>4.3680000000000012</v>
+        <v>6.1152000000000006</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>4.5864000000000011</v>
+        <v>6.3336000000000006</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>4.6956000000000016</v>
+        <v>6.442800000000001</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>5.1324000000000014</v>
+        <v>6.8796000000000008</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>5.5692000000000013</v>
+        <v>7.3164000000000007</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>6.0060000000000011</v>
+        <v>7.7532000000000005</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>6.442800000000001</v>
+        <v>8.1900000000000013</v>
       </c>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D27" s="3"/>
       <c r="AD27" s="28"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
         <v>0</v>
       </c>
@@ -12033,7 +12062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -12124,7 +12153,7 @@
       </c>
       <c r="AA29" s="5"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
@@ -12220,7 +12249,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
         <v>64</v>
       </c>
@@ -12315,7 +12344,7 @@
         <v>5.7119999999999997</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
@@ -12367,7 +12396,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
         <v>53</v>
@@ -12404,7 +12433,7 @@
       <c r="Y34" s="15"/>
       <c r="AA34" s="17"/>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="9" t="s">
         <v>54</v>
@@ -12445,7 +12474,7 @@
       <c r="Y35" s="15"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
         <v>56</v>
@@ -12480,7 +12509,7 @@
       <c r="Y36" s="15"/>
       <c r="AA36" s="17"/>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C37" s="9" t="s">
         <v>60</v>
       </c>
@@ -12515,7 +12544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C38" s="9" t="s">
         <v>48</v>
       </c>
@@ -12526,7 +12555,9 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="15">
+        <v>-7</v>
+      </c>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -12545,10 +12576,10 @@
       <c r="Y38" s="15"/>
       <c r="AA38" s="17">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C39" s="25" t="s">
         <v>37</v>
       </c>
@@ -12571,7 +12602,7 @@
       </c>
       <c r="I39" s="27">
         <f t="shared" ref="I39" si="80">SUM(I33:I38)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J39" s="27">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
@@ -12639,10 +12670,10 @@
       </c>
       <c r="AA39" s="27">
         <f t="shared" si="76"/>
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C40" s="25" t="s">
         <v>2</v>
       </c>
@@ -12665,75 +12696,75 @@
       </c>
       <c r="I40" s="26">
         <f t="shared" ref="I40" si="99">H40+I39</f>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="J40" s="26">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K40" s="26">
         <f t="shared" ref="K40" si="101">J40+K39</f>
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L40" s="26">
         <f t="shared" ref="L40" si="102">K40+L39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="M40" s="26">
         <f t="shared" ref="M40" si="103">L40+M39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="N40" s="26">
         <f t="shared" ref="N40" si="104">M40+N39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O40" s="26">
         <f t="shared" ref="O40" si="105">N40+O39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="P40" s="26">
         <f t="shared" ref="P40" si="106">O40+P39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Q40" s="26">
         <f t="shared" ref="Q40" si="107">P40+Q39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="R40" s="26">
         <f t="shared" ref="R40" si="108">Q40+R39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="S40" s="26">
         <f t="shared" ref="S40" si="109">R40+S39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="T40" s="26">
         <f t="shared" ref="T40" si="110">S40+T39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="U40" s="26">
         <f t="shared" ref="U40" si="111">T40+U39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="V40" s="26">
         <f t="shared" ref="V40" si="112">U40+V39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="W40" s="26">
         <f t="shared" ref="W40" si="113">V40+W39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="X40" s="26">
         <f t="shared" ref="X40" si="114">W40+X39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="Y40" s="26">
         <f t="shared" ref="Y40" si="115">X40+Y39</f>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AA40" s="5"/>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
@@ -12758,7 +12789,7 @@
       </c>
       <c r="I41" s="8">
         <f t="shared" si="116"/>
-        <v>1.4279999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="J41" s="8">
         <f t="shared" si="116"/>
@@ -12826,10 +12857,10 @@
       </c>
       <c r="AA41" s="8">
         <f>SUM(E41:Y41)</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
         <v>65</v>
       </c>
@@ -12857,80 +12888,80 @@
       </c>
       <c r="I42" s="8">
         <f t="shared" ref="I42" si="119">H42+I41</f>
-        <v>4.9640000000000004</v>
+        <v>4.4880000000000004</v>
       </c>
       <c r="J42" s="8">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>5.78</v>
+        <v>5.3040000000000003</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42" si="121">J42+K41</f>
-        <v>6.0520000000000005</v>
+        <v>5.5760000000000005</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" ref="L42" si="122">K42+L41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="M42" s="8">
         <f t="shared" ref="M42" si="123">L42+M41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="N42" s="8">
         <f t="shared" ref="N42" si="124">M42+N41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="O42" s="8">
         <f t="shared" ref="O42" si="125">N42+O41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="P42" s="8">
         <f t="shared" ref="P42" si="126">O42+P41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="Q42" s="8">
         <f t="shared" ref="Q42" si="127">P42+Q41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="R42" s="8">
         <f t="shared" ref="R42" si="128">Q42+R41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="S42" s="8">
         <f t="shared" ref="S42" si="129">R42+S41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="T42" s="8">
         <f t="shared" ref="T42" si="130">S42+T41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="U42" s="8">
         <f t="shared" ref="U42" si="131">T42+U41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="V42" s="8">
         <f t="shared" ref="V42" si="132">U42+V41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="W42" s="8">
         <f t="shared" ref="W42" si="133">V42+W41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="X42" s="8">
         <f t="shared" ref="X42" si="134">W42+X41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
       <c r="Y42" s="8">
         <f t="shared" ref="Y42" si="135">X42+Y41</f>
-        <v>6.1880000000000006</v>
+        <v>5.7120000000000006</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>0</v>
       </c>
@@ -12974,7 +13005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C46" s="29" t="s">
         <v>2</v>
       </c>
@@ -13065,7 +13096,7 @@
       </c>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
@@ -13161,7 +13192,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
         <v>67</v>
       </c>
@@ -13256,7 +13287,7 @@
         <v>7.3440000000000003</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B50" s="4" t="s">
         <v>41</v>
       </c>
@@ -13292,7 +13323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
       <c r="C51" s="9" t="s">
         <v>43</v>
@@ -13323,7 +13354,7 @@
       <c r="Y51" s="15"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
       <c r="C52" s="9" t="s">
         <v>44</v>
@@ -13354,7 +13385,7 @@
       <c r="Y52" s="15"/>
       <c r="AA52" s="17"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
         <v>45</v>
@@ -13385,7 +13416,7 @@
       <c r="Y53" s="15"/>
       <c r="AA53" s="17"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C54" s="9" t="s">
         <v>46</v>
       </c>
@@ -13418,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C55" s="9" t="s">
         <v>48</v>
       </c>
@@ -13431,11 +13462,21 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
+      <c r="K55" s="15">
+        <v>18</v>
+      </c>
+      <c r="L55" s="15">
+        <v>18</v>
+      </c>
+      <c r="M55" s="15">
+        <v>22</v>
+      </c>
+      <c r="N55" s="15">
+        <v>22</v>
+      </c>
+      <c r="O55" s="15">
+        <v>24</v>
+      </c>
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
@@ -13448,10 +13489,10 @@
       <c r="Y55" s="15"/>
       <c r="AA55" s="17">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C56" s="29" t="s">
         <v>37</v>
       </c>
@@ -13482,23 +13523,23 @@
       </c>
       <c r="K56" s="33">
         <f t="shared" ref="K56" si="180">SUM(K50:K55)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L56" s="33">
         <f t="shared" ref="L56" si="181">SUM(L50:L55)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M56" s="33">
         <f t="shared" ref="M56" si="182">SUM(M50:M55)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N56" s="33">
         <f t="shared" ref="N56" si="183">SUM(N50:N55)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O56" s="33">
         <f t="shared" ref="O56" si="184">SUM(O50:O55)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P56" s="33">
         <f t="shared" ref="P56" si="185">SUM(P50:P55)</f>
@@ -13542,10 +13583,10 @@
       </c>
       <c r="AA56" s="33">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C57" s="29" t="s">
         <v>2</v>
       </c>
@@ -13576,67 +13617,67 @@
       </c>
       <c r="K57" s="32">
         <f t="shared" ref="K57" si="199">J57+K56</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L57" s="32">
         <f t="shared" ref="L57" si="200">K57+L56</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M57" s="32">
         <f t="shared" ref="M57" si="201">L57+M56</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N57" s="32">
         <f t="shared" ref="N57" si="202">M57+N56</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O57" s="32">
         <f t="shared" ref="O57" si="203">N57+O56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="P57" s="32">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q57" s="32">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="R57" s="32">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="S57" s="32">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="T57" s="32">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="U57" s="32">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="V57" s="32">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="W57" s="32">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="X57" s="32">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Y57" s="32">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C58" s="6" t="s">
         <v>38</v>
       </c>
@@ -13669,23 +13710,23 @@
       </c>
       <c r="K58" s="8">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1.224</v>
       </c>
       <c r="L58" s="8">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1.224</v>
       </c>
       <c r="M58" s="8">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1.496</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1.496</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="214"/>
@@ -13729,10 +13770,10 @@
       </c>
       <c r="AA58" s="8">
         <f>SUM(E58:Y58)</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="12" t="s">
         <v>66</v>
       </c>
@@ -13768,72 +13809,72 @@
       </c>
       <c r="K59" s="8">
         <f t="shared" ref="K59" si="219">J59+K58</f>
-        <v>0</v>
+        <v>1.224</v>
       </c>
       <c r="L59" s="8">
         <f t="shared" ref="L59" si="220">K59+L58</f>
-        <v>0</v>
+        <v>2.448</v>
       </c>
       <c r="M59" s="8">
         <f t="shared" ref="M59" si="221">L59+M58</f>
-        <v>0</v>
+        <v>3.944</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" ref="N59" si="222">M59+N58</f>
-        <v>0</v>
+        <v>5.4399999999999995</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" ref="O59" si="223">N59+O58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="S59" s="8">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="T59" s="8">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="U59" s="8">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="V59" s="8">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="W59" s="8">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="X59" s="8">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
       <c r="Y59" s="8">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>0</v>
+        <v>7.0719999999999992</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
@@ -13885,7 +13926,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C63" s="36" t="s">
         <v>2</v>
       </c>
@@ -13976,7 +14017,7 @@
       </c>
       <c r="AA63" s="5"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C64" s="6" t="s">
         <v>38</v>
       </c>
@@ -14072,7 +14113,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="12" t="s">
         <v>68</v>
       </c>
@@ -14167,7 +14208,7 @@
         <v>36.72</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="4" t="s">
         <v>41</v>
       </c>
@@ -14203,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
       <c r="C68" s="9" t="s">
         <v>43</v>
@@ -14234,7 +14275,7 @@
       <c r="Y68" s="15"/>
       <c r="AA68" s="17"/>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="3"/>
       <c r="C69" s="9" t="s">
         <v>44</v>
@@ -14265,7 +14306,7 @@
       <c r="Y69" s="15"/>
       <c r="AA69" s="17"/>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
       <c r="C70" s="9" t="s">
         <v>45</v>
@@ -14296,7 +14337,7 @@
       <c r="Y70" s="15"/>
       <c r="AA70" s="17"/>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C71" s="9" t="s">
         <v>46</v>
       </c>
@@ -14329,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C72" s="9" t="s">
         <v>48</v>
       </c>
@@ -14343,10 +14384,18 @@
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
+      <c r="L72" s="15">
+        <v>40</v>
+      </c>
+      <c r="M72" s="15">
+        <v>70</v>
+      </c>
+      <c r="N72" s="15">
+        <v>70</v>
+      </c>
+      <c r="O72" s="15">
+        <v>70</v>
+      </c>
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
       <c r="R72" s="15"/>
@@ -14359,10 +14408,10 @@
       <c r="Y72" s="15"/>
       <c r="AA72" s="17">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C73" s="36" t="s">
         <v>37</v>
       </c>
@@ -14397,19 +14446,19 @@
       </c>
       <c r="L73" s="38">
         <f t="shared" ref="L73" si="279">SUM(L67:L72)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M73" s="38">
         <f t="shared" ref="M73" si="280">SUM(M67:M72)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N73" s="38">
         <f t="shared" ref="N73" si="281">SUM(N67:N72)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O73" s="38">
         <f t="shared" ref="O73" si="282">SUM(O67:O72)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P73" s="38">
         <f t="shared" ref="P73" si="283">SUM(P67:P72)</f>
@@ -14453,10 +14502,10 @@
       </c>
       <c r="AA73" s="38">
         <f t="shared" si="272"/>
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C74" s="36" t="s">
         <v>2</v>
       </c>
@@ -14491,63 +14540,63 @@
       </c>
       <c r="L74" s="37">
         <f t="shared" ref="L74" si="298">K74+L73</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M74" s="37">
         <f t="shared" ref="M74" si="299">L74+M73</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N74" s="37">
         <f t="shared" ref="N74" si="300">M74+N73</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="O74" s="37">
         <f t="shared" ref="O74" si="301">N74+O73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="P74" s="37">
         <f t="shared" ref="P74" si="302">O74+P73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Q74" s="37">
         <f t="shared" ref="Q74" si="303">P74+Q73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="R74" s="37">
         <f t="shared" ref="R74" si="304">Q74+R73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="S74" s="37">
         <f t="shared" ref="S74" si="305">R74+S73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T74" s="37">
         <f t="shared" ref="T74" si="306">S74+T73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="U74" s="37">
         <f t="shared" ref="U74" si="307">T74+U73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="V74" s="37">
         <f t="shared" ref="V74" si="308">U74+V73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="W74" s="37">
         <f t="shared" ref="W74" si="309">V74+W73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="X74" s="37">
         <f t="shared" ref="X74" si="310">W74+X73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="Y74" s="37">
         <f t="shared" ref="Y74" si="311">X74+Y73</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C75" s="6" t="s">
         <v>38</v>
       </c>
@@ -14584,19 +14633,19 @@
       </c>
       <c r="L75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="M75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="N75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="O75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="P75" s="8">
         <f t="shared" si="312"/>
@@ -14640,10 +14689,10 @@
       </c>
       <c r="AA75" s="8">
         <f>SUM(E75:Y75)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="12" t="s">
         <v>69</v>
       </c>
@@ -14683,68 +14732,68 @@
       </c>
       <c r="L76" s="8">
         <f t="shared" ref="L76" si="318">K76+L75</f>
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="M76" s="8">
         <f t="shared" ref="M76" si="319">L76+M75</f>
-        <v>0</v>
+        <v>7.48</v>
       </c>
       <c r="N76" s="8">
         <f t="shared" ref="N76" si="320">M76+N75</f>
-        <v>0</v>
+        <v>12.24</v>
       </c>
       <c r="O76" s="8">
         <f t="shared" ref="O76" si="321">N76+O75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="P76" s="8">
         <f t="shared" ref="P76" si="322">O76+P75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" ref="Q76" si="323">P76+Q75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" ref="R76" si="324">Q76+R75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S76" s="8">
         <f t="shared" ref="S76" si="325">R76+S75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="T76" s="8">
         <f t="shared" ref="T76" si="326">S76+T75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U76" s="8">
         <f t="shared" ref="U76" si="327">T76+U75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V76" s="8">
         <f t="shared" ref="V76" si="328">U76+V75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="W76" s="8">
         <f t="shared" ref="W76" si="329">V76+W75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="X76" s="8">
         <f t="shared" ref="X76" si="330">W76+X75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y76" s="8">
         <f t="shared" ref="Y76" si="331">X76+Y75</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B80" s="4" t="s">
         <v>0</v>
       </c>
@@ -14788,7 +14837,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C81" s="41" t="s">
         <v>2</v>
       </c>
@@ -14879,7 +14928,7 @@
       </c>
       <c r="AA81" s="5"/>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C82" s="6" t="s">
         <v>38</v>
       </c>
@@ -14975,7 +15024,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B83" s="12" t="s">
         <v>70</v>
       </c>
@@ -15070,7 +15119,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B85" s="4" t="s">
         <v>41</v>
       </c>
@@ -15106,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="3"/>
       <c r="C86" s="9" t="s">
         <v>43</v>
@@ -15137,7 +15186,7 @@
       <c r="Y86" s="15"/>
       <c r="AA86" s="17"/>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="3"/>
       <c r="C87" s="9" t="s">
         <v>44</v>
@@ -15168,7 +15217,7 @@
       <c r="Y87" s="15"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B88" s="3"/>
       <c r="C88" s="9" t="s">
         <v>45</v>
@@ -15199,7 +15248,7 @@
       <c r="Y88" s="15"/>
       <c r="AA88" s="17"/>
     </row>
-    <row r="89" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C89" s="9" t="s">
         <v>46</v>
       </c>
@@ -15232,7 +15281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C90" s="9" t="s">
         <v>48</v>
       </c>
@@ -15265,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C91" s="41" t="s">
         <v>37</v>
       </c>
@@ -15359,7 +15408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C92" s="41" t="s">
         <v>2</v>
       </c>
@@ -15450,7 +15499,7 @@
       </c>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C93" s="6" t="s">
         <v>38</v>
       </c>
@@ -15546,7 +15595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B94" s="12" t="s">
         <v>71</v>
       </c>
@@ -15641,13 +15690,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C97" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B98" s="4" t="s">
         <v>0</v>
       </c>
@@ -15689,7 +15738,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C99" s="46" t="s">
         <v>2</v>
       </c>
@@ -15780,7 +15829,7 @@
       </c>
       <c r="AA99" s="5"/>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C100" s="6" t="s">
         <v>38</v>
       </c>
@@ -15876,7 +15925,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B101" s="12" t="s">
         <v>72</v>
       </c>
@@ -15971,7 +16020,7 @@
         <v>4.6920000000000002</v>
       </c>
     </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B103" s="4" t="s">
         <v>41</v>
       </c>
@@ -16007,7 +16056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B104" s="3"/>
       <c r="C104" s="9" t="s">
         <v>43</v>
@@ -16038,7 +16087,7 @@
       <c r="Y104" s="15"/>
       <c r="AA104" s="17"/>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B105" s="3"/>
       <c r="C105" s="9" t="s">
         <v>44</v>
@@ -16069,7 +16118,7 @@
       <c r="Y105" s="15"/>
       <c r="AA105" s="17"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B106" s="3"/>
       <c r="C106" s="9" t="s">
         <v>45</v>
@@ -16100,7 +16149,7 @@
       <c r="Y106" s="15"/>
       <c r="AA106" s="17"/>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C107" s="9" t="s">
         <v>46</v>
       </c>
@@ -16133,7 +16182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C108" s="9" t="s">
         <v>48</v>
       </c>
@@ -16166,7 +16215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C109" s="46" t="s">
         <v>37</v>
       </c>
@@ -16260,7 +16309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C110" s="46" t="s">
         <v>2</v>
       </c>
@@ -16351,7 +16400,7 @@
       </c>
       <c r="AA110" s="5"/>
     </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C111" s="6" t="s">
         <v>38</v>
       </c>
@@ -16447,7 +16496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B112" s="12" t="s">
         <v>73</v>
       </c>
@@ -16562,7 +16611,7 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -16572,15 +16621,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -16593,7 +16646,7 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16608,7 +16661,7 @@
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="35" documentId="114_{E1DC5FB2-3482-2245-BA8E-DE13D287D19B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{01CBF61D-2B00-C04E-AE76-E3BDF0B6B07A}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="114_{E1DC5FB2-3482-2245-BA8E-DE13D287D19B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C044FD71-A1B9-4640-8994-EF3CB1BC1068}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38100" windowHeight="21540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Status-1'!$A$1:$P$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Status-2'!$A$1:$S$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Status-3'!$A$1:$R$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5101,7 +5102,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, Status 3</a:t>
+              <a:t>Team-1 Personalkosten, Status 3</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -6487,22 +6488,22 @@
                   <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8967999999999998</c:v>
+                  <c:v>6.1151999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8967999999999998</c:v>
+                  <c:v>6.3335999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0060000000000002</c:v>
+                  <c:v>6.5519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1152000000000006</c:v>
+                  <c:v>6.7703999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3336000000000006</c:v>
+                  <c:v>6.9887999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.442800000000001</c:v>
+                  <c:v>7.4255999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6893,22 +6894,22 @@
                   <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6984,22 +6985,22 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>23.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>27.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>30.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7087,10 +7088,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8897,34 +8898,34 @@
                   <c:v>5.8967999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.8967999999999998</c:v>
+                  <c:v>6.1151999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8967999999999998</c:v>
+                  <c:v>6.3335999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0060000000000002</c:v>
+                  <c:v>6.5519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1152000000000006</c:v>
+                  <c:v>6.7703999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3336000000000006</c:v>
+                  <c:v>6.9887999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.442800000000001</c:v>
+                  <c:v>7.4255999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8796000000000008</c:v>
+                  <c:v>7.8623999999999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3164000000000007</c:v>
+                  <c:v>8.299199999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.7532000000000005</c:v>
+                  <c:v>8.7359999999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.1900000000000013</c:v>
+                  <c:v>9.1727999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9327,34 +9328,34 @@
                   <c:v>7.0719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>7.3439999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9430,34 +9431,34 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17</c:v>
+                  <c:v>23.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>27.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17</c:v>
+                  <c:v>30.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17</c:v>
+                  <c:v>32.639999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9545,22 +9546,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.944</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.944</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.944</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3.944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10920,10 +10921,10 @@
   <dimension ref="B2:AD112"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
+      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11513,19 +11514,23 @@
       <c r="O19" s="15">
         <v>4</v>
       </c>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
+      <c r="P19" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>2</v>
+      </c>
       <c r="R19" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="15">
         <v>2</v>
       </c>
       <c r="U19" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V19" s="15">
         <v>4</v>
@@ -11541,7 +11546,7 @@
       </c>
       <c r="AA19" s="17">
         <f>SUM(E19:Y19)</f>
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.15">
@@ -11682,19 +11687,19 @@
       </c>
       <c r="P22" s="20">
         <f t="shared" ref="P22" si="7">SUM(P19:P21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q22" s="20">
         <f t="shared" ref="Q22" si="8">SUM(Q19:Q21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="20">
         <f t="shared" ref="R22" si="9">SUM(R19:R21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="20">
         <f t="shared" ref="S22" si="10">SUM(S19:S21)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" s="20">
         <f t="shared" ref="T22" si="11">SUM(T19:T21)</f>
@@ -11702,7 +11707,7 @@
       </c>
       <c r="U22" s="20">
         <f t="shared" ref="U22" si="12">SUM(U19:U21)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" s="20">
         <f t="shared" ref="V22" si="13">SUM(V19:V21)</f>
@@ -11722,7 +11727,7 @@
       </c>
       <c r="AA22" s="20">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.15">
@@ -11776,43 +11781,43 @@
       </c>
       <c r="P23" s="22">
         <f t="shared" si="17"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="22">
         <f t="shared" si="17"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="R23" s="22">
         <f t="shared" si="17"/>
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="S23" s="22">
         <f t="shared" si="17"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="T23" s="22">
         <f t="shared" si="17"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="U23" s="22">
         <f t="shared" si="17"/>
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="V23" s="22">
         <f t="shared" si="17"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="W23" s="22">
         <f t="shared" si="17"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="X23" s="22">
         <f t="shared" si="17"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Y23" s="22">
         <f t="shared" si="17"/>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AA23" s="5"/>
     </row>
@@ -11869,19 +11874,19 @@
       </c>
       <c r="P24" s="8">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="18"/>
-        <v>0.10920000000000001</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="18"/>
-        <v>0.10920000000000001</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="18"/>
@@ -11889,7 +11894,7 @@
       </c>
       <c r="U24" s="8">
         <f t="shared" si="18"/>
-        <v>0.10920000000000001</v>
+        <v>0.43680000000000002</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="18"/>
@@ -11909,7 +11914,7 @@
       </c>
       <c r="AA24" s="8">
         <f>SUM(E24:Y24)</f>
-        <v>8.1900000000000013</v>
+        <v>9.1727999999999987</v>
       </c>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.15">
@@ -11968,43 +11973,43 @@
       </c>
       <c r="P25" s="8">
         <f t="shared" ref="P25" si="28">O25+P24</f>
-        <v>5.8967999999999998</v>
+        <v>6.1151999999999997</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" ref="Q25" si="29">P25+Q24</f>
-        <v>5.8967999999999998</v>
+        <v>6.3335999999999997</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" ref="R25" si="30">Q25+R24</f>
-        <v>6.0060000000000002</v>
+        <v>6.5519999999999996</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" ref="S25" si="31">R25+S24</f>
-        <v>6.1152000000000006</v>
+        <v>6.7703999999999995</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" ref="T25" si="32">S25+T24</f>
-        <v>6.3336000000000006</v>
+        <v>6.9887999999999995</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" ref="U25" si="33">T25+U24</f>
-        <v>6.442800000000001</v>
+        <v>7.4255999999999993</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" ref="V25" si="34">U25+V24</f>
-        <v>6.8796000000000008</v>
+        <v>7.8623999999999992</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" ref="W25" si="35">V25+W24</f>
-        <v>7.3164000000000007</v>
+        <v>8.299199999999999</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" ref="X25" si="36">W25+X24</f>
-        <v>7.7532000000000005</v>
+        <v>8.7359999999999989</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" ref="Y25" si="37">X25+Y24</f>
-        <v>8.1900000000000013</v>
+        <v>9.1727999999999987</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.15">
@@ -13477,7 +13482,9 @@
       <c r="O55" s="15">
         <v>24</v>
       </c>
-      <c r="P55" s="15"/>
+      <c r="P55" s="15">
+        <v>4</v>
+      </c>
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
@@ -13489,7 +13496,7 @@
       <c r="Y55" s="15"/>
       <c r="AA55" s="17">
         <f t="shared" si="174"/>
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.15">
@@ -13543,7 +13550,7 @@
       </c>
       <c r="P56" s="33">
         <f t="shared" ref="P56" si="185">SUM(P50:P55)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q56" s="33">
         <f t="shared" ref="Q56" si="186">SUM(Q50:Q55)</f>
@@ -13583,7 +13590,7 @@
       </c>
       <c r="AA56" s="33">
         <f t="shared" si="174"/>
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.15">
@@ -13637,43 +13644,43 @@
       </c>
       <c r="P57" s="32">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Q57" s="32">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R57" s="32">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="S57" s="32">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="T57" s="32">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="U57" s="32">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="V57" s="32">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="W57" s="32">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="X57" s="32">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="Y57" s="32">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -13730,7 +13737,7 @@
       </c>
       <c r="P58" s="8">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="214"/>
@@ -13770,7 +13777,7 @@
       </c>
       <c r="AA58" s="8">
         <f>SUM(E58:Y58)</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.15">
@@ -13829,43 +13836,43 @@
       </c>
       <c r="P59" s="8">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="S59" s="8">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="T59" s="8">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="U59" s="8">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="V59" s="8">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="W59" s="8">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="X59" s="8">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
       <c r="Y59" s="8">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>7.0719999999999992</v>
+        <v>7.3439999999999994</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.15">
@@ -14396,11 +14403,21 @@
       <c r="O72" s="15">
         <v>70</v>
       </c>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="15"/>
-      <c r="R72" s="15"/>
-      <c r="S72" s="15"/>
-      <c r="T72" s="15"/>
+      <c r="P72" s="15">
+        <v>50</v>
+      </c>
+      <c r="Q72" s="15">
+        <v>50</v>
+      </c>
+      <c r="R72" s="15">
+        <v>50</v>
+      </c>
+      <c r="S72" s="15">
+        <v>50</v>
+      </c>
+      <c r="T72" s="15">
+        <v>30</v>
+      </c>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
@@ -14408,7 +14425,7 @@
       <c r="Y72" s="15"/>
       <c r="AA72" s="17">
         <f t="shared" si="272"/>
-        <v>250</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.15">
@@ -14462,23 +14479,23 @@
       </c>
       <c r="P73" s="38">
         <f t="shared" ref="P73" si="283">SUM(P67:P72)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q73" s="38">
         <f t="shared" ref="Q73" si="284">SUM(Q67:Q72)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R73" s="38">
         <f t="shared" ref="R73" si="285">SUM(R67:R72)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S73" s="38">
         <f t="shared" ref="S73" si="286">SUM(S67:S72)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T73" s="38">
         <f t="shared" ref="T73" si="287">SUM(T67:T72)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U73" s="38">
         <f t="shared" ref="U73" si="288">SUM(U67:U72)</f>
@@ -14502,7 +14519,7 @@
       </c>
       <c r="AA73" s="38">
         <f t="shared" si="272"/>
-        <v>250</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.15">
@@ -14556,43 +14573,43 @@
       </c>
       <c r="P74" s="37">
         <f t="shared" ref="P74" si="302">O74+P73</f>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="Q74" s="37">
         <f t="shared" ref="Q74" si="303">P74+Q73</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="R74" s="37">
         <f t="shared" ref="R74" si="304">Q74+R73</f>
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="S74" s="37">
         <f t="shared" ref="S74" si="305">R74+S73</f>
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="T74" s="37">
         <f t="shared" ref="T74" si="306">S74+T73</f>
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="U74" s="37">
         <f t="shared" ref="U74" si="307">T74+U73</f>
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="V74" s="37">
         <f t="shared" ref="V74" si="308">U74+V73</f>
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="W74" s="37">
         <f t="shared" ref="W74" si="309">V74+W73</f>
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="X74" s="37">
         <f t="shared" ref="X74" si="310">W74+X73</f>
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="Y74" s="37">
         <f t="shared" ref="Y74" si="311">X74+Y73</f>
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14649,23 +14666,23 @@
       </c>
       <c r="P75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T75" s="8">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U75" s="8">
         <f t="shared" si="312"/>
@@ -14689,7 +14706,7 @@
       </c>
       <c r="AA75" s="8">
         <f>SUM(E75:Y75)</f>
-        <v>17</v>
+        <v>32.639999999999993</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.15">
@@ -14748,43 +14765,43 @@
       </c>
       <c r="P76" s="8">
         <f t="shared" ref="P76" si="322">O76+P75</f>
-        <v>17</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" ref="Q76" si="323">P76+Q75</f>
-        <v>17</v>
+        <v>23.799999999999997</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" ref="R76" si="324">Q76+R75</f>
-        <v>17</v>
+        <v>27.199999999999996</v>
       </c>
       <c r="S76" s="8">
         <f t="shared" ref="S76" si="325">R76+S75</f>
-        <v>17</v>
+        <v>30.599999999999994</v>
       </c>
       <c r="T76" s="8">
         <f t="shared" ref="T76" si="326">S76+T75</f>
-        <v>17</v>
+        <v>32.639999999999993</v>
       </c>
       <c r="U76" s="8">
         <f t="shared" ref="U76" si="327">T76+U75</f>
-        <v>17</v>
+        <v>32.639999999999993</v>
       </c>
       <c r="V76" s="8">
         <f t="shared" ref="V76" si="328">U76+V75</f>
-        <v>17</v>
+        <v>32.639999999999993</v>
       </c>
       <c r="W76" s="8">
         <f t="shared" ref="W76" si="329">V76+W75</f>
-        <v>17</v>
+        <v>32.639999999999993</v>
       </c>
       <c r="X76" s="8">
         <f t="shared" ref="X76" si="330">W76+X75</f>
-        <v>17</v>
+        <v>32.639999999999993</v>
       </c>
       <c r="Y76" s="8">
         <f t="shared" ref="Y76" si="331">X76+Y75</f>
-        <v>17</v>
+        <v>32.639999999999993</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.15">
@@ -15303,15 +15320,21 @@
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
-      <c r="T90" s="15"/>
-      <c r="U90" s="15"/>
-      <c r="V90" s="15"/>
+      <c r="T90" s="15">
+        <v>10</v>
+      </c>
+      <c r="U90" s="15">
+        <v>24</v>
+      </c>
+      <c r="V90" s="15">
+        <v>24</v>
+      </c>
       <c r="W90" s="15"/>
       <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
       <c r="AA90" s="17">
         <f t="shared" si="370"/>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
@@ -15381,15 +15404,15 @@
       </c>
       <c r="T91" s="43">
         <f t="shared" ref="T91" si="385">SUM(T85:T90)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U91" s="43">
         <f t="shared" ref="U91" si="386">SUM(U85:U90)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V91" s="43">
         <f t="shared" ref="V91" si="387">SUM(V85:V90)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W91" s="43">
         <f t="shared" ref="W91" si="388">SUM(W85:W90)</f>
@@ -15405,7 +15428,7 @@
       </c>
       <c r="AA91" s="43">
         <f t="shared" si="370"/>
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.15">
@@ -15475,27 +15498,27 @@
       </c>
       <c r="T92" s="42">
         <f t="shared" ref="T92" si="404">S92+T91</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U92" s="42">
         <f t="shared" ref="U92" si="405">T92+U91</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="V92" s="42">
         <f t="shared" ref="V92" si="406">U92+V91</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="W92" s="42">
         <f t="shared" ref="W92" si="407">V92+W91</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="X92" s="42">
         <f t="shared" ref="X92" si="408">W92+X91</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="Y92" s="42">
         <f t="shared" ref="Y92" si="409">X92+Y91</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15568,15 +15591,15 @@
       </c>
       <c r="T93" s="8">
         <f t="shared" si="410"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="U93" s="8">
         <f t="shared" si="410"/>
-        <v>0</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="V93" s="8">
         <f t="shared" si="410"/>
-        <v>0</v>
+        <v>1.6319999999999999</v>
       </c>
       <c r="W93" s="8">
         <f t="shared" si="410"/>
@@ -15592,7 +15615,7 @@
       </c>
       <c r="AA93" s="8">
         <f>SUM(E93:Y93)</f>
-        <v>0</v>
+        <v>3.944</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.15">
@@ -15667,27 +15690,27 @@
       </c>
       <c r="T94" s="8">
         <f t="shared" ref="T94" si="424">S94+T93</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="U94" s="8">
         <f t="shared" ref="U94" si="425">T94+U93</f>
-        <v>0</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="V94" s="8">
         <f t="shared" ref="V94" si="426">U94+V93</f>
-        <v>0</v>
+        <v>3.944</v>
       </c>
       <c r="W94" s="8">
         <f t="shared" ref="W94" si="427">V94+W93</f>
-        <v>0</v>
+        <v>3.944</v>
       </c>
       <c r="X94" s="8">
         <f t="shared" ref="X94" si="428">W94+X93</f>
-        <v>0</v>
+        <v>3.944</v>
       </c>
       <c r="Y94" s="8">
         <f t="shared" ref="Y94" si="429">X94+Y93</f>
-        <v>0</v>
+        <v>3.944</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.15">
@@ -16626,7 +16649,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:S32"/>
     </sheetView>
   </sheetViews>
@@ -16640,15 +16663,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
+++ b/Zeiterfassung/19FS_pro2E_Team_x_Personalkosten_Tracking.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="62" documentId="114_{E1DC5FB2-3482-2245-BA8E-DE13D287D19B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C044FD71-A1B9-4640-8994-EF3CB1BC1068}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="114_{E1DC5FB2-3482-2245-BA8E-DE13D287D19B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FB2AAC62-03A5-744D-A206-4B377951B3B1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38100" windowHeight="21540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38100" windowHeight="21540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kosten" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Status-1'!$A$1:$P$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Status-2'!$A$1:$S$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Status-3'!$A$1:$R$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Status-4'!$A$1:$S$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="69">
   <si>
     <t>Plan</t>
   </si>
@@ -160,18 +161,6 @@
     <t>Ist</t>
   </si>
   <si>
-    <t>Ressource-1</t>
-  </si>
-  <si>
-    <t>Ressource-2</t>
-  </si>
-  <si>
-    <t>Ressource-3</t>
-  </si>
-  <si>
-    <t>Ressource-4</t>
-  </si>
-  <si>
     <t>Ressource-5</t>
   </si>
   <si>
@@ -212,9 +201,6 @@
   </si>
   <si>
     <t>Reserve</t>
-  </si>
-  <si>
-    <t>Dummy</t>
   </si>
   <si>
     <t>2_Auftrags Analyse</t>
@@ -2227,7 +2213,7 @@
                   <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3040000000000003</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4464,7 +4450,7 @@
                   <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3040000000000003</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.5760000000000005</c:v>
@@ -4541,19 +4527,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.224</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.448</c:v>
+                  <c:v>2.7880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.944</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4617,16 +4603,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.72</c:v>
+                  <c:v>2.6520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.48</c:v>
+                  <c:v>7.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.24</c:v>
+                  <c:v>12.172000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>16.932000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6784,7 +6770,7 @@
                   <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3040000000000003</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.5760000000000005</c:v>
@@ -6879,37 +6865,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.224</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.448</c:v>
+                  <c:v>2.7880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.944</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6973,34 +6959,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.72</c:v>
+                  <c:v>2.6520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.48</c:v>
+                  <c:v>7.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.24</c:v>
+                  <c:v>12.172000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>16.932000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>20.128000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.799999999999997</c:v>
+                  <c:v>23.664000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.199999999999996</c:v>
+                  <c:v>26.996000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.599999999999994</c:v>
+                  <c:v>30.532000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7088,10 +7074,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>2.7879999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7512,7 +7498,7 @@
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>Team-x Personalkosten, Status 4</a:t>
+              <a:t>Team-1 Personalkosten, Status 4</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="de-CH" baseline="0">
@@ -9206,7 +9192,7 @@
                   <c:v>4.4880000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3040000000000003</c:v>
+                  <c:v>5.032</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.5760000000000005</c:v>
@@ -9313,49 +9299,49 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.224</c:v>
+                  <c:v>1.496</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.448</c:v>
+                  <c:v>2.7880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.944</c:v>
+                  <c:v>4.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4399999999999995</c:v>
+                  <c:v>5.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0719999999999992</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3439999999999994</c:v>
+                  <c:v>6.6640000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9419,46 +9405,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.72</c:v>
+                  <c:v>2.6520000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.48</c:v>
+                  <c:v>7.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.24</c:v>
+                  <c:v>12.172000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>16.932000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>20.128000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.799999999999997</c:v>
+                  <c:v>23.664000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.199999999999996</c:v>
+                  <c:v>26.996000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.599999999999994</c:v>
+                  <c:v>30.532000000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32.639999999999993</c:v>
+                  <c:v>32.980000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9546,22 +9532,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68</c:v>
+                  <c:v>0.81599999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3119999999999998</c:v>
+                  <c:v>2.7879999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.944</c:v>
+                  <c:v>4.2159999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.944</c:v>
+                  <c:v>7.0039999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.944</c:v>
+                  <c:v>10.404</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.944</c:v>
+                  <c:v>10.404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9655,16 +9641,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.68</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.292</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.1760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4.3520000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10921,10 +10907,10 @@
   <dimension ref="B2:AD112"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="29" workbookViewId="0">
-      <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="10" topLeftCell="E70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="V19" sqref="V19"/>
+      <selection pane="bottomRight" activeCell="V89" sqref="V89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10941,7 +10927,7 @@
   <sheetData>
     <row r="2" spans="2:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10965,7 +10951,7 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1">
         <v>68</v>
@@ -11375,7 +11361,7 @@
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>33</v>
@@ -11476,7 +11462,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>40</v>
@@ -11551,7 +11537,7 @@
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C20" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>40</v>
@@ -11592,7 +11578,7 @@
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C21" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>40</v>
@@ -11919,7 +11905,7 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B25" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>33</v>
@@ -12014,7 +12000,7 @@
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3"/>
       <c r="AD27" s="28"/>
@@ -12256,7 +12242,7 @@
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B31" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>33</v>
@@ -12354,7 +12340,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>40</v>
@@ -12375,7 +12361,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K33" s="15">
         <v>1</v>
@@ -12398,13 +12384,13 @@
       <c r="Y33" s="15"/>
       <c r="AA33" s="17">
         <f>SUM(E33:Y33)</f>
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>40</v>
@@ -12421,7 +12407,9 @@
         <v>5</v>
       </c>
       <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
+      <c r="K34" s="15">
+        <v>2</v>
+      </c>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
@@ -12441,7 +12429,7 @@
     <row r="35" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>40</v>
@@ -12455,13 +12443,13 @@
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J35" s="15">
         <v>3</v>
       </c>
       <c r="K35" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
@@ -12482,7 +12470,7 @@
     <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
       <c r="C36" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>40</v>
@@ -12493,9 +12481,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="15">
-        <v>5</v>
-      </c>
+      <c r="I36" s="15"/>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
@@ -12516,7 +12502,7 @@
     </row>
     <row r="37" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C37" s="9" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>40</v>
@@ -12526,9 +12512,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
-      <c r="J37" s="15">
-        <v>8</v>
-      </c>
+      <c r="J37" s="15"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -12546,12 +12530,12 @@
       <c r="Y37" s="15"/>
       <c r="AA37" s="17">
         <f t="shared" ref="AA37:AA39" si="76">SUM(E37:Y37)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C38" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>40</v>
@@ -12560,9 +12544,7 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="15">
-        <v>-7</v>
-      </c>
+      <c r="I38" s="15"/>
       <c r="J38" s="15"/>
       <c r="K38" s="15"/>
       <c r="L38" s="15"/>
@@ -12581,7 +12563,7 @@
       <c r="Y38" s="15"/>
       <c r="AA38" s="17">
         <f t="shared" si="76"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:27" x14ac:dyDescent="0.15">
@@ -12611,11 +12593,11 @@
       </c>
       <c r="J39" s="27">
         <f t="shared" ref="J39" si="81">SUM(J33:J38)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K39" s="27">
         <f t="shared" ref="K39" si="82">SUM(K33:K38)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L39" s="27">
         <f t="shared" ref="L39" si="83">SUM(L33:L38)</f>
@@ -12705,7 +12687,7 @@
       </c>
       <c r="J40" s="26">
         <f t="shared" ref="J40" si="100">I40+J39</f>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K40" s="26">
         <f t="shared" ref="K40" si="101">J40+K39</f>
@@ -12798,11 +12780,11 @@
       </c>
       <c r="J41" s="8">
         <f t="shared" si="116"/>
-        <v>0.81599999999999995</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="K41" s="8">
         <f t="shared" si="116"/>
-        <v>0.27200000000000002</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="116"/>
@@ -12867,7 +12849,7 @@
     </row>
     <row r="42" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B42" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>33</v>
@@ -12897,7 +12879,7 @@
       </c>
       <c r="J42" s="8">
         <f t="shared" ref="J42" si="120">I42+J41</f>
-        <v>5.3040000000000003</v>
+        <v>5.032</v>
       </c>
       <c r="K42" s="8">
         <f t="shared" ref="K42" si="121">J42+K41</f>
@@ -12962,7 +12944,7 @@
     </row>
     <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C44" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D44" s="3"/>
     </row>
@@ -13199,7 +13181,7 @@
     </row>
     <row r="48" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B48" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>33</v>
@@ -13297,7 +13279,7 @@
         <v>41</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>40</v>
@@ -13308,8 +13290,12 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
+      <c r="K50" s="15">
+        <v>8</v>
+      </c>
+      <c r="L50" s="15">
+        <v>2</v>
+      </c>
       <c r="M50" s="15"/>
       <c r="N50" s="15"/>
       <c r="O50" s="15"/>
@@ -13325,13 +13311,13 @@
       <c r="Y50" s="15"/>
       <c r="AA50" s="17">
         <f>SUM(E50:Y50)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
       <c r="C51" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>40</v>
@@ -13342,11 +13328,21 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="15"/>
+      <c r="K51" s="15">
+        <v>6</v>
+      </c>
+      <c r="L51" s="15">
+        <v>6</v>
+      </c>
+      <c r="M51" s="15">
+        <v>7</v>
+      </c>
+      <c r="N51" s="15">
+        <v>6</v>
+      </c>
+      <c r="O51" s="15">
+        <v>9</v>
+      </c>
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
       <c r="R51" s="15"/>
@@ -13362,7 +13358,7 @@
     <row r="52" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
       <c r="C52" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>40</v>
@@ -13373,10 +13369,18 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
+      <c r="K52" s="15">
+        <v>6</v>
+      </c>
+      <c r="L52" s="15">
+        <v>5</v>
+      </c>
+      <c r="M52" s="15">
+        <v>5</v>
+      </c>
+      <c r="N52" s="15">
+        <v>5</v>
+      </c>
       <c r="O52" s="15"/>
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
@@ -13393,7 +13397,7 @@
     <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
       <c r="C53" s="9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>40</v>
@@ -13404,11 +13408,21 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
+      <c r="K53" s="15">
+        <v>2</v>
+      </c>
+      <c r="L53" s="15">
+        <v>4</v>
+      </c>
+      <c r="M53" s="15">
+        <v>4</v>
+      </c>
+      <c r="N53" s="15">
+        <v>5</v>
+      </c>
+      <c r="O53" s="15">
+        <v>9</v>
+      </c>
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
       <c r="R53" s="15"/>
@@ -13423,7 +13437,7 @@
     </row>
     <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C54" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>40</v>
@@ -13435,9 +13449,15 @@
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
       <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
+      <c r="L54" s="15">
+        <v>2</v>
+      </c>
+      <c r="M54" s="15">
+        <v>3</v>
+      </c>
+      <c r="N54" s="15">
+        <v>4</v>
+      </c>
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
@@ -13451,12 +13471,12 @@
       <c r="Y54" s="15"/>
       <c r="AA54" s="17">
         <f t="shared" ref="AA54:AA56" si="174">SUM(E54:Y54)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C55" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>40</v>
@@ -13467,24 +13487,12 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="15">
-        <v>18</v>
-      </c>
-      <c r="L55" s="15">
-        <v>18</v>
-      </c>
-      <c r="M55" s="15">
-        <v>22</v>
-      </c>
-      <c r="N55" s="15">
-        <v>22</v>
-      </c>
-      <c r="O55" s="15">
-        <v>24</v>
-      </c>
-      <c r="P55" s="15">
-        <v>4</v>
-      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
@@ -13496,7 +13504,7 @@
       <c r="Y55" s="15"/>
       <c r="AA55" s="17">
         <f t="shared" si="174"/>
-        <v>108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:27" x14ac:dyDescent="0.15">
@@ -13530,27 +13538,27 @@
       </c>
       <c r="K56" s="33">
         <f t="shared" ref="K56" si="180">SUM(K50:K55)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L56" s="33">
         <f t="shared" ref="L56" si="181">SUM(L50:L55)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M56" s="33">
         <f t="shared" ref="M56" si="182">SUM(M50:M55)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N56" s="33">
         <f t="shared" ref="N56" si="183">SUM(N50:N55)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O56" s="33">
         <f t="shared" ref="O56" si="184">SUM(O50:O55)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P56" s="33">
         <f t="shared" ref="P56" si="185">SUM(P50:P55)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="33">
         <f t="shared" ref="Q56" si="186">SUM(Q50:Q55)</f>
@@ -13590,7 +13598,7 @@
       </c>
       <c r="AA56" s="33">
         <f t="shared" si="174"/>
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="2:27" x14ac:dyDescent="0.15">
@@ -13624,15 +13632,15 @@
       </c>
       <c r="K57" s="32">
         <f t="shared" ref="K57" si="199">J57+K56</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L57" s="32">
         <f t="shared" ref="L57" si="200">K57+L56</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M57" s="32">
         <f t="shared" ref="M57" si="201">L57+M56</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N57" s="32">
         <f t="shared" ref="N57" si="202">M57+N56</f>
@@ -13640,47 +13648,47 @@
       </c>
       <c r="O57" s="32">
         <f t="shared" ref="O57" si="203">N57+O56</f>
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P57" s="32">
         <f t="shared" ref="P57" si="204">O57+P56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Q57" s="32">
         <f t="shared" ref="Q57" si="205">P57+Q56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="R57" s="32">
         <f t="shared" ref="R57" si="206">Q57+R56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="S57" s="32">
         <f t="shared" ref="S57" si="207">R57+S56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="T57" s="32">
         <f t="shared" ref="T57" si="208">S57+T56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="U57" s="32">
         <f t="shared" ref="U57" si="209">T57+U56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="V57" s="32">
         <f t="shared" ref="V57" si="210">U57+V56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="W57" s="32">
         <f t="shared" ref="W57" si="211">V57+W56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="X57" s="32">
         <f t="shared" ref="X57" si="212">W57+X56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="Y57" s="32">
         <f t="shared" ref="Y57" si="213">X57+Y56</f>
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AA57" s="5"/>
     </row>
@@ -13717,27 +13725,27 @@
       </c>
       <c r="K58" s="8">
         <f t="shared" si="214"/>
-        <v>1.224</v>
+        <v>1.496</v>
       </c>
       <c r="L58" s="8">
         <f t="shared" si="214"/>
-        <v>1.224</v>
+        <v>1.292</v>
       </c>
       <c r="M58" s="8">
         <f t="shared" si="214"/>
-        <v>1.496</v>
+        <v>1.292</v>
       </c>
       <c r="N58" s="8">
         <f t="shared" si="214"/>
-        <v>1.496</v>
+        <v>1.36</v>
       </c>
       <c r="O58" s="8">
         <f t="shared" si="214"/>
-        <v>1.6319999999999999</v>
+        <v>1.224</v>
       </c>
       <c r="P58" s="8">
         <f t="shared" si="214"/>
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="8">
         <f t="shared" si="214"/>
@@ -13777,12 +13785,12 @@
       </c>
       <c r="AA58" s="8">
         <f>SUM(E58:Y58)</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
     </row>
     <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>33</v>
@@ -13816,68 +13824,68 @@
       </c>
       <c r="K59" s="8">
         <f t="shared" ref="K59" si="219">J59+K58</f>
-        <v>1.224</v>
+        <v>1.496</v>
       </c>
       <c r="L59" s="8">
         <f t="shared" ref="L59" si="220">K59+L58</f>
-        <v>2.448</v>
+        <v>2.7880000000000003</v>
       </c>
       <c r="M59" s="8">
         <f t="shared" ref="M59" si="221">L59+M58</f>
-        <v>3.944</v>
+        <v>4.08</v>
       </c>
       <c r="N59" s="8">
         <f t="shared" ref="N59" si="222">M59+N58</f>
-        <v>5.4399999999999995</v>
+        <v>5.44</v>
       </c>
       <c r="O59" s="8">
         <f t="shared" ref="O59" si="223">N59+O58</f>
-        <v>7.0719999999999992</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="P59" s="8">
         <f t="shared" ref="P59" si="224">O59+P58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="Q59" s="8">
         <f t="shared" ref="Q59" si="225">P59+Q58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="R59" s="8">
         <f t="shared" ref="R59" si="226">Q59+R58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="S59" s="8">
         <f t="shared" ref="S59" si="227">R59+S58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="T59" s="8">
         <f t="shared" ref="T59" si="228">S59+T58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="U59" s="8">
         <f t="shared" ref="U59" si="229">T59+U58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="V59" s="8">
         <f t="shared" ref="V59" si="230">U59+V58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="W59" s="8">
         <f t="shared" ref="W59" si="231">V59+W58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="X59" s="8">
         <f t="shared" ref="X59" si="232">W59+X58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
       <c r="Y59" s="8">
         <f t="shared" ref="Y59" si="233">X59+Y58</f>
-        <v>7.3439999999999994</v>
+        <v>6.6640000000000006</v>
       </c>
     </row>
     <row r="61" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C61" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D61" s="3"/>
     </row>
@@ -14122,7 +14130,7 @@
     </row>
     <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>33</v>
@@ -14220,7 +14228,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>40</v>
@@ -14232,15 +14240,33 @@
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="15"/>
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
+      <c r="L67" s="15">
+        <v>18</v>
+      </c>
+      <c r="M67" s="15">
+        <v>24</v>
+      </c>
+      <c r="N67" s="15">
+        <v>20</v>
+      </c>
+      <c r="O67" s="15">
+        <v>22</v>
+      </c>
+      <c r="P67" s="15">
+        <v>11</v>
+      </c>
+      <c r="Q67" s="15">
+        <v>12</v>
+      </c>
+      <c r="R67" s="15">
+        <v>10</v>
+      </c>
+      <c r="S67" s="15">
+        <v>11</v>
+      </c>
+      <c r="T67" s="15">
+        <v>6</v>
+      </c>
       <c r="U67" s="15"/>
       <c r="V67" s="15"/>
       <c r="W67" s="15"/>
@@ -14248,13 +14274,13 @@
       <c r="Y67" s="15"/>
       <c r="AA67" s="17">
         <f>SUM(E67:Y67)</f>
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B68" s="3"/>
       <c r="C68" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>40</v>
@@ -14266,15 +14292,33 @@
       <c r="I68" s="15"/>
       <c r="J68" s="15"/>
       <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="15"/>
-      <c r="R68" s="15"/>
-      <c r="S68" s="15"/>
-      <c r="T68" s="15"/>
+      <c r="L68" s="15">
+        <v>6</v>
+      </c>
+      <c r="M68" s="15">
+        <v>13</v>
+      </c>
+      <c r="N68" s="15">
+        <v>14</v>
+      </c>
+      <c r="O68" s="15">
+        <v>8</v>
+      </c>
+      <c r="P68" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q68" s="15">
+        <v>10</v>
+      </c>
+      <c r="R68" s="15">
+        <v>9</v>
+      </c>
+      <c r="S68" s="15">
+        <v>11</v>
+      </c>
+      <c r="T68" s="15">
+        <v>6</v>
+      </c>
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
@@ -14285,7 +14329,7 @@
     <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="3"/>
       <c r="C69" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>40</v>
@@ -14297,15 +14341,33 @@
       <c r="I69" s="15"/>
       <c r="J69" s="15"/>
       <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="15"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="15"/>
-      <c r="S69" s="15"/>
-      <c r="T69" s="15"/>
+      <c r="L69" s="15">
+        <v>6</v>
+      </c>
+      <c r="M69" s="15">
+        <v>11</v>
+      </c>
+      <c r="N69" s="15">
+        <v>12</v>
+      </c>
+      <c r="O69" s="15">
+        <v>18</v>
+      </c>
+      <c r="P69" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q69" s="15">
+        <v>10</v>
+      </c>
+      <c r="R69" s="15">
+        <v>10</v>
+      </c>
+      <c r="S69" s="15">
+        <v>11</v>
+      </c>
+      <c r="T69" s="15">
+        <v>8</v>
+      </c>
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
@@ -14316,7 +14378,7 @@
     <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="3"/>
       <c r="C70" s="9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>40</v>
@@ -14328,15 +14390,33 @@
       <c r="I70" s="15"/>
       <c r="J70" s="15"/>
       <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="15"/>
-      <c r="R70" s="15"/>
-      <c r="S70" s="15"/>
-      <c r="T70" s="15"/>
+      <c r="L70" s="15">
+        <v>5</v>
+      </c>
+      <c r="M70" s="15">
+        <v>10</v>
+      </c>
+      <c r="N70" s="15">
+        <v>12</v>
+      </c>
+      <c r="O70" s="15">
+        <v>6</v>
+      </c>
+      <c r="P70" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q70" s="15">
+        <v>10</v>
+      </c>
+      <c r="R70" s="15">
+        <v>10</v>
+      </c>
+      <c r="S70" s="15">
+        <v>8</v>
+      </c>
+      <c r="T70" s="15">
+        <v>6</v>
+      </c>
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
@@ -14346,7 +14426,7 @@
     </row>
     <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C71" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>40</v>
@@ -14358,15 +14438,33 @@
       <c r="I71" s="15"/>
       <c r="J71" s="15"/>
       <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="15"/>
-      <c r="Q71" s="15"/>
-      <c r="R71" s="15"/>
-      <c r="S71" s="15"/>
-      <c r="T71" s="15"/>
+      <c r="L71" s="15">
+        <v>4</v>
+      </c>
+      <c r="M71" s="15">
+        <v>12</v>
+      </c>
+      <c r="N71" s="15">
+        <v>12</v>
+      </c>
+      <c r="O71" s="15">
+        <v>16</v>
+      </c>
+      <c r="P71" s="15">
+        <v>9</v>
+      </c>
+      <c r="Q71" s="15">
+        <v>10</v>
+      </c>
+      <c r="R71" s="15">
+        <v>10</v>
+      </c>
+      <c r="S71" s="15">
+        <v>11</v>
+      </c>
+      <c r="T71" s="15">
+        <v>10</v>
+      </c>
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
       <c r="W71" s="15"/>
@@ -14374,12 +14472,12 @@
       <c r="Y71" s="15"/>
       <c r="AA71" s="17">
         <f t="shared" ref="AA71:AA73" si="272">SUM(E71:Y71)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C72" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>40</v>
@@ -14391,33 +14489,15 @@
       <c r="I72" s="15"/>
       <c r="J72" s="15"/>
       <c r="K72" s="15"/>
-      <c r="L72" s="15">
-        <v>40</v>
-      </c>
-      <c r="M72" s="15">
-        <v>70</v>
-      </c>
-      <c r="N72" s="15">
-        <v>70</v>
-      </c>
-      <c r="O72" s="15">
-        <v>70</v>
-      </c>
-      <c r="P72" s="15">
-        <v>50</v>
-      </c>
-      <c r="Q72" s="15">
-        <v>50</v>
-      </c>
-      <c r="R72" s="15">
-        <v>50</v>
-      </c>
-      <c r="S72" s="15">
-        <v>50</v>
-      </c>
-      <c r="T72" s="15">
-        <v>30</v>
-      </c>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
@@ -14425,7 +14505,7 @@
       <c r="Y72" s="15"/>
       <c r="AA72" s="17">
         <f t="shared" si="272"/>
-        <v>480</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:27" x14ac:dyDescent="0.15">
@@ -14463,7 +14543,7 @@
       </c>
       <c r="L73" s="38">
         <f t="shared" ref="L73" si="279">SUM(L67:L72)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M73" s="38">
         <f t="shared" ref="M73" si="280">SUM(M67:M72)</f>
@@ -14479,23 +14559,23 @@
       </c>
       <c r="P73" s="38">
         <f t="shared" ref="P73" si="283">SUM(P67:P72)</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q73" s="38">
         <f t="shared" ref="Q73" si="284">SUM(Q67:Q72)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R73" s="38">
         <f t="shared" ref="R73" si="285">SUM(R67:R72)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S73" s="38">
         <f t="shared" ref="S73" si="286">SUM(S67:S72)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T73" s="38">
         <f t="shared" ref="T73" si="287">SUM(T67:T72)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="U73" s="38">
         <f t="shared" ref="U73" si="288">SUM(U67:U72)</f>
@@ -14519,7 +14599,7 @@
       </c>
       <c r="AA73" s="38">
         <f t="shared" si="272"/>
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="2:27" x14ac:dyDescent="0.15">
@@ -14557,59 +14637,59 @@
       </c>
       <c r="L74" s="37">
         <f t="shared" ref="L74" si="298">K74+L73</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M74" s="37">
         <f t="shared" ref="M74" si="299">L74+M73</f>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N74" s="37">
         <f t="shared" ref="N74" si="300">M74+N73</f>
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O74" s="37">
         <f t="shared" ref="O74" si="301">N74+O73</f>
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P74" s="37">
         <f t="shared" ref="P74" si="302">O74+P73</f>
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q74" s="37">
         <f t="shared" ref="Q74" si="303">P74+Q73</f>
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R74" s="37">
         <f t="shared" ref="R74" si="304">Q74+R73</f>
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="S74" s="37">
         <f t="shared" ref="S74" si="305">R74+S73</f>
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T74" s="37">
         <f t="shared" ref="T74" si="306">S74+T73</f>
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="U74" s="37">
         <f t="shared" ref="U74" si="307">T74+U73</f>
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="V74" s="37">
         <f t="shared" ref="V74" si="308">U74+V73</f>
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="W74" s="37">
         <f t="shared" ref="W74" si="309">V74+W73</f>
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="X74" s="37">
         <f t="shared" ref="X74" si="310">W74+X73</f>
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Y74" s="37">
         <f t="shared" ref="Y74" si="311">X74+Y73</f>
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AA74" s="5"/>
     </row>
@@ -14650,7 +14730,7 @@
       </c>
       <c r="L75" s="8">
         <f t="shared" si="312"/>
-        <v>2.72</v>
+        <v>2.6520000000000001</v>
       </c>
       <c r="M75" s="8">
         <f t="shared" si="312"/>
@@ -14666,23 +14746,23 @@
       </c>
       <c r="P75" s="8">
         <f t="shared" si="312"/>
-        <v>3.4</v>
+        <v>3.1960000000000002</v>
       </c>
       <c r="Q75" s="8">
         <f t="shared" si="312"/>
-        <v>3.4</v>
+        <v>3.536</v>
       </c>
       <c r="R75" s="8">
         <f t="shared" si="312"/>
-        <v>3.4</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="S75" s="8">
         <f t="shared" si="312"/>
-        <v>3.4</v>
+        <v>3.536</v>
       </c>
       <c r="T75" s="8">
         <f t="shared" si="312"/>
-        <v>2.04</v>
+        <v>2.448</v>
       </c>
       <c r="U75" s="8">
         <f t="shared" si="312"/>
@@ -14706,12 +14786,12 @@
       </c>
       <c r="AA75" s="8">
         <f>SUM(E75:Y75)</f>
-        <v>32.639999999999993</v>
+        <v>32.980000000000004</v>
       </c>
     </row>
     <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>33</v>
@@ -14749,64 +14829,64 @@
       </c>
       <c r="L76" s="8">
         <f t="shared" ref="L76" si="318">K76+L75</f>
-        <v>2.72</v>
+        <v>2.6520000000000001</v>
       </c>
       <c r="M76" s="8">
         <f t="shared" ref="M76" si="319">L76+M75</f>
-        <v>7.48</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="N76" s="8">
         <f t="shared" ref="N76" si="320">M76+N75</f>
-        <v>12.24</v>
+        <v>12.172000000000001</v>
       </c>
       <c r="O76" s="8">
         <f t="shared" ref="O76" si="321">N76+O75</f>
-        <v>17</v>
+        <v>16.932000000000002</v>
       </c>
       <c r="P76" s="8">
         <f t="shared" ref="P76" si="322">O76+P75</f>
-        <v>20.399999999999999</v>
+        <v>20.128000000000004</v>
       </c>
       <c r="Q76" s="8">
         <f t="shared" ref="Q76" si="323">P76+Q75</f>
-        <v>23.799999999999997</v>
+        <v>23.664000000000005</v>
       </c>
       <c r="R76" s="8">
         <f t="shared" ref="R76" si="324">Q76+R75</f>
-        <v>27.199999999999996</v>
+        <v>26.996000000000006</v>
       </c>
       <c r="S76" s="8">
         <f t="shared" ref="S76" si="325">R76+S75</f>
-        <v>30.599999999999994</v>
+        <v>30.532000000000007</v>
       </c>
       <c r="T76" s="8">
         <f t="shared" ref="T76" si="326">S76+T75</f>
-        <v>32.639999999999993</v>
+        <v>32.980000000000004</v>
       </c>
       <c r="U76" s="8">
         <f t="shared" ref="U76" si="327">T76+U75</f>
-        <v>32.639999999999993</v>
+        <v>32.980000000000004</v>
       </c>
       <c r="V76" s="8">
         <f t="shared" ref="V76" si="328">U76+V75</f>
-        <v>32.639999999999993</v>
+        <v>32.980000000000004</v>
       </c>
       <c r="W76" s="8">
         <f t="shared" ref="W76" si="329">V76+W75</f>
-        <v>32.639999999999993</v>
+        <v>32.980000000000004</v>
       </c>
       <c r="X76" s="8">
         <f t="shared" ref="X76" si="330">W76+X75</f>
-        <v>32.639999999999993</v>
+        <v>32.980000000000004</v>
       </c>
       <c r="Y76" s="8">
         <f t="shared" ref="Y76" si="331">X76+Y75</f>
-        <v>32.639999999999993</v>
+        <v>32.980000000000004</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C79" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D79" s="3"/>
     </row>
@@ -15043,7 +15123,7 @@
     </row>
     <row r="83" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B83" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>33</v>
@@ -15141,7 +15221,7 @@
         <v>41</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>40</v>
@@ -15161,21 +15241,31 @@
       <c r="Q85" s="15"/>
       <c r="R85" s="15"/>
       <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
-      <c r="W85" s="15"/>
-      <c r="X85" s="15"/>
+      <c r="T85" s="15">
+        <v>4</v>
+      </c>
+      <c r="U85" s="15">
+        <v>8</v>
+      </c>
+      <c r="V85" s="15">
+        <v>9</v>
+      </c>
+      <c r="W85" s="15">
+        <v>15</v>
+      </c>
+      <c r="X85" s="15">
+        <v>19</v>
+      </c>
       <c r="Y85" s="15"/>
       <c r="AA85" s="17">
         <f>SUM(E85:Y85)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="3"/>
       <c r="C86" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>40</v>
@@ -15195,18 +15285,28 @@
       <c r="Q86" s="15"/>
       <c r="R86" s="15"/>
       <c r="S86" s="15"/>
-      <c r="T86" s="15"/>
-      <c r="U86" s="15"/>
-      <c r="V86" s="15"/>
-      <c r="W86" s="15"/>
-      <c r="X86" s="15"/>
+      <c r="T86" s="15">
+        <v>4</v>
+      </c>
+      <c r="U86" s="15">
+        <v>9</v>
+      </c>
+      <c r="V86" s="15">
+        <v>7</v>
+      </c>
+      <c r="W86" s="15">
+        <v>16</v>
+      </c>
+      <c r="X86" s="15">
+        <v>14</v>
+      </c>
       <c r="Y86" s="15"/>
       <c r="AA86" s="17"/>
     </row>
     <row r="87" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B87" s="3"/>
       <c r="C87" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>40</v>
@@ -15227,17 +15327,21 @@
       <c r="R87" s="15"/>
       <c r="S87" s="15"/>
       <c r="T87" s="15"/>
-      <c r="U87" s="15"/>
+      <c r="U87" s="15">
+        <v>4</v>
+      </c>
       <c r="V87" s="15"/>
       <c r="W87" s="15"/>
-      <c r="X87" s="15"/>
+      <c r="X87" s="15">
+        <v>4</v>
+      </c>
       <c r="Y87" s="15"/>
       <c r="AA87" s="17"/>
     </row>
     <row r="88" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B88" s="3"/>
       <c r="C88" s="9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>40</v>
@@ -15257,17 +15361,27 @@
       <c r="Q88" s="15"/>
       <c r="R88" s="15"/>
       <c r="S88" s="15"/>
-      <c r="T88" s="15"/>
-      <c r="U88" s="15"/>
-      <c r="V88" s="15"/>
-      <c r="W88" s="15"/>
-      <c r="X88" s="15"/>
+      <c r="T88" s="15">
+        <v>4</v>
+      </c>
+      <c r="U88" s="15">
+        <v>4</v>
+      </c>
+      <c r="V88" s="15">
+        <v>5</v>
+      </c>
+      <c r="W88" s="15">
+        <v>10</v>
+      </c>
+      <c r="X88" s="15">
+        <v>8</v>
+      </c>
       <c r="Y88" s="15"/>
       <c r="AA88" s="17"/>
     </row>
     <row r="89" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C89" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>40</v>
@@ -15288,19 +15402,23 @@
       <c r="R89" s="15"/>
       <c r="S89" s="15"/>
       <c r="T89" s="15"/>
-      <c r="U89" s="15"/>
+      <c r="U89" s="15">
+        <v>4</v>
+      </c>
       <c r="V89" s="15"/>
       <c r="W89" s="15"/>
-      <c r="X89" s="15"/>
+      <c r="X89" s="15">
+        <v>5</v>
+      </c>
       <c r="Y89" s="15"/>
       <c r="AA89" s="17">
         <f t="shared" ref="AA89:AA91" si="370">SUM(E89:Y89)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C90" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>40</v>
@@ -15320,21 +15438,15 @@
       <c r="Q90" s="15"/>
       <c r="R90" s="15"/>
       <c r="S90" s="15"/>
-      <c r="T90" s="15">
-        <v>10</v>
-      </c>
-      <c r="U90" s="15">
-        <v>24</v>
-      </c>
-      <c r="V90" s="15">
-        <v>24</v>
-      </c>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
       <c r="W90" s="15"/>
       <c r="X90" s="15"/>
       <c r="Y90" s="15"/>
       <c r="AA90" s="17">
         <f t="shared" si="370"/>
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:27" x14ac:dyDescent="0.15">
@@ -15404,23 +15516,23 @@
       </c>
       <c r="T91" s="43">
         <f t="shared" ref="T91" si="385">SUM(T85:T90)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U91" s="43">
         <f t="shared" ref="U91" si="386">SUM(U85:U90)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="V91" s="43">
         <f t="shared" ref="V91" si="387">SUM(V85:V90)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W91" s="43">
         <f t="shared" ref="W91" si="388">SUM(W85:W90)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="X91" s="43">
         <f t="shared" ref="X91" si="389">SUM(X85:X90)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y91" s="43">
         <f t="shared" ref="Y91" si="390">SUM(Y85:Y90)</f>
@@ -15428,7 +15540,7 @@
       </c>
       <c r="AA91" s="43">
         <f t="shared" si="370"/>
-        <v>58</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="2:27" x14ac:dyDescent="0.15">
@@ -15498,27 +15610,27 @@
       </c>
       <c r="T92" s="42">
         <f t="shared" ref="T92" si="404">S92+T91</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U92" s="42">
         <f t="shared" ref="U92" si="405">T92+U91</f>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V92" s="42">
         <f t="shared" ref="V92" si="406">U92+V91</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W92" s="42">
         <f t="shared" ref="W92" si="407">V92+W91</f>
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="X92" s="42">
         <f t="shared" ref="X92" si="408">W92+X91</f>
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="Y92" s="42">
         <f t="shared" ref="Y92" si="409">X92+Y91</f>
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="AA92" s="5"/>
     </row>
@@ -15591,23 +15703,23 @@
       </c>
       <c r="T93" s="8">
         <f t="shared" si="410"/>
-        <v>0.68</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="U93" s="8">
         <f t="shared" si="410"/>
-        <v>1.6319999999999999</v>
+        <v>1.972</v>
       </c>
       <c r="V93" s="8">
         <f t="shared" si="410"/>
-        <v>1.6319999999999999</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="W93" s="8">
         <f t="shared" si="410"/>
-        <v>0</v>
+        <v>2.7879999999999998</v>
       </c>
       <c r="X93" s="8">
         <f t="shared" si="410"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y93" s="8">
         <f t="shared" si="410"/>
@@ -15615,12 +15727,12 @@
       </c>
       <c r="AA93" s="8">
         <f>SUM(E93:Y93)</f>
-        <v>3.944</v>
+        <v>10.404</v>
       </c>
     </row>
     <row r="94" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B94" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>33</v>
@@ -15690,32 +15802,32 @@
       </c>
       <c r="T94" s="8">
         <f t="shared" ref="T94" si="424">S94+T93</f>
-        <v>0.68</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="U94" s="8">
         <f t="shared" ref="U94" si="425">T94+U93</f>
-        <v>2.3119999999999998</v>
+        <v>2.7879999999999998</v>
       </c>
       <c r="V94" s="8">
         <f t="shared" ref="V94" si="426">U94+V93</f>
-        <v>3.944</v>
+        <v>4.2159999999999993</v>
       </c>
       <c r="W94" s="8">
         <f t="shared" ref="W94" si="427">V94+W93</f>
-        <v>3.944</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="X94" s="8">
         <f t="shared" ref="X94" si="428">W94+X93</f>
-        <v>3.944</v>
+        <v>10.404</v>
       </c>
       <c r="Y94" s="8">
         <f t="shared" ref="Y94" si="429">X94+Y93</f>
-        <v>3.944</v>
+        <v>10.404</v>
       </c>
     </row>
     <row r="97" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C97" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D97" s="3"/>
     </row>
@@ -15950,7 +16062,7 @@
     </row>
     <row r="101" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B101" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>33</v>
@@ -16048,7 +16160,7 @@
         <v>41</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>40</v>
@@ -16073,16 +16185,18 @@
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
       <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
+      <c r="Y103" s="15">
+        <v>6</v>
+      </c>
       <c r="AA103" s="17">
         <f>SUM(E103:Y103)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B104" s="3"/>
       <c r="C104" s="9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>40</v>
@@ -16107,13 +16221,15 @@
       <c r="V104" s="15"/>
       <c r="W104" s="15"/>
       <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
+      <c r="Y104" s="15">
+        <v>5</v>
+      </c>
       <c r="AA104" s="17"/>
     </row>
     <row r="105" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B105" s="3"/>
       <c r="C105" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>40</v>
@@ -16135,16 +16251,24 @@
       <c r="S105" s="15"/>
       <c r="T105" s="15"/>
       <c r="U105" s="15"/>
-      <c r="V105" s="15"/>
-      <c r="W105" s="15"/>
-      <c r="X105" s="15"/>
-      <c r="Y105" s="15"/>
+      <c r="V105" s="15">
+        <v>5</v>
+      </c>
+      <c r="W105" s="15">
+        <v>7</v>
+      </c>
+      <c r="X105" s="15">
+        <v>6</v>
+      </c>
+      <c r="Y105" s="15">
+        <v>7</v>
+      </c>
       <c r="AA105" s="17"/>
     </row>
     <row r="106" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B106" s="3"/>
       <c r="C106" s="9" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>40</v>
@@ -16169,12 +16293,14 @@
       <c r="V106" s="15"/>
       <c r="W106" s="15"/>
       <c r="X106" s="15"/>
-      <c r="Y106" s="15"/>
+      <c r="Y106" s="15">
+        <v>5</v>
+      </c>
       <c r="AA106" s="17"/>
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C107" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>40</v>
@@ -16196,18 +16322,26 @@
       <c r="S107" s="15"/>
       <c r="T107" s="15"/>
       <c r="U107" s="15"/>
-      <c r="V107" s="15"/>
-      <c r="W107" s="15"/>
-      <c r="X107" s="15"/>
-      <c r="Y107" s="15"/>
+      <c r="V107" s="15">
+        <v>5</v>
+      </c>
+      <c r="W107" s="15">
+        <v>2</v>
+      </c>
+      <c r="X107" s="15">
+        <v>7</v>
+      </c>
+      <c r="Y107" s="15">
+        <v>9</v>
+      </c>
       <c r="AA107" s="17">
         <f t="shared" ref="AA107:AA109" si="468">SUM(E107:Y107)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.15">
       <c r="C108" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>40</v>
@@ -16313,23 +16447,23 @@
       </c>
       <c r="V109" s="48">
         <f t="shared" ref="V109" si="485">SUM(V103:V108)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W109" s="48">
         <f t="shared" ref="W109" si="486">SUM(W103:W108)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X109" s="48">
         <f t="shared" ref="X109" si="487">SUM(X103:X108)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y109" s="48">
         <f t="shared" ref="Y109" si="488">SUM(Y103:Y108)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA109" s="48">
         <f t="shared" si="468"/>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.15">
@@ -16407,19 +16541,19 @@
       </c>
       <c r="V110" s="47">
         <f t="shared" ref="V110" si="504">U110+V109</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W110" s="47">
         <f t="shared" ref="W110" si="505">V110+W109</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="X110" s="47">
         <f t="shared" ref="X110" si="506">W110+X109</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y110" s="47">
         <f t="shared" ref="Y110" si="507">X110+Y109</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="AA110" s="5"/>
     </row>
@@ -16500,28 +16634,28 @@
       </c>
       <c r="V111" s="8">
         <f t="shared" si="508"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="W111" s="8">
         <f t="shared" si="508"/>
-        <v>0</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="X111" s="8">
         <f t="shared" si="508"/>
-        <v>0</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="Y111" s="8">
         <f t="shared" si="508"/>
-        <v>0</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="AA111" s="8">
         <f>SUM(E111:Y111)</f>
-        <v>0</v>
+        <v>4.3520000000000003</v>
       </c>
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B112" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>33</v>
@@ -16599,19 +16733,19 @@
       </c>
       <c r="V112" s="8">
         <f t="shared" ref="V112" si="524">U112+V111</f>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="W112" s="8">
         <f t="shared" ref="W112" si="525">V112+W111</f>
-        <v>0</v>
+        <v>1.292</v>
       </c>
       <c r="X112" s="8">
         <f t="shared" ref="X112" si="526">W112+X111</f>
-        <v>0</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="Y112" s="8">
         <f t="shared" ref="Y112" si="527">X112+Y111</f>
-        <v>0</v>
+        <v>4.3520000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -16668,7 +16802,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -16682,15 +16816,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>